--- a/data/nzd0453/nzd0453.xlsx
+++ b/data/nzd0453/nzd0453.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD332"/>
+  <dimension ref="A1:AD337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29232,6 +29232,486 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:26:43+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>408.8588888888889</v>
+      </c>
+      <c r="C333" t="n">
+        <v>378.5645454545455</v>
+      </c>
+      <c r="D333" t="n">
+        <v>370.05</v>
+      </c>
+      <c r="E333" t="n">
+        <v>348.8845454545454</v>
+      </c>
+      <c r="F333" t="n">
+        <v>346.3245454545454</v>
+      </c>
+      <c r="G333" t="n">
+        <v>338.2761538461539</v>
+      </c>
+      <c r="H333" t="n">
+        <v>331.63</v>
+      </c>
+      <c r="I333" t="n">
+        <v>325.6961538461539</v>
+      </c>
+      <c r="J333" t="n">
+        <v>334.6</v>
+      </c>
+      <c r="K333" t="n">
+        <v>332.42</v>
+      </c>
+      <c r="L333" t="n">
+        <v>333.97</v>
+      </c>
+      <c r="M333" t="n">
+        <v>339.4833333333333</v>
+      </c>
+      <c r="N333" t="n">
+        <v>340.7429411764706</v>
+      </c>
+      <c r="O333" t="n">
+        <v>335.7</v>
+      </c>
+      <c r="P333" t="n">
+        <v>330.7430769230769</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>342.1429411764706</v>
+      </c>
+      <c r="R333" t="n">
+        <v>336.6</v>
+      </c>
+      <c r="S333" t="n">
+        <v>337.0333333333333</v>
+      </c>
+      <c r="T333" t="n">
+        <v>346.0345454545454</v>
+      </c>
+      <c r="U333" t="n">
+        <v>342.7263157894737</v>
+      </c>
+      <c r="V333" t="n">
+        <v>327.08</v>
+      </c>
+      <c r="W333" t="n">
+        <v>301.0961538461539</v>
+      </c>
+      <c r="X333" t="n">
+        <v>296.0961538461539</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>307.4645454545454</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>299.81</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>294.872962962963</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>289.062962962963</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>291.812962962963</v>
+      </c>
+      <c r="AD333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:26:37+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>408.72</v>
+      </c>
+      <c r="C334" t="n">
+        <v>378.2290909090909</v>
+      </c>
+      <c r="D334" t="n">
+        <v>360.48</v>
+      </c>
+      <c r="E334" t="n">
+        <v>348.2190909090909</v>
+      </c>
+      <c r="F334" t="n">
+        <v>335.569090909091</v>
+      </c>
+      <c r="G334" t="n">
+        <v>328.1538461538461</v>
+      </c>
+      <c r="H334" t="n">
+        <v>321.5071428571428</v>
+      </c>
+      <c r="I334" t="n">
+        <v>323.5438461538461</v>
+      </c>
+      <c r="J334" t="n">
+        <v>319.255</v>
+      </c>
+      <c r="K334" t="n">
+        <v>320.675</v>
+      </c>
+      <c r="L334" t="n">
+        <v>323.895</v>
+      </c>
+      <c r="M334" t="n">
+        <v>335.4</v>
+      </c>
+      <c r="N334" t="n">
+        <v>329.4264705882353</v>
+      </c>
+      <c r="O334" t="n">
+        <v>331.64</v>
+      </c>
+      <c r="P334" t="n">
+        <v>330.6569230769231</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>337.8964705882353</v>
+      </c>
+      <c r="R334" t="n">
+        <v>332.2571428571428</v>
+      </c>
+      <c r="S334" t="n">
+        <v>332.0700000000001</v>
+      </c>
+      <c r="T334" t="n">
+        <v>331.1390909090909</v>
+      </c>
+      <c r="U334" t="n">
+        <v>335.642105263158</v>
+      </c>
+      <c r="V334" t="n">
+        <v>330.97</v>
+      </c>
+      <c r="W334" t="n">
+        <v>305.7938461538461</v>
+      </c>
+      <c r="X334" t="n">
+        <v>306.5038461538461</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>306.6690909090909</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>302.17</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>296.81</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>256.55</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>290.85</v>
+      </c>
+      <c r="AD334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:26:39+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>409.7255555555556</v>
+      </c>
+      <c r="C335" t="n">
+        <v>380.4372727272727</v>
+      </c>
+      <c r="D335" t="n">
+        <v>351.38</v>
+      </c>
+      <c r="E335" t="n">
+        <v>336.5872727272728</v>
+      </c>
+      <c r="F335" t="n">
+        <v>333.5672727272727</v>
+      </c>
+      <c r="G335" t="n">
+        <v>331.4084615384616</v>
+      </c>
+      <c r="H335" t="n">
+        <v>335.4471428571428</v>
+      </c>
+      <c r="I335" t="n">
+        <v>325.8984615384616</v>
+      </c>
+      <c r="J335" t="n">
+        <v>315.325</v>
+      </c>
+      <c r="K335" t="n">
+        <v>320.495</v>
+      </c>
+      <c r="L335" t="n">
+        <v>327.185</v>
+      </c>
+      <c r="M335" t="n">
+        <v>334.9933333333333</v>
+      </c>
+      <c r="N335" t="n">
+        <v>338.0482352941176</v>
+      </c>
+      <c r="O335" t="n">
+        <v>331.83</v>
+      </c>
+      <c r="P335" t="n">
+        <v>331.9492307692308</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>342.6582352941176</v>
+      </c>
+      <c r="R335" t="n">
+        <v>336.4571428571429</v>
+      </c>
+      <c r="S335" t="n">
+        <v>332.3633333333333</v>
+      </c>
+      <c r="T335" t="n">
+        <v>343.2672727272728</v>
+      </c>
+      <c r="U335" t="n">
+        <v>338.3073684210527</v>
+      </c>
+      <c r="V335" t="n">
+        <v>324.09</v>
+      </c>
+      <c r="W335" t="n">
+        <v>299.4384615384615</v>
+      </c>
+      <c r="X335" t="n">
+        <v>290.0984615384615</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>295.0872727272728</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>305.57</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>299.3718518518518</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>262.7018518518519</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>286.6218518518518</v>
+      </c>
+      <c r="AD335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>413.7577777777778</v>
+      </c>
+      <c r="C336" t="n">
+        <v>390.1754545454546</v>
+      </c>
+      <c r="D336" t="n">
+        <v>369.57</v>
+      </c>
+      <c r="E336" t="n">
+        <v>359.4654545454546</v>
+      </c>
+      <c r="F336" t="n">
+        <v>346.7854545454546</v>
+      </c>
+      <c r="G336" t="n">
+        <v>345.1376923076923</v>
+      </c>
+      <c r="H336" t="n">
+        <v>339.1285714285714</v>
+      </c>
+      <c r="I336" t="n">
+        <v>338.6876923076923</v>
+      </c>
+      <c r="J336" t="n">
+        <v>333.71</v>
+      </c>
+      <c r="K336" t="n">
+        <v>340.54</v>
+      </c>
+      <c r="L336" t="n">
+        <v>341.09</v>
+      </c>
+      <c r="M336" t="n">
+        <v>346.0166666666667</v>
+      </c>
+      <c r="N336" t="n">
+        <v>335.6017647058824</v>
+      </c>
+      <c r="O336" t="n">
+        <v>353.15</v>
+      </c>
+      <c r="P336" t="n">
+        <v>337.1238461538462</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>350.3417647058824</v>
+      </c>
+      <c r="R336" t="n">
+        <v>351.4685714285715</v>
+      </c>
+      <c r="S336" t="n">
+        <v>344.3266666666667</v>
+      </c>
+      <c r="T336" t="n">
+        <v>356.2554545454545</v>
+      </c>
+      <c r="U336" t="n">
+        <v>349.721052631579</v>
+      </c>
+      <c r="V336" t="n">
+        <v>338.39</v>
+      </c>
+      <c r="W336" t="n">
+        <v>322.9776923076923</v>
+      </c>
+      <c r="X336" t="n">
+        <v>309.5776923076923</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>319.5954545454546</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>314.46</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>308.9359259259259</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>262.8159259259259</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>295.3459259259259</v>
+      </c>
+      <c r="AD336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:26:46+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>405.9611111111111</v>
+      </c>
+      <c r="C337" t="n">
+        <v>381.6345454545455</v>
+      </c>
+      <c r="D337" t="n">
+        <v>360.61</v>
+      </c>
+      <c r="E337" t="n">
+        <v>334.2045454545454</v>
+      </c>
+      <c r="F337" t="n">
+        <v>325.3745454545455</v>
+      </c>
+      <c r="G337" t="n">
+        <v>329.6169230769231</v>
+      </c>
+      <c r="H337" t="n">
+        <v>334.2042857142857</v>
+      </c>
+      <c r="I337" t="n">
+        <v>328.4269230769231</v>
+      </c>
+      <c r="J337" t="n">
+        <v>329.4</v>
+      </c>
+      <c r="K337" t="n">
+        <v>324.69</v>
+      </c>
+      <c r="L337" t="n">
+        <v>342.04</v>
+      </c>
+      <c r="M337" t="n">
+        <v>347.1866666666667</v>
+      </c>
+      <c r="N337" t="n">
+        <v>342.6064705882353</v>
+      </c>
+      <c r="O337" t="n">
+        <v>331.6799999999999</v>
+      </c>
+      <c r="P337" t="n">
+        <v>356.4184615384615</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>346.7264705882353</v>
+      </c>
+      <c r="R337" t="n">
+        <v>345.4342857142857</v>
+      </c>
+      <c r="S337" t="n">
+        <v>343.8966666666666</v>
+      </c>
+      <c r="T337" t="n">
+        <v>347.1945454545454</v>
+      </c>
+      <c r="U337" t="n">
+        <v>345.5247368421053</v>
+      </c>
+      <c r="V337" t="n">
+        <v>346.29</v>
+      </c>
+      <c r="W337" t="n">
+        <v>323.8269230769231</v>
+      </c>
+      <c r="X337" t="n">
+        <v>301.8069230769231</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>303.1145454545455</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>310</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>311.4337037037037</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>287.7437037037037</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>284.3337037037037</v>
+      </c>
+      <c r="AD337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29243,7 +29723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B341"/>
+  <dimension ref="A1:B346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32661,6 +33141,56 @@
       </c>
       <c r="B341" t="n">
         <v>1.08</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -32829,28 +33359,28 @@
         <v>0.055</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1753361729204857</v>
+        <v>-0.06772869989138165</v>
       </c>
       <c r="J2" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K2" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002589247434741648</v>
+        <v>0.0003937412409475982</v>
       </c>
       <c r="M2" t="n">
-        <v>18.88253491467572</v>
+        <v>19.08677632336882</v>
       </c>
       <c r="N2" t="n">
-        <v>621.3336402239011</v>
+        <v>624.476935521458</v>
       </c>
       <c r="O2" t="n">
-        <v>24.92656495034767</v>
+        <v>24.9895365207412</v>
       </c>
       <c r="P2" t="n">
-        <v>385.0714077708678</v>
+        <v>384.0192275048371</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -32906,28 +33436,28 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01369594068200505</v>
+        <v>0.04727737118556629</v>
       </c>
       <c r="J3" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K3" t="n">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L3" t="n">
-        <v>2.709325015903818e-05</v>
+        <v>0.0003336401313246418</v>
       </c>
       <c r="M3" t="n">
-        <v>15.25262316042101</v>
+        <v>15.14369816005269</v>
       </c>
       <c r="N3" t="n">
-        <v>358.1705192680961</v>
+        <v>353.5638459890812</v>
       </c>
       <c r="O3" t="n">
-        <v>18.9253935036526</v>
+        <v>18.80329348781966</v>
       </c>
       <c r="P3" t="n">
-        <v>372.0360834447683</v>
+        <v>371.7026864979882</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -32983,28 +33513,28 @@
         <v>0.0574</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1105128579312334</v>
+        <v>0.1058549262906288</v>
       </c>
       <c r="J4" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K4" t="n">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002097130706937844</v>
+        <v>0.001992957832882447</v>
       </c>
       <c r="M4" t="n">
-        <v>13.98750911614137</v>
+        <v>13.84628846139378</v>
       </c>
       <c r="N4" t="n">
-        <v>302.5885304899352</v>
+        <v>298.0164721105741</v>
       </c>
       <c r="O4" t="n">
-        <v>17.39507201738283</v>
+        <v>17.26315359691195</v>
       </c>
       <c r="P4" t="n">
-        <v>360.9254411048749</v>
+        <v>360.9716613020658</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -33060,28 +33590,28 @@
         <v>0.0663</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.007994469009859827</v>
+        <v>-0.03495243669760735</v>
       </c>
       <c r="J5" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K5" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L5" t="n">
-        <v>1.183789676673097e-05</v>
+        <v>0.0002327988572509154</v>
       </c>
       <c r="M5" t="n">
-        <v>13.26373895819892</v>
+        <v>13.20073859970882</v>
       </c>
       <c r="N5" t="n">
-        <v>281.3103798975828</v>
+        <v>278.7946712875558</v>
       </c>
       <c r="O5" t="n">
-        <v>16.77230991538085</v>
+        <v>16.69714560299322</v>
       </c>
       <c r="P5" t="n">
-        <v>353.3873740636183</v>
+        <v>353.6544478672532</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -33137,28 +33667,28 @@
         <v>0.0597</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1552895084608464</v>
+        <v>-0.1820352318186051</v>
       </c>
       <c r="J6" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K6" t="n">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005905085973164192</v>
+        <v>0.008318757444043978</v>
       </c>
       <c r="M6" t="n">
-        <v>11.69055594501473</v>
+        <v>11.64042581479365</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1337123016789</v>
+        <v>210.5337995160496</v>
       </c>
       <c r="O6" t="n">
-        <v>14.56481075406333</v>
+        <v>14.50978289003835</v>
       </c>
       <c r="P6" t="n">
-        <v>349.1557455143056</v>
+        <v>349.4197136870158</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -33214,28 +33744,28 @@
         <v>0.0772</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2910438339422524</v>
+        <v>-0.3025899098060691</v>
       </c>
       <c r="J7" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K7" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02229636589528683</v>
+        <v>0.02485264014737643</v>
       </c>
       <c r="M7" t="n">
-        <v>11.41548861820015</v>
+        <v>11.32763534680332</v>
       </c>
       <c r="N7" t="n">
-        <v>192.2948727450994</v>
+        <v>189.7605192975222</v>
       </c>
       <c r="O7" t="n">
-        <v>13.86704268202486</v>
+        <v>13.77535913497438</v>
       </c>
       <c r="P7" t="n">
-        <v>345.1903099631402</v>
+        <v>345.3048201056746</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -33291,28 +33821,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1877123228088605</v>
+        <v>-0.1966895913014747</v>
       </c>
       <c r="J8" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008794924751660105</v>
+        <v>0.009979265550003169</v>
       </c>
       <c r="M8" t="n">
-        <v>11.32435671129733</v>
+        <v>11.20508645266863</v>
       </c>
       <c r="N8" t="n">
-        <v>205.9699744690587</v>
+        <v>203.0901866897365</v>
       </c>
       <c r="O8" t="n">
-        <v>14.35165406735609</v>
+        <v>14.25097142968635</v>
       </c>
       <c r="P8" t="n">
-        <v>339.7476384434303</v>
+        <v>339.8361820846016</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -33368,28 +33898,28 @@
         <v>0.0832</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1189530825910755</v>
+        <v>-0.1351803377627179</v>
       </c>
       <c r="J9" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K9" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003640292283895175</v>
+        <v>0.004861387354739066</v>
       </c>
       <c r="M9" t="n">
-        <v>11.2597358969641</v>
+        <v>11.1878882286503</v>
       </c>
       <c r="N9" t="n">
-        <v>201.4870988877518</v>
+        <v>198.7525681251761</v>
       </c>
       <c r="O9" t="n">
-        <v>14.19461513700712</v>
+        <v>14.09796326159123</v>
       </c>
       <c r="P9" t="n">
-        <v>336.0438210787115</v>
+        <v>336.2027566696088</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -33445,28 +33975,28 @@
         <v>0.1046</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.06853757632786764</v>
+        <v>-0.08601737306169267</v>
       </c>
       <c r="J10" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K10" t="n">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00117446049879133</v>
+        <v>0.001908955089189091</v>
       </c>
       <c r="M10" t="n">
-        <v>11.75687501225881</v>
+        <v>11.68441929523595</v>
       </c>
       <c r="N10" t="n">
-        <v>208.133481168637</v>
+        <v>205.8760907431796</v>
       </c>
       <c r="O10" t="n">
-        <v>14.42683198656715</v>
+        <v>14.34838286160429</v>
       </c>
       <c r="P10" t="n">
-        <v>333.0704448836024</v>
+        <v>333.2416353600109</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -33522,28 +34052,28 @@
         <v>0.1055</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.06915309182106601</v>
+        <v>-0.07285283484878927</v>
       </c>
       <c r="J11" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K11" t="n">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001095854975781907</v>
+        <v>0.001257271526277859</v>
       </c>
       <c r="M11" t="n">
-        <v>12.06237464883085</v>
+        <v>11.97581970864278</v>
       </c>
       <c r="N11" t="n">
-        <v>225.885286866209</v>
+        <v>222.9432187687219</v>
       </c>
       <c r="O11" t="n">
-        <v>15.02948059203008</v>
+        <v>14.9312832257888</v>
       </c>
       <c r="P11" t="n">
-        <v>330.5743434827069</v>
+        <v>330.6109155225322</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -33599,28 +34129,28 @@
         <v>0.097</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1127128011251818</v>
+        <v>-0.09343897861868679</v>
       </c>
       <c r="J12" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K12" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002631515962930875</v>
+        <v>0.001871432979413612</v>
       </c>
       <c r="M12" t="n">
-        <v>12.50212314792883</v>
+        <v>12.40413707352269</v>
       </c>
       <c r="N12" t="n">
-        <v>245.4825564252453</v>
+        <v>242.5672463340891</v>
       </c>
       <c r="O12" t="n">
-        <v>15.6678829592656</v>
+        <v>15.57457050239553</v>
       </c>
       <c r="P12" t="n">
-        <v>331.1231627661207</v>
+        <v>330.9320311119649</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -33676,28 +34206,28 @@
         <v>0.0925</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1763618619070284</v>
+        <v>-0.135931447892309</v>
       </c>
       <c r="J13" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K13" t="n">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007315025559193278</v>
+        <v>0.00447347422257538</v>
       </c>
       <c r="M13" t="n">
-        <v>11.80464082258223</v>
+        <v>11.81842993445529</v>
       </c>
       <c r="N13" t="n">
-        <v>215.4582069756509</v>
+        <v>214.3216865340933</v>
       </c>
       <c r="O13" t="n">
-        <v>14.67849471082273</v>
+        <v>14.63972972886089</v>
       </c>
       <c r="P13" t="n">
-        <v>333.6476300334093</v>
+        <v>333.2458139688857</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -33753,28 +34283,28 @@
         <v>0.1088</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.08373686614539222</v>
+        <v>-0.06075611667284416</v>
       </c>
       <c r="J14" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K14" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001990591801983022</v>
+        <v>0.001082916877923501</v>
       </c>
       <c r="M14" t="n">
-        <v>10.64194356404076</v>
+        <v>10.59278007912101</v>
       </c>
       <c r="N14" t="n">
-        <v>178.1992569245004</v>
+        <v>176.2137528379838</v>
       </c>
       <c r="O14" t="n">
-        <v>13.3491294444432</v>
+        <v>13.27455283005736</v>
       </c>
       <c r="P14" t="n">
-        <v>332.8180192295098</v>
+        <v>332.5889446973221</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -33830,28 +34360,28 @@
         <v>0.0558</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02191485494068537</v>
+        <v>0.03563271666435013</v>
       </c>
       <c r="J15" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K15" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001203987319557953</v>
+        <v>0.0003281241132044865</v>
       </c>
       <c r="M15" t="n">
-        <v>11.30993627966582</v>
+        <v>11.20809723293574</v>
       </c>
       <c r="N15" t="n">
-        <v>201.9317326845881</v>
+        <v>199.878639762969</v>
       </c>
       <c r="O15" t="n">
-        <v>14.21026856482973</v>
+        <v>14.13784424029948</v>
       </c>
       <c r="P15" t="n">
-        <v>332.3333497787746</v>
+        <v>332.1957355087155</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -33907,28 +34437,28 @@
         <v>0.1998</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2389361522000861</v>
+        <v>-0.2088268414423309</v>
       </c>
       <c r="J16" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K16" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01437855761915485</v>
+        <v>0.01128348208120478</v>
       </c>
       <c r="M16" t="n">
-        <v>11.18956105105224</v>
+        <v>11.12966629591459</v>
       </c>
       <c r="N16" t="n">
-        <v>198.2075307594346</v>
+        <v>197.6430147537698</v>
       </c>
       <c r="O16" t="n">
-        <v>14.07861963260016</v>
+        <v>14.05855663835266</v>
       </c>
       <c r="P16" t="n">
-        <v>334.9009265137703</v>
+        <v>334.6005758863518</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -33984,28 +34514,28 @@
         <v>0.1117</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5483490613686509</v>
+        <v>-0.4894960985377551</v>
       </c>
       <c r="J17" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K17" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07728413356680153</v>
+        <v>0.06319607383303527</v>
       </c>
       <c r="M17" t="n">
-        <v>10.90728520807617</v>
+        <v>10.97692858431182</v>
       </c>
       <c r="N17" t="n">
-        <v>183.6000119702589</v>
+        <v>185.4197098367019</v>
       </c>
       <c r="O17" t="n">
-        <v>13.54990819047343</v>
+        <v>13.61689060823733</v>
       </c>
       <c r="P17" t="n">
-        <v>340.9608107274437</v>
+        <v>340.3766425679776</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -34061,28 +34591,28 @@
         <v>0.09030000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.726923192036679</v>
+        <v>-0.6792289851021494</v>
       </c>
       <c r="J18" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K18" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1352913864192266</v>
+        <v>0.1214884981854019</v>
       </c>
       <c r="M18" t="n">
-        <v>10.28672635450319</v>
+        <v>10.34684991888469</v>
       </c>
       <c r="N18" t="n">
-        <v>171.9791527980553</v>
+        <v>173.1459972105468</v>
       </c>
       <c r="O18" t="n">
-        <v>13.11408223239641</v>
+        <v>13.15849524871848</v>
       </c>
       <c r="P18" t="n">
-        <v>344.6594773893762</v>
+        <v>344.1808278780645</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -34138,28 +34668,28 @@
         <v>0.0883</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.8093479127995201</v>
+        <v>-0.7714410259848165</v>
       </c>
       <c r="J19" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K19" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L19" t="n">
-        <v>0.14275351277209</v>
+        <v>0.1342466891586763</v>
       </c>
       <c r="M19" t="n">
-        <v>11.25232492031636</v>
+        <v>11.24050622621901</v>
       </c>
       <c r="N19" t="n">
-        <v>198.7957598088641</v>
+        <v>197.9118510722979</v>
       </c>
       <c r="O19" t="n">
-        <v>14.09949501964039</v>
+        <v>14.06811469502214</v>
       </c>
       <c r="P19" t="n">
-        <v>347.3782110216523</v>
+        <v>346.9990862364019</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -34215,28 +34745,28 @@
         <v>0.0664</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.7325564883711023</v>
+        <v>-0.6798192473565796</v>
       </c>
       <c r="J20" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K20" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1040516742308862</v>
+        <v>0.09222049205651173</v>
       </c>
       <c r="M20" t="n">
-        <v>12.16656558014622</v>
+        <v>12.19369196692644</v>
       </c>
       <c r="N20" t="n">
-        <v>232.5978676711919</v>
+        <v>233.5881708928431</v>
       </c>
       <c r="O20" t="n">
-        <v>15.25115955169285</v>
+        <v>15.28359155738084</v>
       </c>
       <c r="P20" t="n">
-        <v>347.9551370734708</v>
+        <v>347.4242317338228</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -34292,28 +34822,28 @@
         <v>0.1275</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.6229396717559458</v>
+        <v>-0.5786436290179687</v>
       </c>
       <c r="J21" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K21" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08452650521396765</v>
+        <v>0.07525994054309992</v>
       </c>
       <c r="M21" t="n">
-        <v>11.58838441345845</v>
+        <v>11.56984157596514</v>
       </c>
       <c r="N21" t="n">
-        <v>211.2389667966426</v>
+        <v>210.8437961108328</v>
       </c>
       <c r="O21" t="n">
-        <v>14.53406229505855</v>
+        <v>14.52046129125493</v>
       </c>
       <c r="P21" t="n">
-        <v>345.1271990517769</v>
+        <v>344.6798475230741</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -34369,28 +34899,28 @@
         <v>0.0581</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.5360970259996146</v>
+        <v>-0.5294094653385094</v>
       </c>
       <c r="J22" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K22" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05549362174112482</v>
+        <v>0.05590737496453602</v>
       </c>
       <c r="M22" t="n">
-        <v>12.9792047689329</v>
+        <v>12.87104048262376</v>
       </c>
       <c r="N22" t="n">
-        <v>249.6786331251558</v>
+        <v>246.4965430571007</v>
       </c>
       <c r="O22" t="n">
-        <v>15.80122251995572</v>
+        <v>15.70020837623185</v>
       </c>
       <c r="P22" t="n">
-        <v>345.0965229687017</v>
+        <v>345.0293374952038</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -34446,28 +34976,28 @@
         <v>0.0722</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.5432667827686182</v>
+        <v>-0.5997622567046421</v>
       </c>
       <c r="J23" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K23" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05645336897599429</v>
+        <v>0.06869044240090116</v>
       </c>
       <c r="M23" t="n">
-        <v>13.10784596953452</v>
+        <v>13.1570155028045</v>
       </c>
       <c r="N23" t="n">
-        <v>250.6132246479943</v>
+        <v>252.7135186063605</v>
       </c>
       <c r="O23" t="n">
-        <v>15.83076828988392</v>
+        <v>15.89696570438398</v>
       </c>
       <c r="P23" t="n">
-        <v>341.025517363672</v>
+        <v>341.5907271260289</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -34523,28 +35053,28 @@
         <v>0.074</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.3771314503164565</v>
+        <v>-0.434087894046884</v>
       </c>
       <c r="J24" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K24" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02918279391213863</v>
+        <v>0.03893392459722178</v>
       </c>
       <c r="M24" t="n">
-        <v>12.5144645496546</v>
+        <v>12.57908082449056</v>
       </c>
       <c r="N24" t="n">
-        <v>243.5792028783567</v>
+        <v>244.4982275846798</v>
       </c>
       <c r="O24" t="n">
-        <v>15.60702415191175</v>
+        <v>15.63643909541683</v>
       </c>
       <c r="P24" t="n">
-        <v>326.5402382446271</v>
+        <v>327.1028960442436</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -34600,28 +35130,28 @@
         <v>0.0643</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.4832525142911074</v>
+        <v>-0.486421697042445</v>
       </c>
       <c r="J25" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K25" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04651495359241453</v>
+        <v>0.04892527996025642</v>
       </c>
       <c r="M25" t="n">
-        <v>12.80084028174187</v>
+        <v>12.66153296893908</v>
       </c>
       <c r="N25" t="n">
-        <v>250.932483059754</v>
+        <v>247.121138044611</v>
       </c>
       <c r="O25" t="n">
-        <v>15.84084855870272</v>
+        <v>15.72008708769169</v>
       </c>
       <c r="P25" t="n">
-        <v>319.4491013746615</v>
+        <v>319.4797636377668</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -34677,28 +35207,28 @@
         <v>0.1565</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.551651577877704</v>
+        <v>-3.303411399522894</v>
       </c>
       <c r="J26" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K26" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1734546241238036</v>
+        <v>0.1558654279680364</v>
       </c>
       <c r="M26" t="n">
-        <v>41.87810987314288</v>
+        <v>41.51503590813123</v>
       </c>
       <c r="N26" t="n">
-        <v>3081.095187558124</v>
+        <v>3092.692106682462</v>
       </c>
       <c r="O26" t="n">
-        <v>55.50761378007637</v>
+        <v>55.61197808640205</v>
       </c>
       <c r="P26" t="n">
-        <v>334.6646551158788</v>
+        <v>332.1406807271297</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -34754,28 +35284,28 @@
         <v>0.2</v>
       </c>
       <c r="I27" t="n">
-        <v>-3.108970678367119</v>
+        <v>-2.833006347696764</v>
       </c>
       <c r="J27" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K27" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2199932618693361</v>
+        <v>0.1875843842602785</v>
       </c>
       <c r="M27" t="n">
-        <v>35.51243589939161</v>
+        <v>36.64947365791616</v>
       </c>
       <c r="N27" t="n">
-        <v>1713.596781512165</v>
+        <v>1772.731424470958</v>
       </c>
       <c r="O27" t="n">
-        <v>41.3956130708577</v>
+        <v>42.1038172197125</v>
       </c>
       <c r="P27" t="n">
-        <v>311.8654500851918</v>
+        <v>308.995539628701</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -34825,28 +35355,28 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>-0.8415242116994536</v>
+        <v>-0.7634853921209633</v>
       </c>
       <c r="J28" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K28" t="n">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04860989593590082</v>
+        <v>0.04112077808563808</v>
       </c>
       <c r="M28" t="n">
-        <v>19.67369743955572</v>
+        <v>19.73928458858706</v>
       </c>
       <c r="N28" t="n">
-        <v>702.7494083711676</v>
+        <v>701.8239962787909</v>
       </c>
       <c r="O28" t="n">
-        <v>26.50942112478444</v>
+        <v>26.49196097458229</v>
       </c>
       <c r="P28" t="n">
-        <v>271.0536019903408</v>
+        <v>270.2537509136462</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -34896,28 +35426,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>-0.1973078899831396</v>
+        <v>-0.1566612438747726</v>
       </c>
       <c r="J29" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K29" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01174110793728123</v>
+        <v>0.007603160039196477</v>
       </c>
       <c r="M29" t="n">
-        <v>10.64505030519385</v>
+        <v>10.64748830947625</v>
       </c>
       <c r="N29" t="n">
-        <v>170.880467915163</v>
+        <v>170.2888749684147</v>
       </c>
       <c r="O29" t="n">
-        <v>13.07212560814663</v>
+        <v>13.0494779576968</v>
       </c>
       <c r="P29" t="n">
-        <v>283.3678621724407</v>
+        <v>282.9625062159215</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -34954,7 +35484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD332"/>
+  <dimension ref="A1:AD337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79162,6 +79692,766 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:26:43+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-44.02914824893521,168.36223366422573</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-44.028672445627116,168.36293023564772</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-44.0281123678848,168.36338190257837</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-44.02760122957898,168.36397581866444</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-44.02701810076795,168.3643605274824</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-44.026456199888784,168.36480694807705</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-44.02588886751862,168.36523760045742</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>-44.02531877301868,168.3656602425227</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>-44.02469126816949,168.36591605023588</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>-44.0241066387909,168.36629648400532</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>-44.02350757291472,168.36663497839604</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>-44.022893074239285,168.36692892678576</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>-44.02229286853051,168.36726688331072</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>-44.02169686257874,168.36761638150998</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>-44.0211017341506,168.3679649728909</t>
+        </is>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>-44.02045378086251,168.36812342522325</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>-44.01986053210879,168.3684788282518</t>
+        </is>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>-44.019247978835246,168.36876476073036</t>
+        </is>
+      </c>
+      <c r="T333" t="inlineStr">
+        <is>
+          <t>-44.018607752969054,168.3689510995063</t>
+        </is>
+      </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>-44.01800726904259,168.36928052492306</t>
+        </is>
+      </c>
+      <c r="V333" t="inlineStr">
+        <is>
+          <t>-44.01744371467859,168.3697544646401</t>
+        </is>
+      </c>
+      <c r="W333" t="inlineStr">
+        <is>
+          <t>-44.016875932286354,168.3703267064897</t>
+        </is>
+      </c>
+      <c r="X333" t="inlineStr">
+        <is>
+          <t>-44.01622551458363,168.37054523751664</t>
+        </is>
+      </c>
+      <c r="Y333" t="inlineStr">
+        <is>
+          <t>-44.01556772227803,168.37055785891988</t>
+        </is>
+      </c>
+      <c r="Z333" t="inlineStr">
+        <is>
+          <t>-44.01494504299486,168.37080235991863</t>
+        </is>
+      </c>
+      <c r="AA333" t="inlineStr">
+        <is>
+          <t>-44.01431733966043,168.37101373478146</t>
+        </is>
+      </c>
+      <c r="AB333" t="inlineStr">
+        <is>
+          <t>-44.01369124089517,168.37123574905257</t>
+        </is>
+      </c>
+      <c r="AC333" t="inlineStr">
+        <is>
+          <t>-44.01304933244738,168.37135342437864</t>
+        </is>
+      </c>
+      <c r="AD333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:26:37+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-44.02914878631019,168.36223522596026</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-44.028673743514574,168.3629340076477</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-44.028149394221046,168.36348951123415</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-44.02760380419354,168.36398330124058</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-44.0270597127773,168.36448146427747</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-44.026495361949074,168.36492076482335</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>-44.025928031362604,168.36535142256434</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>-44.025327099918144,168.3656844430301</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>-44.02475063489793,168.36608858767815</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>-44.02415207752139,168.36642854239355</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>-44.023546550550456,168.36674825869076</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>-44.022908797249634,168.3669748871056</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>-44.02233285036601,168.36739649906292</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>-44.021709973064056,168.36766357747356</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>-44.02110201235485,168.3679659743881</t>
+        </is>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>-44.020467493324176,168.36817278791577</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>-44.01987455568566,168.36852931096107</t>
+        </is>
+      </c>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>-44.019264005882604,168.36882245552817</t>
+        </is>
+      </c>
+      <c r="T334" t="inlineStr">
+        <is>
+          <t>-44.0186558514383,168.36912424567183</t>
+        </is>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>-44.01803014429246,168.36936287170937</t>
+        </is>
+      </c>
+      <c r="V334" t="inlineStr">
+        <is>
+          <t>-44.01743180075639,168.36970891270533</t>
+        </is>
+      </c>
+      <c r="W334" t="inlineStr">
+        <is>
+          <t>-44.016864779108865,168.37027027351604</t>
+        </is>
+      </c>
+      <c r="X334" t="inlineStr">
+        <is>
+          <t>-44.01620629994357,168.37041837216515</t>
+        </is>
+      </c>
+      <c r="Y334" t="inlineStr">
+        <is>
+          <t>-44.01556919083646,168.37056755506984</t>
+        </is>
+      </c>
+      <c r="Z334" t="inlineStr">
+        <is>
+          <t>-44.01494068604694,168.37077359310928</t>
+        </is>
+      </c>
+      <c r="AA334" t="inlineStr">
+        <is>
+          <t>-44.01431376361461,168.37099012383888</t>
+        </is>
+      </c>
+      <c r="AB334" t="inlineStr">
+        <is>
+          <t>-44.013751262987604,168.37163205282621</t>
+        </is>
+      </c>
+      <c r="AC334" t="inlineStr">
+        <is>
+          <t>-44.01305111017834,168.3713651618953</t>
+        </is>
+      </c>
+      <c r="AD334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:26:39+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-44.02914489571481,168.36222391900293</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-44.02866519996589,168.36290917787318</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-44.02818460203788,168.3635918351651</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-44.0276488071148,168.36411409310142</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-44.02706745764132,168.3645039731994</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-44.02648277022304,168.36488416942248</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-44.02587409952699,168.36519468027964</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>-44.02531799032559,168.36565796777913</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>-44.024765839240295,168.3661327762114</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>-44.02415277389926,168.36643056627858</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>-44.023533822381346,168.36671126689495</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>-44.02291036313214,168.36697946437968</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>-44.02230238911648,168.3672977477165</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>-44.0217093595196,168.36766136879498</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>-44.02109783929027,168.36795095193074</t>
+        </is>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>-44.02045211690261,168.36811743523754</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>-44.019860993411,168.36848048886682</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>-44.019263058683805,168.36881904576083</t>
+        </is>
+      </c>
+      <c r="T335" t="inlineStr">
+        <is>
+          <t>-44.018616688706125,168.36898326652226</t>
+        </is>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>-44.01802153803871,168.36933189071138</t>
+        </is>
+      </c>
+      <c r="V335" t="inlineStr">
+        <is>
+          <t>-44.017452872154486,168.36978947758013</t>
+        </is>
+      </c>
+      <c r="W335" t="inlineStr">
+        <is>
+          <t>-44.01687986794348,168.37034662021037</t>
+        </is>
+      </c>
+      <c r="X335" t="inlineStr">
+        <is>
+          <t>-44.01623658743665,168.37061834688248</t>
+        </is>
+      </c>
+      <c r="Y335" t="inlineStr">
+        <is>
+          <t>-44.01559057295588,168.37070873107496</t>
+        </is>
+      </c>
+      <c r="Z335" t="inlineStr">
+        <is>
+          <t>-44.01493440907561,168.37073214940932</t>
+        </is>
+      </c>
+      <c r="AA335" t="inlineStr">
+        <is>
+          <t>-44.014309034064446,168.37095889690505</t>
+        </is>
+      </c>
+      <c r="AB335" t="inlineStr">
+        <is>
+          <t>-44.013739906173804,168.3715570672157</t>
+        </is>
+      </c>
+      <c r="AC335" t="inlineStr">
+        <is>
+          <t>-44.01305891577079,168.37141669863192</t>
+        </is>
+      </c>
+      <c r="AD335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-44.029129294631566,168.3621785787444</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-44.02862752246824,168.3627996775326</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-44.02811422500741,168.36338729987438</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-44.027560292441706,168.3638568437512</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-44.02701631754414,168.36435534491895</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-44.026429653313684,168.36472979599887</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-44.02585985658045,168.36515328610253</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-44.025268510940904,168.36551416605872</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>-44.02469471140779,168.3659260572852</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>-44.02407522427537,168.366205184503</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>-44.02348002736504,168.36655492333406</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>-44.02286791738632,168.36685539032712</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>-44.02231103266278,168.36732576891387</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>-44.02164051311274,168.3674135321169</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>-44.02108112962523,168.36789079953016</t>
+        </is>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>-44.02042730562935,168.36802811884962</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>-44.019812519648205,168.36830599159006</t>
+        </is>
+      </c>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>-44.0192244279588,168.3686799815982</t>
+        </is>
+      </c>
+      <c r="T336" t="inlineStr">
+        <is>
+          <t>-44.01857474879008,168.3688322908704</t>
+        </is>
+      </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>-44.017984682651694,168.36919921824438</t>
+        </is>
+      </c>
+      <c r="V336" t="inlineStr">
+        <is>
+          <t>-44.0174090754374,168.36962202449345</t>
+        </is>
+      </c>
+      <c r="W336" t="inlineStr">
+        <is>
+          <t>-44.016823981296525,168.37006384564927</t>
+        </is>
+      </c>
+      <c r="X336" t="inlineStr">
+        <is>
+          <t>-44.01620062499468,168.37038090330313</t>
+        </is>
+      </c>
+      <c r="Y336" t="inlineStr">
+        <is>
+          <t>-44.01554532624275,168.37040998993044</t>
+        </is>
+      </c>
+      <c r="Z336" t="inlineStr">
+        <is>
+          <t>-44.01491799657221,168.37062378637046</t>
+        </is>
+      </c>
+      <c r="AA336" t="inlineStr">
+        <is>
+          <t>-44.014291377322486,168.37084231850895</t>
+        </is>
+      </c>
+      <c r="AB336" t="inlineStr">
+        <is>
+          <t>-44.01373969558342,168.37155567675433</t>
+        </is>
+      </c>
+      <c r="AC336" t="inlineStr">
+        <is>
+          <t>-44.01304281021589,168.37131036124248</t>
+        </is>
+      </c>
+      <c r="AD336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:26:46+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-44.02915946072284,168.3622662482611</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-44.028660567665014,168.3628957152114</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-44.028148891251575,168.36348804946462</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-44.02765802574963,168.3641408852699</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-44.02709915456145,168.36459609424656</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-44.02648970147706,168.36490431375717</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-44.025878907969044,168.36520865503567</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-44.02530820814639,168.3656295378148</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>-44.024711385954575,168.36597451840643</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>-44.02413654441691,168.3663833985273</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>-44.02347635204188,168.3665442418359</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>-44.02286341225128,168.366842221305</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>-44.02228628454499,168.36724553897338</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>-44.021709843896794,168.3676631124886</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>-44.02101882394257,168.36766650927908</t>
+        </is>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>-44.020438979966684,168.36807014444986</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>-44.01983200513513,168.3683761358718</t>
+        </is>
+      </c>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>-44.01922581647192,168.36868498000027</t>
+        </is>
+      </c>
+      <c r="T337" t="inlineStr">
+        <is>
+          <t>-44.01860400723701,168.3689376155697</t>
+        </is>
+      </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>-44.01799823279339,168.36924799612578</t>
+        </is>
+      </c>
+      <c r="V337" t="inlineStr">
+        <is>
+          <t>-44.01738487994714,168.36952951555926</t>
+        </is>
+      </c>
+      <c r="W337" t="inlineStr">
+        <is>
+          <t>-44.01682196504717,168.37005364393104</t>
+        </is>
+      </c>
+      <c r="X337" t="inlineStr">
+        <is>
+          <t>-44.01621497140129,168.37047562565218</t>
+        </is>
+      </c>
+      <c r="Y337" t="inlineStr">
+        <is>
+          <t>-44.01557575318482,168.37061088301513</t>
+        </is>
+      </c>
+      <c r="Z337" t="inlineStr">
+        <is>
+          <t>-44.014926230529106,168.37067815072115</t>
+        </is>
+      </c>
+      <c r="AA337" t="inlineStr">
+        <is>
+          <t>-44.014286766023936,168.37081187261313</t>
+        </is>
+      </c>
+      <c r="AB337" t="inlineStr">
+        <is>
+          <t>-44.01369367640226,168.37125182961853</t>
+        </is>
+      </c>
+      <c r="AC337" t="inlineStr">
+        <is>
+          <t>-44.01306313991601,168.3714445887889</t>
+        </is>
+      </c>
+      <c r="AD337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0453/nzd0453.xlsx
+++ b/data/nzd0453/nzd0453.xlsx
@@ -33204,7 +33204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33295,35 +33295,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -33382,27 +33387,28 @@
       <c r="P2" t="n">
         <v>384.0192275048371</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (168.3668312019743 -44.03073007722906, 168.3568466637048 -44.027294462498396)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>168.3668312019743</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-44.03073007722906</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>168.3568466637048</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-44.0272944624984</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>168.3618389328395</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-44.02901226986373</v>
       </c>
     </row>
@@ -33459,27 +33465,28 @@
       <c r="P3" t="n">
         <v>371.7026864979882</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (168.3671870938447 -44.03013705240251, 168.35720260422062 -44.02670145043232)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>168.3671870938447</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-44.03013705240251</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>168.3572026042206</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-44.02670145043232</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>168.3621948490327</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-44.02841925141742</v>
       </c>
     </row>
@@ -33536,27 +33543,28 @@
       <c r="P4" t="n">
         <v>360.9716613020658</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (168.36754298571532 -44.0295440216427, 168.35755854473612 -44.02610843243279)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>168.3675429857153</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-44.0295440216427</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>168.3575585447361</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-44.02610843243279</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>168.3625507652257</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-44.02782622703775</v>
       </c>
     </row>
@@ -33613,27 +33621,28 @@
       <c r="P5" t="n">
         <v>353.6544478672532</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (168.36789887758604 -44.028950984949745, 168.3579144852512 -44.0255154084996)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>168.367898877586</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-44.02895098494974</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>168.3579144852512</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-44.0255154084996</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>168.3629066814186</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-44.02723319672467</v>
       </c>
     </row>
@@ -33690,27 +33699,28 @@
       <c r="P6" t="n">
         <v>349.4197136870158</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (168.36825476945694 -44.028357942323616, 168.35827042576608 -44.02492237863284)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>168.3682547694569</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-44.02835794232362</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>168.3582704257661</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-44.02492237863284</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>168.3632625976115</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-44.02664016047822</v>
       </c>
     </row>
@@ -33767,27 +33777,28 @@
       <c r="P7" t="n">
         <v>345.3048201056746</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (168.36861066132806 -44.02776489376426, 168.35862636628053 -44.02432934283261)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>168.3686106613281</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-44.02776489376426</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>168.3586263662805</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-44.02432934283261</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>168.3636185138043</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-44.02604711829844</v>
       </c>
     </row>
@@ -33844,27 +33855,28 @@
       <c r="P8" t="n">
         <v>339.8361820846016</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (168.36896655319927 -44.02717183927163, 168.35898230679464 -44.02373630109887)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>168.3689665531993</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-44.02717183927163</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>168.3589823067946</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-44.02373630109887</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>168.363974429997</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-44.02545407018525</v>
       </c>
     </row>
@@ -33921,27 +33933,28 @@
       <c r="P9" t="n">
         <v>336.2027566696088</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (168.36932244507074 -44.02657877884589, 168.35933824730844 -44.02314325343159)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>168.3693224450707</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-44.02657877884589</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>168.3593382473084</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-44.02314325343159</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>168.3643303461896</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-44.02486101613874</v>
       </c>
     </row>
@@ -33998,27 +34011,28 @@
       <c r="P10" t="n">
         <v>333.2416353600109</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (168.36967833694237 -44.025985712486886, 168.35969418782187 -44.0225501998309)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>168.3696783369424</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-44.02598571248689</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>168.3596941878219</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-44.0225501998309</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>168.3646862623821</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-44.02426795615889</v>
       </c>
     </row>
@@ -34075,27 +34089,28 @@
       <c r="P11" t="n">
         <v>330.6109155225322</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (168.37003422881415 -44.02539264019462, 168.36005012833493 -44.02195714029676)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>168.3700342288141</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-44.02539264019462</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>168.3600501283349</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-44.02195714029676</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>168.3650421785745</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-44.02367489024569</v>
       </c>
     </row>
@@ -34152,27 +34167,28 @@
       <c r="P12" t="n">
         <v>330.9320311119649</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (168.37039012068615 -44.02479956196924, 168.3604060688476 -44.02136407482905)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>168.3703901206862</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-44.02479956196924</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>168.3604060688476</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-44.02136407482905</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>168.3653980947669</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-44.02308181839915</v>
       </c>
     </row>
@@ -34229,27 +34245,28 @@
       <c r="P13" t="n">
         <v>333.2458139688857</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (168.3707500988257 -44.02420020623296, 168.3607554284139 -44.02078088369995)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>168.3707500988257</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-44.02420020623296</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>168.3607554284139</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-44.02078088369995</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>168.3657527636198</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-44.02249054496646</v>
       </c>
     </row>
@@ -34306,27 +34323,28 @@
       <c r="P14" t="n">
         <v>332.5889446973221</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (168.37116974057273 -44.023496674348394, 168.36099876665278 -44.02035914283371)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>168.3711697405727</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-44.02349667434839</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>168.3609987666528</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-44.02035914283371</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>168.3660842536128</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-44.02192790859105</v>
       </c>
     </row>
@@ -34383,27 +34401,28 @@
       <c r="P15" t="n">
         <v>332.1957355087155</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (168.37151884214384 -44.022780836430755, 168.36119578344807 -44.01991306397788)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>168.3715188421438</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-44.02278083643075</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>168.3611957834481</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-44.01991306397788</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>168.366357312796</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-44.02134695020432</v>
       </c>
     </row>
@@ -34460,27 +34479,28 @@
       <c r="P16" t="n">
         <v>334.6005758863518</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (168.37180977671105 -44.02216969332709, 168.36148677619298 -44.01930193245534)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>168.371809776711</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-44.02216969332709</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>168.361486776193</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-44.01930193245534</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>168.366648276452</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-44.02073581289122</v>
       </c>
     </row>
@@ -34537,27 +34557,28 @@
       <c r="P17" t="n">
         <v>340.3766425679776</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (168.37210071127856 -44.02155854392375, 168.3617777689373 -44.01869079463296)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>168.3721007112786</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-44.02155854392375</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>168.3617777689373</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-44.01869079463296</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>168.3669392401079</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-44.02012466927836</v>
       </c>
     </row>
@@ -34614,27 +34635,28 @@
       <c r="P18" t="n">
         <v>344.1808278780645</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (168.3723916458464 -44.0209473882208, 168.36206876168092 -44.01807965051072)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>168.3723916458464</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-44.0209473882208</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>168.3620687616809</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-44.01807965051072</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>168.3672302037637</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-44.01951351936576</v>
       </c>
     </row>
@@ -34691,27 +34713,28 @@
       <c r="P19" t="n">
         <v>346.9990862364019</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (168.3726825804145 -44.02033622621828, 168.3623597544241 -44.01746850008845)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>168.3726825804145</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-44.02033622621828</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>168.3623597544241</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-44.01746850008845</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>168.3675211674193</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-44.01890236315336</v>
       </c>
     </row>
@@ -34768,27 +34791,28 @@
       <c r="P20" t="n">
         <v>347.4242317338228</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (168.37297351498296 -44.01972505791607, 168.36265074716653 -44.016857343366425)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>168.372973514983</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-44.01972505791607</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>168.3626507471665</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-44.01685734336642</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>168.3678121310747</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-44.01829120064124</v>
       </c>
     </row>
@@ -34845,27 +34869,28 @@
       <c r="P21" t="n">
         <v>344.6798475230741</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (168.37326444955175 -44.019113883314226, 168.3629417399083 -44.01624618034462)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>168.3732644495518</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-44.01911388331423</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>168.3629417399083</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-44.01624618034462</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>168.36810309473</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-44.01768003182943</v>
       </c>
     </row>
@@ -34922,27 +34947,28 @@
       <c r="P22" t="n">
         <v>345.0293374952038</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (168.37358464454564 -44.018445401805536, 168.36318537066816 -44.015725361877244)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>168.3735846445456</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-44.01844540180554</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>168.3631853706682</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-44.01572536187724</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>168.3683850076069</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-44.01708538184139</v>
       </c>
     </row>
@@ -34999,27 +35025,28 @@
       <c r="P23" t="n">
         <v>341.5907271260289</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (168.37394379746328 -44.0175907329628, 168.36327495606264 -44.015482008370185)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>168.3739437974633</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-44.0175907329628</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>168.3632749560626</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-44.01548200837018</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>168.3686093767629</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-44.01653637066649</v>
       </c>
     </row>
@@ -35076,27 +35103,28 @@
       <c r="P24" t="n">
         <v>327.1028960442436</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (168.37415456309813 -44.01677210838589, 168.36332845134106 -44.01513224053686)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>168.3741545630981</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-44.01677210838589</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>168.3633284513411</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-44.01513224053686</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>168.3687415072196</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-44.01595217446138</v>
       </c>
     </row>
@@ -35153,27 +35181,28 @@
       <c r="P25" t="n">
         <v>319.4797636377668</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (168.37430572196004 -44.016135299564645, 168.3634796834647 -44.01449543988595)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>168.37430572196</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-44.01613529956465</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>168.3634796834647</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-44.01449543988595</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>168.3688927027124</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-44.0153153697253</v>
       </c>
     </row>
@@ -35230,27 +35259,28 @@
       <c r="P26" t="n">
         <v>332.1406807271297</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (168.3744568808224 -44.015498483904764, 168.3636309155873 -44.013858632396285)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>168.3744568808224</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-44.01549848390476</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>168.3636309155873</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-44.01385863239629</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>168.3690438982048</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-44.01467855815052</v>
       </c>
     </row>
@@ -35307,27 +35337,28 @@
       <c r="P27" t="n">
         <v>308.995539628701</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (168.3746080396853 -44.01486166140627, 168.36378214770886 -44.01322181806802)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>168.3746080396853</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-44.01486166140627</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>168.3637821477089</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-44.01322181806802</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>168.3691950936971</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-44.01404173973715</v>
       </c>
     </row>
@@ -35378,27 +35409,28 @@
       <c r="P28" t="n">
         <v>270.2537509136462</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (168.37475919854876 -44.014224832069196, 168.36393337982935 -44.01258499690099)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>168.3747591985488</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-44.0142248320692</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>168.3639333798293</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-44.01258499690099</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>168.3693462891891</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-44.01340491448509</v>
       </c>
     </row>
@@ -35449,27 +35481,28 @@
       <c r="P29" t="n">
         <v>282.9625062159215</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (168.3749103574127 -44.01358799589357, 168.3640846119488 -44.011948168895145)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>168.3749103574127</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-44.01358799589357</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>168.3640846119488</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-44.01194816889515</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>168.3694974846807</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-44.01276808239436</v>
       </c>
     </row>

--- a/data/nzd0453/nzd0453.xlsx
+++ b/data/nzd0453/nzd0453.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD337"/>
+  <dimension ref="A1:AD339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29712,6 +29712,196 @@
         </is>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>412.6577777777778</v>
+      </c>
+      <c r="C338" t="n">
+        <v>406.1381818181818</v>
+      </c>
+      <c r="D338" t="n">
+        <v>374.19</v>
+      </c>
+      <c r="E338" t="n">
+        <v>334.7581818181818</v>
+      </c>
+      <c r="F338" t="n">
+        <v>328.2181818181818</v>
+      </c>
+      <c r="G338" t="n">
+        <v>319.5561538461538</v>
+      </c>
+      <c r="H338" t="n">
+        <v>324.5871428571429</v>
+      </c>
+      <c r="I338" t="n">
+        <v>323.7961538461539</v>
+      </c>
+      <c r="J338" t="n">
+        <v>329.625</v>
+      </c>
+      <c r="K338" t="n">
+        <v>333.225</v>
+      </c>
+      <c r="L338" t="n">
+        <v>331.215</v>
+      </c>
+      <c r="M338" t="n">
+        <v>335.9666666666667</v>
+      </c>
+      <c r="N338" t="n">
+        <v>348.1323529411765</v>
+      </c>
+      <c r="O338" t="n">
+        <v>344.79</v>
+      </c>
+      <c r="P338" t="n">
+        <v>327.7630769230769</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>325.9423529411765</v>
+      </c>
+      <c r="R338" t="n">
+        <v>341.6471428571429</v>
+      </c>
+      <c r="S338" t="n">
+        <v>352.4066666666667</v>
+      </c>
+      <c r="T338" t="n">
+        <v>356.4181818181818</v>
+      </c>
+      <c r="U338" t="n">
+        <v>348.2547368421053</v>
+      </c>
+      <c r="V338" t="n">
+        <v>351.13</v>
+      </c>
+      <c r="W338" t="n">
+        <v>326.8761538461538</v>
+      </c>
+      <c r="X338" t="n">
+        <v>311.2561538461539</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>316.9181818181818</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>322.78</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>281.2459259259259</v>
+      </c>
+      <c r="AB338" t="n">
+        <v>253.4959259259259</v>
+      </c>
+      <c r="AC338" t="n">
+        <v>277.2259259259259</v>
+      </c>
+      <c r="AD338" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:27+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>395.6244444444445</v>
+      </c>
+      <c r="C339" t="n">
+        <v>391.6236363636364</v>
+      </c>
+      <c r="D339" t="n">
+        <v>385.1</v>
+      </c>
+      <c r="E339" t="n">
+        <v>373.6836363636364</v>
+      </c>
+      <c r="F339" t="n">
+        <v>337.9736363636364</v>
+      </c>
+      <c r="G339" t="n">
+        <v>322.0076923076923</v>
+      </c>
+      <c r="H339" t="n">
+        <v>316.7557142857143</v>
+      </c>
+      <c r="I339" t="n">
+        <v>314.0076923076923</v>
+      </c>
+      <c r="J339" t="n">
+        <v>327.79</v>
+      </c>
+      <c r="K339" t="n">
+        <v>328.78</v>
+      </c>
+      <c r="L339" t="n">
+        <v>331.63</v>
+      </c>
+      <c r="M339" t="n">
+        <v>347.0166666666667</v>
+      </c>
+      <c r="N339" t="n">
+        <v>345.9152941176471</v>
+      </c>
+      <c r="O339" t="n">
+        <v>337.41</v>
+      </c>
+      <c r="P339" t="n">
+        <v>314.6338461538461</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>324.2452941176471</v>
+      </c>
+      <c r="R339" t="n">
+        <v>340.3957142857143</v>
+      </c>
+      <c r="S339" t="n">
+        <v>338.0466666666666</v>
+      </c>
+      <c r="T339" t="n">
+        <v>342.2436363636364</v>
+      </c>
+      <c r="U339" t="n">
+        <v>347.4705263157895</v>
+      </c>
+      <c r="V339" t="n">
+        <v>342.96</v>
+      </c>
+      <c r="W339" t="n">
+        <v>340.7976923076924</v>
+      </c>
+      <c r="X339" t="n">
+        <v>306.5876923076923</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>298.2536363636364</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>302.97</v>
+      </c>
+      <c r="AA339" t="inlineStr"/>
+      <c r="AB339" t="n">
+        <v>247.3581481481482</v>
+      </c>
+      <c r="AC339" t="n">
+        <v>272.7681481481482</v>
+      </c>
+      <c r="AD339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29723,7 +29913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B346"/>
+  <dimension ref="A1:B348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33191,6 +33381,26 @@
       </c>
       <c r="B346" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -33364,28 +33574,28 @@
         <v>0.055</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06772869989138165</v>
+        <v>-0.03524403563849151</v>
       </c>
       <c r="J2" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K2" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003937412409475982</v>
+        <v>0.0001076747767404518</v>
       </c>
       <c r="M2" t="n">
-        <v>19.08677632336882</v>
+        <v>19.11499585732811</v>
       </c>
       <c r="N2" t="n">
-        <v>624.476935521458</v>
+        <v>623.8320345144056</v>
       </c>
       <c r="O2" t="n">
-        <v>24.9895365207412</v>
+        <v>24.97662976693224</v>
       </c>
       <c r="P2" t="n">
-        <v>384.0192275048371</v>
+        <v>383.6986921266785</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33442,28 +33652,28 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04727737118556629</v>
+        <v>0.08410551567791955</v>
       </c>
       <c r="J3" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K3" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003336401313246418</v>
+        <v>0.00105590705301073</v>
       </c>
       <c r="M3" t="n">
-        <v>15.14369816005269</v>
+        <v>15.2163623595119</v>
       </c>
       <c r="N3" t="n">
-        <v>353.5638459890812</v>
+        <v>356.1340153996671</v>
       </c>
       <c r="O3" t="n">
-        <v>18.80329348781966</v>
+        <v>18.87151333093526</v>
       </c>
       <c r="P3" t="n">
-        <v>371.7026864979882</v>
+        <v>371.3338462674442</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33520,28 +33730,28 @@
         <v>0.0574</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1058549262906288</v>
+        <v>0.1283361203312103</v>
       </c>
       <c r="J4" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K4" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001992957832882447</v>
+        <v>0.002950865675164782</v>
       </c>
       <c r="M4" t="n">
-        <v>13.84628846139378</v>
+        <v>13.86220065573642</v>
       </c>
       <c r="N4" t="n">
-        <v>298.0164721105741</v>
+        <v>297.8797821004175</v>
       </c>
       <c r="O4" t="n">
-        <v>17.26315359691195</v>
+        <v>17.25919413241584</v>
       </c>
       <c r="P4" t="n">
-        <v>360.9716613020658</v>
+        <v>360.7467209838907</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33598,28 +33808,28 @@
         <v>0.0663</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03495243669760735</v>
+        <v>-0.03286112284055991</v>
       </c>
       <c r="J5" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K5" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002327988572509154</v>
+        <v>0.0002068402550018389</v>
       </c>
       <c r="M5" t="n">
-        <v>13.20073859970882</v>
+        <v>13.24580410096116</v>
       </c>
       <c r="N5" t="n">
-        <v>278.7946712875558</v>
+        <v>279.5189293838156</v>
       </c>
       <c r="O5" t="n">
-        <v>16.69714560299322</v>
+        <v>16.71881961694113</v>
       </c>
       <c r="P5" t="n">
-        <v>353.6544478672532</v>
+        <v>353.6332530466466</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33676,28 +33886,28 @@
         <v>0.0597</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1820352318186051</v>
+        <v>-0.198175765730346</v>
       </c>
       <c r="J6" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K6" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008318757444043978</v>
+        <v>0.009937961013486096</v>
       </c>
       <c r="M6" t="n">
-        <v>11.64042581479365</v>
+        <v>11.64103501379889</v>
       </c>
       <c r="N6" t="n">
-        <v>210.5337995160496</v>
+        <v>210.1561641165665</v>
       </c>
       <c r="O6" t="n">
-        <v>14.50978289003835</v>
+        <v>14.49676391877051</v>
       </c>
       <c r="P6" t="n">
-        <v>349.4197136870158</v>
+        <v>349.5803308765776</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33754,28 +33964,28 @@
         <v>0.0772</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3025899098060691</v>
+        <v>-0.3261468265839036</v>
       </c>
       <c r="J7" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K7" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02485264014737643</v>
+        <v>0.02888774856904808</v>
       </c>
       <c r="M7" t="n">
-        <v>11.32763534680332</v>
+        <v>11.3669387162556</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7605192975222</v>
+        <v>190.377586175798</v>
       </c>
       <c r="O7" t="n">
-        <v>13.77535913497438</v>
+        <v>13.79773844424506</v>
       </c>
       <c r="P7" t="n">
-        <v>345.3048201056746</v>
+        <v>345.5406440242895</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33832,28 +34042,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1966895913014747</v>
+        <v>-0.216260953157644</v>
       </c>
       <c r="J8" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K8" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009979265550003169</v>
+        <v>0.01213003292604853</v>
       </c>
       <c r="M8" t="n">
-        <v>11.20508645266863</v>
+        <v>11.22857137298551</v>
       </c>
       <c r="N8" t="n">
-        <v>203.0901866897365</v>
+        <v>203.1424841938783</v>
       </c>
       <c r="O8" t="n">
-        <v>14.25097142968635</v>
+        <v>14.25280618663842</v>
       </c>
       <c r="P8" t="n">
-        <v>339.8361820846016</v>
+        <v>340.0314643942557</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33910,28 +34120,28 @@
         <v>0.0832</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1351803377627179</v>
+        <v>-0.1548044354033698</v>
       </c>
       <c r="J9" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K9" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004861387354739066</v>
+        <v>0.006415378992377985</v>
       </c>
       <c r="M9" t="n">
-        <v>11.1878882286503</v>
+        <v>11.21377980660646</v>
       </c>
       <c r="N9" t="n">
-        <v>198.7525681251761</v>
+        <v>198.840792866992</v>
       </c>
       <c r="O9" t="n">
-        <v>14.09796326159123</v>
+        <v>14.10109190335954</v>
       </c>
       <c r="P9" t="n">
-        <v>336.2027566696088</v>
+        <v>336.3970192281453</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33988,28 +34198,28 @@
         <v>0.1046</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.08601737306169267</v>
+        <v>-0.08935385048888307</v>
       </c>
       <c r="J10" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K10" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001908955089189091</v>
+        <v>0.00209133251177851</v>
       </c>
       <c r="M10" t="n">
-        <v>11.68441929523595</v>
+        <v>11.61960894396237</v>
       </c>
       <c r="N10" t="n">
-        <v>205.8760907431796</v>
+        <v>204.4443835119652</v>
       </c>
       <c r="O10" t="n">
-        <v>14.34838286160429</v>
+        <v>14.29840492894103</v>
       </c>
       <c r="P10" t="n">
-        <v>333.2416353600109</v>
+        <v>333.2746375573004</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34066,28 +34276,28 @@
         <v>0.1055</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.07285283484878927</v>
+        <v>-0.06969384495268884</v>
       </c>
       <c r="J11" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K11" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001257271526277859</v>
+        <v>0.001167789555195031</v>
       </c>
       <c r="M11" t="n">
-        <v>11.97581970864278</v>
+        <v>11.90663730313439</v>
       </c>
       <c r="N11" t="n">
-        <v>222.9432187687219</v>
+        <v>221.4377183855986</v>
       </c>
       <c r="O11" t="n">
-        <v>14.9312832257888</v>
+        <v>14.88078352727432</v>
       </c>
       <c r="P11" t="n">
-        <v>330.6109155225322</v>
+        <v>330.5793976035334</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34144,28 +34354,28 @@
         <v>0.097</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.09343897861868679</v>
+        <v>-0.08933167312464924</v>
       </c>
       <c r="J12" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K12" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001871432979413612</v>
+        <v>0.001737013343459437</v>
       </c>
       <c r="M12" t="n">
-        <v>12.40413707352269</v>
+        <v>12.33482534856813</v>
       </c>
       <c r="N12" t="n">
-        <v>242.5672463340891</v>
+        <v>240.9281065896688</v>
       </c>
       <c r="O12" t="n">
-        <v>15.57457050239553</v>
+        <v>15.52185899271311</v>
       </c>
       <c r="P12" t="n">
-        <v>330.9320311119649</v>
+        <v>330.8909793148723</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34222,28 +34432,28 @@
         <v>0.0925</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.135931447892309</v>
+        <v>-0.1194268002161291</v>
       </c>
       <c r="J13" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K13" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00447347422257538</v>
+        <v>0.003490583002991987</v>
       </c>
       <c r="M13" t="n">
-        <v>11.81842993445529</v>
+        <v>11.82705642549617</v>
       </c>
       <c r="N13" t="n">
-        <v>214.3216865340933</v>
+        <v>213.9795094959277</v>
       </c>
       <c r="O13" t="n">
-        <v>14.63972972886089</v>
+        <v>14.62803847055126</v>
       </c>
       <c r="P13" t="n">
-        <v>333.2458139688857</v>
+        <v>333.0802769888793</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34300,28 +34510,28 @@
         <v>0.1088</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.06075611667284416</v>
+        <v>-0.03855686009750879</v>
       </c>
       <c r="J14" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K14" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001082916877923501</v>
+        <v>0.0004387221085839776</v>
       </c>
       <c r="M14" t="n">
-        <v>10.59278007912101</v>
+        <v>10.64101570364088</v>
       </c>
       <c r="N14" t="n">
-        <v>176.2137528379838</v>
+        <v>176.7252429087916</v>
       </c>
       <c r="O14" t="n">
-        <v>13.27455283005736</v>
+        <v>13.29380468145939</v>
       </c>
       <c r="P14" t="n">
-        <v>332.5889446973221</v>
+        <v>332.3657373019679</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34378,28 +34588,28 @@
         <v>0.0558</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03563271666435013</v>
+        <v>0.04678659761859588</v>
       </c>
       <c r="J15" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K15" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003281241132044865</v>
+        <v>0.0005725642789118357</v>
       </c>
       <c r="M15" t="n">
-        <v>11.20809723293574</v>
+        <v>11.186451323753</v>
       </c>
       <c r="N15" t="n">
-        <v>199.878639762969</v>
+        <v>199.0250793517775</v>
       </c>
       <c r="O15" t="n">
-        <v>14.13784424029948</v>
+        <v>14.10762486571632</v>
       </c>
       <c r="P15" t="n">
-        <v>332.1957355087155</v>
+        <v>332.082949647549</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34456,28 +34666,28 @@
         <v>0.1998</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2088268414423309</v>
+        <v>-0.220123846854976</v>
       </c>
       <c r="J16" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K16" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01128348208120478</v>
+        <v>0.0126637845259574</v>
       </c>
       <c r="M16" t="n">
-        <v>11.12966629591459</v>
+        <v>11.11272109956628</v>
       </c>
       <c r="N16" t="n">
-        <v>197.6430147537698</v>
+        <v>197.01878000151</v>
       </c>
       <c r="O16" t="n">
-        <v>14.05855663835266</v>
+        <v>14.03633784152797</v>
       </c>
       <c r="P16" t="n">
-        <v>334.6005758863518</v>
+        <v>334.714222392862</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34534,28 +34744,28 @@
         <v>0.1117</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4894960985377551</v>
+        <v>-0.4933084752718598</v>
       </c>
       <c r="J17" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K17" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06319607383303527</v>
+        <v>0.06500662382281075</v>
       </c>
       <c r="M17" t="n">
-        <v>10.97692858431182</v>
+        <v>10.92207437794433</v>
       </c>
       <c r="N17" t="n">
-        <v>185.4197098367019</v>
+        <v>184.2051818625139</v>
       </c>
       <c r="O17" t="n">
-        <v>13.61689060823733</v>
+        <v>13.57222096277959</v>
       </c>
       <c r="P17" t="n">
-        <v>340.3766425679776</v>
+        <v>340.4148332665863</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34612,28 +34822,28 @@
         <v>0.09030000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.6792289851021494</v>
+        <v>-0.6602412531009624</v>
       </c>
       <c r="J18" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K18" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1214884981854019</v>
+        <v>0.1162369656723944</v>
       </c>
       <c r="M18" t="n">
-        <v>10.34684991888469</v>
+        <v>10.37194547876134</v>
       </c>
       <c r="N18" t="n">
-        <v>173.1459972105468</v>
+        <v>173.3160244521062</v>
       </c>
       <c r="O18" t="n">
-        <v>13.15849524871848</v>
+        <v>13.16495440372302</v>
       </c>
       <c r="P18" t="n">
-        <v>344.1808278780645</v>
+        <v>343.9886120283157</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34690,28 +34900,28 @@
         <v>0.0883</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.7714410259848165</v>
+        <v>-0.7470413737175294</v>
       </c>
       <c r="J19" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K19" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1342466891586763</v>
+        <v>0.1272028502886726</v>
       </c>
       <c r="M19" t="n">
-        <v>11.24050622621901</v>
+        <v>11.2790637407827</v>
       </c>
       <c r="N19" t="n">
-        <v>197.9118510722979</v>
+        <v>199.0405410472854</v>
       </c>
       <c r="O19" t="n">
-        <v>14.06811469502214</v>
+        <v>14.10817284581123</v>
       </c>
       <c r="P19" t="n">
-        <v>346.9990862364019</v>
+        <v>346.7530606353641</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34768,28 +34978,28 @@
         <v>0.0664</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.6798192473565796</v>
+        <v>-0.6535309238164946</v>
       </c>
       <c r="J20" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K20" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09222049205651173</v>
+        <v>0.08603544697521981</v>
       </c>
       <c r="M20" t="n">
-        <v>12.19369196692644</v>
+        <v>12.22875225128621</v>
       </c>
       <c r="N20" t="n">
-        <v>233.5881708928431</v>
+        <v>234.8027651552469</v>
       </c>
       <c r="O20" t="n">
-        <v>15.28359155738084</v>
+        <v>15.32327527505941</v>
       </c>
       <c r="P20" t="n">
-        <v>347.4242317338228</v>
+        <v>347.1573747838816</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34846,28 +35056,28 @@
         <v>0.1275</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5786436290179687</v>
+        <v>-0.5543406716703972</v>
       </c>
       <c r="J21" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K21" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L21" t="n">
-        <v>0.07525994054309992</v>
+        <v>0.06978303728139146</v>
       </c>
       <c r="M21" t="n">
-        <v>11.56984157596514</v>
+        <v>11.58683768301169</v>
       </c>
       <c r="N21" t="n">
-        <v>210.8437961108328</v>
+        <v>211.5514797660441</v>
       </c>
       <c r="O21" t="n">
-        <v>14.52046129125493</v>
+        <v>14.54480937537664</v>
       </c>
       <c r="P21" t="n">
-        <v>344.6798475230741</v>
+        <v>344.4322497281416</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34924,28 +35134,28 @@
         <v>0.0581</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.5294094653385094</v>
+        <v>-0.5076550093431976</v>
       </c>
       <c r="J22" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K22" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05590737496453602</v>
+        <v>0.05201964573785622</v>
       </c>
       <c r="M22" t="n">
-        <v>12.87104048262376</v>
+        <v>12.88727011302584</v>
       </c>
       <c r="N22" t="n">
-        <v>246.4965430571007</v>
+        <v>246.5473664808565</v>
       </c>
       <c r="O22" t="n">
-        <v>15.70020837623185</v>
+        <v>15.70182685170285</v>
       </c>
       <c r="P22" t="n">
-        <v>345.0293374952038</v>
+        <v>344.8099242804768</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35002,28 +35212,28 @@
         <v>0.0722</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.5997622567046421</v>
+        <v>-0.589400363275524</v>
       </c>
       <c r="J23" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K23" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06869044240090116</v>
+        <v>0.06722603712212061</v>
       </c>
       <c r="M23" t="n">
-        <v>13.1570155028045</v>
+        <v>13.12015253694246</v>
       </c>
       <c r="N23" t="n">
-        <v>252.7135186063605</v>
+        <v>251.7202631492936</v>
       </c>
       <c r="O23" t="n">
-        <v>15.89696570438398</v>
+        <v>15.86569453724903</v>
       </c>
       <c r="P23" t="n">
-        <v>341.5907271260289</v>
+        <v>341.4859259041555</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35080,28 +35290,28 @@
         <v>0.074</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.434087894046884</v>
+        <v>-0.4440350683230233</v>
       </c>
       <c r="J24" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K24" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03893392459722178</v>
+        <v>0.04120146072515141</v>
       </c>
       <c r="M24" t="n">
-        <v>12.57908082449056</v>
+        <v>12.54014102194859</v>
       </c>
       <c r="N24" t="n">
-        <v>244.4982275846798</v>
+        <v>243.1677475029859</v>
       </c>
       <c r="O24" t="n">
-        <v>15.63643909541683</v>
+        <v>15.59383684354129</v>
       </c>
       <c r="P24" t="n">
-        <v>327.1028960442436</v>
+        <v>327.2021245451877</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35158,28 +35368,28 @@
         <v>0.0643</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.486421697042445</v>
+        <v>-0.4855511412639469</v>
       </c>
       <c r="J25" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K25" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04892527996025642</v>
+        <v>0.04944982676594245</v>
       </c>
       <c r="M25" t="n">
-        <v>12.66153296893908</v>
+        <v>12.63413083807234</v>
       </c>
       <c r="N25" t="n">
-        <v>247.121138044611</v>
+        <v>245.8314457673787</v>
       </c>
       <c r="O25" t="n">
-        <v>15.72008708769169</v>
+        <v>15.67901290794094</v>
       </c>
       <c r="P25" t="n">
-        <v>319.4797636377668</v>
+        <v>319.4714042412052</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -35236,28 +35446,28 @@
         <v>0.1565</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.303411399522894</v>
+        <v>-3.199369151901418</v>
       </c>
       <c r="J26" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K26" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1558654279680364</v>
+        <v>0.148252766276269</v>
       </c>
       <c r="M26" t="n">
-        <v>41.51503590813123</v>
+        <v>41.37690555251862</v>
       </c>
       <c r="N26" t="n">
-        <v>3092.692106682462</v>
+        <v>3102.368194988213</v>
       </c>
       <c r="O26" t="n">
-        <v>55.61197808640205</v>
+        <v>55.69890658700773</v>
       </c>
       <c r="P26" t="n">
-        <v>332.1406807271297</v>
+        <v>331.0726490543716</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -35314,28 +35524,28 @@
         <v>0.2</v>
       </c>
       <c r="I27" t="n">
-        <v>-2.833006347696764</v>
+        <v>-2.797253798448523</v>
       </c>
       <c r="J27" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K27" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1875843842602785</v>
+        <v>0.1842574022944142</v>
       </c>
       <c r="M27" t="n">
-        <v>36.64947365791616</v>
+        <v>36.73930524070914</v>
       </c>
       <c r="N27" t="n">
-        <v>1772.731424470958</v>
+        <v>1773.568965989856</v>
       </c>
       <c r="O27" t="n">
-        <v>42.1038172197125</v>
+        <v>42.11376219230308</v>
       </c>
       <c r="P27" t="n">
-        <v>308.995539628701</v>
+        <v>308.6205224163373</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -35386,28 +35596,28 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>-0.7634853921209633</v>
+        <v>-0.7638866488688191</v>
       </c>
       <c r="J28" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K28" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04112077808563808</v>
+        <v>0.04173277794101138</v>
       </c>
       <c r="M28" t="n">
-        <v>19.73928458858706</v>
+        <v>19.61822848729832</v>
       </c>
       <c r="N28" t="n">
-        <v>701.8239962787909</v>
+        <v>696.8063685336454</v>
       </c>
       <c r="O28" t="n">
-        <v>26.49196097458229</v>
+        <v>26.39709015277338</v>
       </c>
       <c r="P28" t="n">
-        <v>270.2537509136462</v>
+        <v>270.2579514326757</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -35458,28 +35668,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>-0.1566612438747726</v>
+        <v>-0.1622729193298472</v>
       </c>
       <c r="J29" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K29" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L29" t="n">
-        <v>0.007603160039196477</v>
+        <v>0.008267347744921549</v>
       </c>
       <c r="M29" t="n">
-        <v>10.64748830947625</v>
+        <v>10.59912694214434</v>
       </c>
       <c r="N29" t="n">
-        <v>170.2888749684147</v>
+        <v>169.1896451833346</v>
       </c>
       <c r="O29" t="n">
-        <v>13.0494779576968</v>
+        <v>13.00729200038711</v>
       </c>
       <c r="P29" t="n">
-        <v>282.9625062159215</v>
+        <v>283.01906538649</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -35517,7 +35727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD337"/>
+  <dimension ref="A1:AD339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80485,6 +80695,306 @@
         </is>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-44.02913355064659,168.36219094767438</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>-44.02856576168733,168.36262018601857</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-44.028096350192364,168.36333535091518</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-44.02765588376289,168.36413465999993</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>-44.02708815279775,168.36456411968587</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>-44.02652862536102,168.3650174386894</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>-44.025916115307425,168.3653167908143</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>-44.02532612378436,168.36568160608675</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>-44.02471051547408,168.3659719885328</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>-44.02410352442389,168.36628743275702</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>-44.02351823132592,168.36666595477874</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>-44.0229066152819,168.36696850893725</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>-44.0222667611767,168.36718224711362</t>
+        </is>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>-44.02166750923235,168.36751071378055</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>-44.021111357031884,168.36799961397054</t>
+        </is>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>-44.02050609477231,168.3683117475475</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>-44.01984423428682,168.36842015874043</t>
+        </is>
+      </c>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>-44.01919833678948,168.3685860581828</t>
+        </is>
+      </c>
+      <c r="T338" t="inlineStr">
+        <is>
+          <t>-44.018574223329026,168.36883039931712</t>
+        </is>
+      </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>-44.017989417470815,168.3692162626638</t>
+        </is>
+      </c>
+      <c r="V338" t="inlineStr">
+        <is>
+          <t>-44.01737005634543,168.3694728392396</t>
+        </is>
+      </c>
+      <c r="W338" t="inlineStr">
+        <is>
+          <t>-44.016814725535816,168.37001701385483</t>
+        </is>
+      </c>
+      <c r="X338" t="inlineStr">
+        <is>
+          <t>-44.016197526206206,168.37036044358265</t>
+        </is>
+      </c>
+      <c r="Y338" t="inlineStr">
+        <is>
+          <t>-44.015550269028935,168.370442624375</t>
+        </is>
+      </c>
+      <c r="Z338" t="inlineStr">
+        <is>
+          <t>-44.01490263629797,168.3705223713047</t>
+        </is>
+      </c>
+      <c r="AA338" t="inlineStr">
+        <is>
+          <t>-44.01434249697372,168.3711798376283</t>
+        </is>
+      </c>
+      <c r="AB338" t="inlineStr">
+        <is>
+          <t>-44.013756901036345,168.37166927928897</t>
+        </is>
+      </c>
+      <c r="AC338" t="inlineStr">
+        <is>
+          <t>-44.013076261526294,168.3715312252701</t>
+        </is>
+      </c>
+      <c r="AD338" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:27+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-44.02919945423254,168.36238247891905</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-44.02862191937406,168.36278339356048</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-44.0280541392308,168.3632126750402</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-44.027505282648924,168.3636969705246</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-44.027050409790206,168.36445442700202</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>-44.02651914066874,168.36498987317623</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-44.02594641390318,168.3654048480107</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>-44.02536399355973,168.36579166745128</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>-44.0247176147246,168.36599262105997</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>-44.02412072113747,168.36633741140136</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>-44.023516625794436,168.3666612886441</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>-44.02286406684364,168.3668441347525</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>-44.02227459422042,168.36720764065947</t>
+        </is>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>-44.02169134066926,168.36759650341375</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>-44.02115375323049,168.3681522351633</t>
+        </is>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>-44.02051157478959,168.3683314748802</t>
+        </is>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>-44.01984827530057,168.36843470572052</t>
+        </is>
+      </c>
+      <c r="S339" t="inlineStr">
+        <is>
+          <t>-44.019244706687815,168.36875298154135</t>
+        </is>
+      </c>
+      <c r="T339" t="inlineStr">
+        <is>
+          <t>-44.01861999410469,168.36899516536192</t>
+        </is>
+      </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>-44.01799194973129,168.36922537830924</t>
+        </is>
+      </c>
+      <c r="V339" t="inlineStr">
+        <is>
+          <t>-44.01739507881447,168.36956850982165</t>
+        </is>
+      </c>
+      <c r="W339" t="inlineStr">
+        <is>
+          <t>-44.01678167274807,168.3698497760589</t>
+        </is>
+      </c>
+      <c r="X339" t="inlineStr">
+        <is>
+          <t>-44.01620614514657,168.37041735011647</t>
+        </is>
+      </c>
+      <c r="Y339" t="inlineStr">
+        <is>
+          <t>-44.015584727296066,168.37067013482908</t>
+        </is>
+      </c>
+      <c r="Z339" t="inlineStr">
+        <is>
+          <t>-44.014939209113834,168.37076384164956</t>
+        </is>
+      </c>
+      <c r="AA339" t="inlineStr"/>
+      <c r="AB339" t="inlineStr">
+        <is>
+          <t>-44.01376823179644,168.37174409339772</t>
+        </is>
+      </c>
+      <c r="AC339" t="inlineStr">
+        <is>
+          <t>-44.01308449096051,168.37158556100636</t>
+        </is>
+      </c>
+      <c r="AD339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0453/nzd0453.xlsx
+++ b/data/nzd0453/nzd0453.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD339"/>
+  <dimension ref="A1:AD341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29902,6 +29902,98 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-11 22:26:10+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr"/>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="n">
+        <v>337.7992307692307</v>
+      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
+      <c r="M340" t="inlineStr"/>
+      <c r="N340" t="inlineStr"/>
+      <c r="O340" t="inlineStr"/>
+      <c r="P340" t="inlineStr"/>
+      <c r="Q340" t="inlineStr"/>
+      <c r="R340" t="inlineStr"/>
+      <c r="S340" t="inlineStr"/>
+      <c r="T340" t="n">
+        <v>351.3409090909091</v>
+      </c>
+      <c r="U340" t="inlineStr"/>
+      <c r="V340" t="inlineStr"/>
+      <c r="W340" t="inlineStr"/>
+      <c r="X340" t="inlineStr"/>
+      <c r="Y340" t="inlineStr"/>
+      <c r="Z340" t="inlineStr"/>
+      <c r="AA340" t="inlineStr"/>
+      <c r="AB340" t="inlineStr"/>
+      <c r="AC340" t="inlineStr"/>
+      <c r="AD340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:25:36+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr"/>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
+      <c r="M341" t="inlineStr"/>
+      <c r="N341" t="inlineStr"/>
+      <c r="O341" t="inlineStr"/>
+      <c r="P341" t="inlineStr"/>
+      <c r="Q341" t="inlineStr"/>
+      <c r="R341" t="inlineStr"/>
+      <c r="S341" t="inlineStr"/>
+      <c r="T341" t="inlineStr"/>
+      <c r="U341" t="inlineStr"/>
+      <c r="V341" t="inlineStr"/>
+      <c r="W341" t="inlineStr"/>
+      <c r="X341" t="inlineStr"/>
+      <c r="Y341" t="inlineStr"/>
+      <c r="Z341" t="n">
+        <v>142.84</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>213.667037037037</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>227.987037037037</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>269.707037037037</v>
+      </c>
+      <c r="AD341" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29913,7 +30005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B348"/>
+  <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33401,6 +33493,26 @@
       </c>
       <c r="B348" t="n">
         <v>0.02</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-05-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.67</v>
       </c>
     </row>
   </sheetData>
@@ -33577,7 +33689,7 @@
         <v>-0.03524403563849151</v>
       </c>
       <c r="J2" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K2" t="n">
         <v>265</v>
@@ -33655,7 +33767,7 @@
         <v>0.08410551567791955</v>
       </c>
       <c r="J3" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K3" t="n">
         <v>279</v>
@@ -33733,7 +33845,7 @@
         <v>0.1283361203312103</v>
       </c>
       <c r="J4" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K4" t="n">
         <v>279</v>
@@ -33811,7 +33923,7 @@
         <v>-0.03286112284055991</v>
       </c>
       <c r="J5" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
         <v>282</v>
@@ -33889,7 +34001,7 @@
         <v>-0.198175765730346</v>
       </c>
       <c r="J6" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
         <v>284</v>
@@ -33967,7 +34079,7 @@
         <v>-0.3261468265839036</v>
       </c>
       <c r="J7" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K7" t="n">
         <v>282</v>
@@ -34045,7 +34157,7 @@
         <v>-0.216260953157644</v>
       </c>
       <c r="J8" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K8" t="n">
         <v>287</v>
@@ -34120,28 +34232,28 @@
         <v>0.0832</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1548044354033698</v>
+        <v>-0.1509748166330666</v>
       </c>
       <c r="J9" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K9" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006415378992377985</v>
+        <v>0.006147837347670992</v>
       </c>
       <c r="M9" t="n">
-        <v>11.21377980660646</v>
+        <v>11.19162101030613</v>
       </c>
       <c r="N9" t="n">
-        <v>198.840792866992</v>
+        <v>198.2396665368324</v>
       </c>
       <c r="O9" t="n">
-        <v>14.10109190335954</v>
+        <v>14.0797608835105</v>
       </c>
       <c r="P9" t="n">
-        <v>336.3970192281453</v>
+        <v>336.3588522847436</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34201,7 +34313,7 @@
         <v>-0.08935385048888307</v>
       </c>
       <c r="J10" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K10" t="n">
         <v>279</v>
@@ -34279,7 +34391,7 @@
         <v>-0.06969384495268884</v>
       </c>
       <c r="J11" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K11" t="n">
         <v>283</v>
@@ -34357,7 +34469,7 @@
         <v>-0.08933167312464924</v>
       </c>
       <c r="J12" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K12" t="n">
         <v>286</v>
@@ -34435,7 +34547,7 @@
         <v>-0.1194268002161291</v>
       </c>
       <c r="J13" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K13" t="n">
         <v>288</v>
@@ -34513,7 +34625,7 @@
         <v>-0.03855686009750879</v>
       </c>
       <c r="J14" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K14" t="n">
         <v>294</v>
@@ -34591,7 +34703,7 @@
         <v>0.04678659761859588</v>
       </c>
       <c r="J15" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K15" t="n">
         <v>290</v>
@@ -34669,7 +34781,7 @@
         <v>-0.220123846854976</v>
       </c>
       <c r="J16" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K16" t="n">
         <v>292</v>
@@ -34747,7 +34859,7 @@
         <v>-0.4933084752718598</v>
       </c>
       <c r="J17" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K17" t="n">
         <v>292</v>
@@ -34825,7 +34937,7 @@
         <v>-0.6602412531009624</v>
       </c>
       <c r="J18" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K18" t="n">
         <v>301</v>
@@ -34903,7 +35015,7 @@
         <v>-0.7470413737175294</v>
       </c>
       <c r="J19" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K19" t="n">
         <v>301</v>
@@ -34978,28 +35090,28 @@
         <v>0.0664</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.6535309238164946</v>
+        <v>-0.639162152276279</v>
       </c>
       <c r="J20" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K20" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L20" t="n">
-        <v>0.08603544697521981</v>
+        <v>0.08268866951466192</v>
       </c>
       <c r="M20" t="n">
-        <v>12.22875225128621</v>
+        <v>12.25261769696466</v>
       </c>
       <c r="N20" t="n">
-        <v>234.8027651552469</v>
+        <v>235.4768332075568</v>
       </c>
       <c r="O20" t="n">
-        <v>15.32327527505941</v>
+        <v>15.3452544197728</v>
       </c>
       <c r="P20" t="n">
-        <v>347.1573747838816</v>
+        <v>347.0104496501345</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35059,7 +35171,7 @@
         <v>-0.5543406716703972</v>
       </c>
       <c r="J21" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K21" t="n">
         <v>301</v>
@@ -35137,7 +35249,7 @@
         <v>-0.5076550093431976</v>
       </c>
       <c r="J22" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K22" t="n">
         <v>287</v>
@@ -35215,7 +35327,7 @@
         <v>-0.589400363275524</v>
       </c>
       <c r="J23" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K23" t="n">
         <v>297</v>
@@ -35293,7 +35405,7 @@
         <v>-0.4440350683230233</v>
       </c>
       <c r="J24" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K24" t="n">
         <v>286</v>
@@ -35371,7 +35483,7 @@
         <v>-0.4855511412639469</v>
       </c>
       <c r="J25" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K25" t="n">
         <v>248</v>
@@ -35446,28 +35558,28 @@
         <v>0.1565</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.199369151901418</v>
+        <v>-3.284023902145126</v>
       </c>
       <c r="J26" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K26" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L26" t="n">
-        <v>0.148252766276269</v>
+        <v>0.1541361171855428</v>
       </c>
       <c r="M26" t="n">
-        <v>41.37690555251862</v>
+        <v>41.90701292792189</v>
       </c>
       <c r="N26" t="n">
-        <v>3102.368194988213</v>
+        <v>3135.192551522534</v>
       </c>
       <c r="O26" t="n">
-        <v>55.69890658700773</v>
+        <v>55.99279017447277</v>
       </c>
       <c r="P26" t="n">
-        <v>331.0726490543716</v>
+        <v>331.9493017717505</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -35524,28 +35636,28 @@
         <v>0.2</v>
       </c>
       <c r="I27" t="n">
-        <v>-2.797253798448523</v>
+        <v>-2.81564674851005</v>
       </c>
       <c r="J27" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K27" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1842574022944142</v>
+        <v>0.1872997678229594</v>
       </c>
       <c r="M27" t="n">
-        <v>36.73930524070914</v>
+        <v>36.65213705136013</v>
       </c>
       <c r="N27" t="n">
-        <v>1773.568965989856</v>
+        <v>1768.412320524925</v>
       </c>
       <c r="O27" t="n">
-        <v>42.11376219230308</v>
+        <v>42.05249481927231</v>
       </c>
       <c r="P27" t="n">
-        <v>308.6205224163373</v>
+        <v>308.815290911221</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -35596,28 +35708,28 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>-0.7638866488688191</v>
+        <v>-0.7798941244398618</v>
       </c>
       <c r="J28" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K28" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04173277794101138</v>
+        <v>0.04361915133746763</v>
       </c>
       <c r="M28" t="n">
-        <v>19.61822848729832</v>
+        <v>19.62256045124021</v>
       </c>
       <c r="N28" t="n">
-        <v>696.8063685336454</v>
+        <v>696.111149666631</v>
       </c>
       <c r="O28" t="n">
-        <v>26.39709015277338</v>
+        <v>26.38391839106979</v>
       </c>
       <c r="P28" t="n">
-        <v>270.2579514326757</v>
+        <v>270.425015226354</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -35668,28 +35780,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>-0.1622729193298472</v>
+        <v>-0.1687788579657305</v>
       </c>
       <c r="J29" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K29" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L29" t="n">
-        <v>0.008267347744921549</v>
+        <v>0.008988645336426848</v>
       </c>
       <c r="M29" t="n">
-        <v>10.59912694214434</v>
+        <v>10.5944649140293</v>
       </c>
       <c r="N29" t="n">
-        <v>169.1896451833346</v>
+        <v>168.87291423825</v>
       </c>
       <c r="O29" t="n">
-        <v>13.00729200038711</v>
+        <v>12.99511116682924</v>
       </c>
       <c r="P29" t="n">
-        <v>283.01906538649</v>
+        <v>283.0851568251959</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -35727,7 +35839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD339"/>
+  <dimension ref="A1:AD341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80995,6 +81107,110 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-11 22:26:10+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr"/>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>-44.02527194825484,168.365524155885</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
+      <c r="M340" t="inlineStr"/>
+      <c r="N340" t="inlineStr"/>
+      <c r="O340" t="inlineStr"/>
+      <c r="P340" t="inlineStr"/>
+      <c r="Q340" t="inlineStr"/>
+      <c r="R340" t="inlineStr"/>
+      <c r="S340" t="inlineStr"/>
+      <c r="T340" t="inlineStr">
+        <is>
+          <t>-44.01859061828734,168.36888941790835</t>
+        </is>
+      </c>
+      <c r="U340" t="inlineStr"/>
+      <c r="V340" t="inlineStr"/>
+      <c r="W340" t="inlineStr"/>
+      <c r="X340" t="inlineStr"/>
+      <c r="Y340" t="inlineStr"/>
+      <c r="Z340" t="inlineStr"/>
+      <c r="AA340" t="inlineStr"/>
+      <c r="AB340" t="inlineStr"/>
+      <c r="AC340" t="inlineStr"/>
+      <c r="AD340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:25:36+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr"/>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
+      <c r="M341" t="inlineStr"/>
+      <c r="N341" t="inlineStr"/>
+      <c r="O341" t="inlineStr"/>
+      <c r="P341" t="inlineStr"/>
+      <c r="Q341" t="inlineStr"/>
+      <c r="R341" t="inlineStr"/>
+      <c r="S341" t="inlineStr"/>
+      <c r="T341" t="inlineStr"/>
+      <c r="U341" t="inlineStr"/>
+      <c r="V341" t="inlineStr"/>
+      <c r="W341" t="inlineStr"/>
+      <c r="X341" t="inlineStr"/>
+      <c r="Y341" t="inlineStr"/>
+      <c r="Z341" t="inlineStr">
+        <is>
+          <t>-44.01523481950692,168.37271572920855</t>
+        </is>
+      </c>
+      <c r="AA341" t="inlineStr">
+        <is>
+          <t>-44.01446725305261,168.37200357341598</t>
+        </is>
+      </c>
+      <c r="AB341" t="inlineStr">
+        <is>
+          <t>-44.013803991886085,168.3719802104053</t>
+        </is>
+      </c>
+      <c r="AC341" t="inlineStr">
+        <is>
+          <t>-44.01309014201547,168.3716228728192</t>
+        </is>
+      </c>
+      <c r="AD341" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0453/nzd0453.xlsx
+++ b/data/nzd0453/nzd0453.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD341"/>
+  <dimension ref="A1:AD343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29994,6 +29994,160 @@
         </is>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-04 22:26:01+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>408.1511111111111</v>
+      </c>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
+      <c r="M342" t="inlineStr"/>
+      <c r="N342" t="inlineStr"/>
+      <c r="O342" t="inlineStr"/>
+      <c r="P342" t="inlineStr"/>
+      <c r="Q342" t="inlineStr"/>
+      <c r="R342" t="n">
+        <v>333.9171428571428</v>
+      </c>
+      <c r="S342" t="n">
+        <v>328.0166666666667</v>
+      </c>
+      <c r="T342" t="n">
+        <v>333.97</v>
+      </c>
+      <c r="U342" t="n">
+        <v>345.0342105263158</v>
+      </c>
+      <c r="V342" t="n">
+        <v>336.51</v>
+      </c>
+      <c r="W342" t="n">
+        <v>340.6553846153847</v>
+      </c>
+      <c r="X342" t="n">
+        <v>330.4353846153846</v>
+      </c>
+      <c r="Y342" t="inlineStr"/>
+      <c r="Z342" t="n">
+        <v>141.74</v>
+      </c>
+      <c r="AA342" t="inlineStr"/>
+      <c r="AB342" t="n">
+        <v>226.4203703703704</v>
+      </c>
+      <c r="AC342" t="n">
+        <v>262.9103703703704</v>
+      </c>
+      <c r="AD342" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:26:06+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>431.7844444444444</v>
+      </c>
+      <c r="C343" t="n">
+        <v>403.8854545454545</v>
+      </c>
+      <c r="D343" t="n">
+        <v>384.3</v>
+      </c>
+      <c r="E343" t="n">
+        <v>359.1254545454545</v>
+      </c>
+      <c r="F343" t="n">
+        <v>346.6454545454546</v>
+      </c>
+      <c r="G343" t="n">
+        <v>335.7807692307692</v>
+      </c>
+      <c r="H343" t="n">
+        <v>334.1242857142857</v>
+      </c>
+      <c r="I343" t="n">
+        <v>338.3507692307692</v>
+      </c>
+      <c r="J343" t="n">
+        <v>369.835</v>
+      </c>
+      <c r="K343" t="n">
+        <v>348.035</v>
+      </c>
+      <c r="L343" t="n">
+        <v>332.805</v>
+      </c>
+      <c r="M343" t="n">
+        <v>328.4166666666666</v>
+      </c>
+      <c r="N343" t="n">
+        <v>345.9594117647059</v>
+      </c>
+      <c r="O343" t="n">
+        <v>346.08</v>
+      </c>
+      <c r="P343" t="n">
+        <v>339.7653846153846</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>331.6894117647059</v>
+      </c>
+      <c r="R343" t="n">
+        <v>344.7942857142857</v>
+      </c>
+      <c r="S343" t="n">
+        <v>340.7366666666667</v>
+      </c>
+      <c r="T343" t="n">
+        <v>359.0654545454545</v>
+      </c>
+      <c r="U343" t="n">
+        <v>354.9973684210527</v>
+      </c>
+      <c r="V343" t="n">
+        <v>369.81</v>
+      </c>
+      <c r="W343" t="n">
+        <v>363.4407692307692</v>
+      </c>
+      <c r="X343" t="n">
+        <v>334.9907692307692</v>
+      </c>
+      <c r="Y343" t="inlineStr"/>
+      <c r="Z343" t="n">
+        <v>157.22</v>
+      </c>
+      <c r="AA343" t="inlineStr"/>
+      <c r="AB343" t="n">
+        <v>238.4714814814815</v>
+      </c>
+      <c r="AC343" t="n">
+        <v>272.1314814814814</v>
+      </c>
+      <c r="AD343" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30005,7 +30159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B350"/>
+  <dimension ref="A1:B352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33513,6 +33667,26 @@
       </c>
       <c r="B350" t="n">
         <v>-0.67</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-06-04 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -33686,28 +33860,28 @@
         <v>0.055</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03524403563849151</v>
+        <v>0.01994207714617667</v>
       </c>
       <c r="J2" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K2" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001076747767404518</v>
+        <v>3.442182741242306e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>19.11499585732811</v>
+        <v>19.25727615916761</v>
       </c>
       <c r="N2" t="n">
-        <v>623.8320345144056</v>
+        <v>630.3158997585316</v>
       </c>
       <c r="O2" t="n">
-        <v>24.97662976693224</v>
+        <v>25.10609288118188</v>
       </c>
       <c r="P2" t="n">
-        <v>383.6986921266785</v>
+        <v>383.1479275311806</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33764,28 +33938,28 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08410551567791955</v>
+        <v>0.1059037614928764</v>
       </c>
       <c r="J3" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K3" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00105590705301073</v>
+        <v>0.001670834357500484</v>
       </c>
       <c r="M3" t="n">
-        <v>15.2163623595119</v>
+        <v>15.26810525740638</v>
       </c>
       <c r="N3" t="n">
-        <v>356.1340153996671</v>
+        <v>358.1207137664543</v>
       </c>
       <c r="O3" t="n">
-        <v>18.87151333093526</v>
+        <v>18.92407761996484</v>
       </c>
       <c r="P3" t="n">
-        <v>371.3338462674442</v>
+        <v>371.113006978011</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33842,28 +34016,28 @@
         <v>0.0574</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1283361203312103</v>
+        <v>0.1427391692178032</v>
       </c>
       <c r="J4" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K4" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002950865675164782</v>
+        <v>0.003658090545460069</v>
       </c>
       <c r="M4" t="n">
-        <v>13.86220065573642</v>
+        <v>13.8852062571226</v>
       </c>
       <c r="N4" t="n">
-        <v>297.8797821004175</v>
+        <v>298.2620938774322</v>
       </c>
       <c r="O4" t="n">
-        <v>17.25919413241584</v>
+        <v>17.27026617853449</v>
       </c>
       <c r="P4" t="n">
-        <v>360.7467209838907</v>
+        <v>360.601016124358</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33920,28 +34094,28 @@
         <v>0.0663</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03286112284055991</v>
+        <v>-0.02839502136734826</v>
       </c>
       <c r="J5" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K5" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002068402550018389</v>
+        <v>0.0001555463429576687</v>
       </c>
       <c r="M5" t="n">
-        <v>13.24580410096116</v>
+        <v>13.22254407906039</v>
       </c>
       <c r="N5" t="n">
-        <v>279.5189293838156</v>
+        <v>278.6717568444386</v>
       </c>
       <c r="O5" t="n">
-        <v>16.71881961694113</v>
+        <v>16.69346449495846</v>
       </c>
       <c r="P5" t="n">
-        <v>353.6332530466466</v>
+        <v>353.5880949954794</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33998,28 +34172,28 @@
         <v>0.0597</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.198175765730346</v>
+        <v>-0.1966436867505976</v>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K6" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009937961013486096</v>
+        <v>0.009859527912940758</v>
       </c>
       <c r="M6" t="n">
-        <v>11.64103501379889</v>
+        <v>11.60769472397796</v>
       </c>
       <c r="N6" t="n">
-        <v>210.1561641165665</v>
+        <v>209.4353715173647</v>
       </c>
       <c r="O6" t="n">
-        <v>14.49676391877051</v>
+        <v>14.47188210003677</v>
       </c>
       <c r="P6" t="n">
-        <v>349.5803308765776</v>
+        <v>349.564904452775</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34076,28 +34250,28 @@
         <v>0.0772</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3261468265839036</v>
+        <v>-0.3270918423430806</v>
       </c>
       <c r="J7" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K7" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02888774856904808</v>
+        <v>0.0292672680718814</v>
       </c>
       <c r="M7" t="n">
-        <v>11.3669387162556</v>
+        <v>11.33144621572508</v>
       </c>
       <c r="N7" t="n">
-        <v>190.377586175798</v>
+        <v>189.7110593205116</v>
       </c>
       <c r="O7" t="n">
-        <v>13.79773844424506</v>
+        <v>13.77356378431202</v>
       </c>
       <c r="P7" t="n">
-        <v>345.5406440242895</v>
+        <v>345.5502117444571</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34154,28 +34328,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.216260953157644</v>
+        <v>-0.2164834924662433</v>
       </c>
       <c r="J8" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K8" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01213003292604853</v>
+        <v>0.01224647359597053</v>
       </c>
       <c r="M8" t="n">
-        <v>11.22857137298551</v>
+        <v>11.19071173301514</v>
       </c>
       <c r="N8" t="n">
-        <v>203.1424841938783</v>
+        <v>202.4374752629007</v>
       </c>
       <c r="O8" t="n">
-        <v>14.25280618663842</v>
+        <v>14.22805240582494</v>
       </c>
       <c r="P8" t="n">
-        <v>340.0314643942557</v>
+        <v>340.0337091469989</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34232,28 +34406,28 @@
         <v>0.0832</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1509748166330666</v>
+        <v>-0.1468003193315419</v>
       </c>
       <c r="J9" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K9" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006147837347670992</v>
+        <v>0.005855942353525601</v>
       </c>
       <c r="M9" t="n">
-        <v>11.19162101030613</v>
+        <v>11.17102825029973</v>
       </c>
       <c r="N9" t="n">
-        <v>198.2396665368324</v>
+        <v>197.6625847728552</v>
       </c>
       <c r="O9" t="n">
-        <v>14.0797608835105</v>
+        <v>14.05925263920011</v>
       </c>
       <c r="P9" t="n">
-        <v>336.3588522847436</v>
+        <v>336.317081427893</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34310,28 +34484,28 @@
         <v>0.1046</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.08935385048888307</v>
+        <v>-0.06126647066171296</v>
       </c>
       <c r="J10" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K10" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00209133251177851</v>
+        <v>0.0009668390891773848</v>
       </c>
       <c r="M10" t="n">
-        <v>11.61960894396237</v>
+        <v>11.70101470061861</v>
       </c>
       <c r="N10" t="n">
-        <v>204.4443835119652</v>
+        <v>209.0483503162219</v>
       </c>
       <c r="O10" t="n">
-        <v>14.29840492894103</v>
+        <v>14.45850442875133</v>
       </c>
       <c r="P10" t="n">
-        <v>333.2746375573004</v>
+        <v>332.993828979356</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34388,28 +34562,28 @@
         <v>0.1055</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.06969384495268884</v>
+        <v>-0.05603626294059112</v>
       </c>
       <c r="J11" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K11" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001167789555195031</v>
+        <v>0.0007566660572460027</v>
       </c>
       <c r="M11" t="n">
-        <v>11.90663730313439</v>
+        <v>11.93062559614281</v>
       </c>
       <c r="N11" t="n">
-        <v>221.4377183855986</v>
+        <v>221.9491545504435</v>
       </c>
       <c r="O11" t="n">
-        <v>14.88078352727432</v>
+        <v>14.89795806647486</v>
       </c>
       <c r="P11" t="n">
-        <v>330.5793976035334</v>
+        <v>330.441459948572</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34466,28 +34640,28 @@
         <v>0.097</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.08933167312464924</v>
+        <v>-0.0862911244697442</v>
       </c>
       <c r="J12" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K12" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001737013343459437</v>
+        <v>0.001633404054739329</v>
       </c>
       <c r="M12" t="n">
-        <v>12.33482534856813</v>
+        <v>12.30439821270939</v>
       </c>
       <c r="N12" t="n">
-        <v>240.9281065896688</v>
+        <v>240.1500648207957</v>
       </c>
       <c r="O12" t="n">
-        <v>15.52185899271311</v>
+        <v>15.49677594923524</v>
       </c>
       <c r="P12" t="n">
-        <v>330.8909793148723</v>
+        <v>330.8602631249465</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34544,28 +34718,28 @@
         <v>0.0925</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1194268002161291</v>
+        <v>-0.120547961321587</v>
       </c>
       <c r="J13" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K13" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003490583002991987</v>
+        <v>0.003583679196436984</v>
       </c>
       <c r="M13" t="n">
-        <v>11.82705642549617</v>
+        <v>11.79090569245431</v>
       </c>
       <c r="N13" t="n">
-        <v>213.9795094959277</v>
+        <v>213.2476050046034</v>
       </c>
       <c r="O13" t="n">
-        <v>14.62803847055126</v>
+        <v>14.60299986319946</v>
       </c>
       <c r="P13" t="n">
-        <v>333.0802769888793</v>
+        <v>333.0916391485467</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34622,28 +34796,28 @@
         <v>0.1088</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.03855686009750879</v>
+        <v>-0.02831269348766358</v>
       </c>
       <c r="J14" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K14" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004387221085839776</v>
+        <v>0.0002374725419068691</v>
       </c>
       <c r="M14" t="n">
-        <v>10.64101570364088</v>
+        <v>10.65969103220654</v>
       </c>
       <c r="N14" t="n">
-        <v>176.7252429087916</v>
+        <v>176.8398345475838</v>
       </c>
       <c r="O14" t="n">
-        <v>13.29380468145939</v>
+        <v>13.29811394700707</v>
       </c>
       <c r="P14" t="n">
-        <v>332.3657373019679</v>
+        <v>332.2616175189801</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34700,28 +34874,28 @@
         <v>0.0558</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04678659761859588</v>
+        <v>0.05582195139139743</v>
       </c>
       <c r="J15" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K15" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0005725642789118357</v>
+        <v>0.0008188293548229142</v>
       </c>
       <c r="M15" t="n">
-        <v>11.186451323753</v>
+        <v>11.19186536948269</v>
       </c>
       <c r="N15" t="n">
-        <v>199.0250793517775</v>
+        <v>198.8968974456454</v>
       </c>
       <c r="O15" t="n">
-        <v>14.10762486571632</v>
+        <v>14.10308113305902</v>
       </c>
       <c r="P15" t="n">
-        <v>332.082949647549</v>
+        <v>331.9905473105072</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34778,28 +34952,28 @@
         <v>0.1998</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.220123846854976</v>
+        <v>-0.2125205268410695</v>
       </c>
       <c r="J16" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K16" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0126637845259574</v>
+        <v>0.01188172009285626</v>
       </c>
       <c r="M16" t="n">
-        <v>11.11272109956628</v>
+        <v>11.10830538604681</v>
       </c>
       <c r="N16" t="n">
-        <v>197.01878000151</v>
+        <v>196.7356913725604</v>
       </c>
       <c r="O16" t="n">
-        <v>14.03633784152797</v>
+        <v>14.02625008234776</v>
       </c>
       <c r="P16" t="n">
-        <v>334.714222392862</v>
+        <v>334.6369740035474</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34856,28 +35030,28 @@
         <v>0.1117</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4933084752718598</v>
+        <v>-0.4904886333954016</v>
       </c>
       <c r="J17" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K17" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06500662382281075</v>
+        <v>0.06475759701124839</v>
       </c>
       <c r="M17" t="n">
-        <v>10.92207437794433</v>
+        <v>10.89727931573733</v>
       </c>
       <c r="N17" t="n">
-        <v>184.2051818625139</v>
+        <v>183.6311590653898</v>
       </c>
       <c r="O17" t="n">
-        <v>13.57222096277959</v>
+        <v>13.55105748882314</v>
       </c>
       <c r="P17" t="n">
-        <v>340.4148332665863</v>
+        <v>340.3862856387118</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34934,28 +35108,28 @@
         <v>0.09030000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.6602412531009624</v>
+        <v>-0.6436463834195887</v>
       </c>
       <c r="J18" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K18" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1162369656723944</v>
+        <v>0.1118535303044477</v>
       </c>
       <c r="M18" t="n">
-        <v>10.37194547876134</v>
+        <v>10.38868447357321</v>
       </c>
       <c r="N18" t="n">
-        <v>173.3160244521062</v>
+        <v>173.3653916580361</v>
       </c>
       <c r="O18" t="n">
-        <v>13.16495440372302</v>
+        <v>13.16682921807814</v>
       </c>
       <c r="P18" t="n">
-        <v>343.9886120283157</v>
+        <v>343.8188041043835</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35012,28 +35186,28 @@
         <v>0.0883</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.7470413737175294</v>
+        <v>-0.7376306164048103</v>
       </c>
       <c r="J19" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K19" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1272028502886726</v>
+        <v>0.1257205338883114</v>
       </c>
       <c r="M19" t="n">
-        <v>11.2790637407827</v>
+        <v>11.24833432482383</v>
       </c>
       <c r="N19" t="n">
-        <v>199.0405410472854</v>
+        <v>198.3040445138073</v>
       </c>
       <c r="O19" t="n">
-        <v>14.10817284581123</v>
+        <v>14.08204688650792</v>
       </c>
       <c r="P19" t="n">
-        <v>346.7530606353641</v>
+        <v>346.6571145013903</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35090,28 +35264,28 @@
         <v>0.0664</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.639162152276279</v>
+        <v>-0.6175460541498563</v>
       </c>
       <c r="J20" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K20" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L20" t="n">
-        <v>0.08268866951466192</v>
+        <v>0.07783701547731503</v>
       </c>
       <c r="M20" t="n">
-        <v>12.25261769696466</v>
+        <v>12.26940981890318</v>
       </c>
       <c r="N20" t="n">
-        <v>235.4768332075568</v>
+        <v>236.6250317233026</v>
       </c>
       <c r="O20" t="n">
-        <v>15.3452544197728</v>
+        <v>15.38262109405619</v>
       </c>
       <c r="P20" t="n">
-        <v>347.0104496501345</v>
+        <v>346.7885802394977</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35168,28 +35342,28 @@
         <v>0.1275</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5543406716703972</v>
+        <v>-0.5274437226754196</v>
       </c>
       <c r="J21" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K21" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06978303728139146</v>
+        <v>0.06369791774556965</v>
       </c>
       <c r="M21" t="n">
-        <v>11.58683768301169</v>
+        <v>11.61658406293026</v>
       </c>
       <c r="N21" t="n">
-        <v>211.5514797660441</v>
+        <v>212.8795093894153</v>
       </c>
       <c r="O21" t="n">
-        <v>14.54480937537664</v>
+        <v>14.59039099508356</v>
       </c>
       <c r="P21" t="n">
-        <v>344.4322497281416</v>
+        <v>344.1553468586338</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35246,28 +35420,28 @@
         <v>0.0581</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.5076550093431976</v>
+        <v>-0.4776401845789451</v>
       </c>
       <c r="J22" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K22" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05201964573785622</v>
+        <v>0.04609663998435443</v>
       </c>
       <c r="M22" t="n">
-        <v>12.88727011302584</v>
+        <v>12.9434354123709</v>
       </c>
       <c r="N22" t="n">
-        <v>246.5473664808565</v>
+        <v>249.8797436743599</v>
       </c>
       <c r="O22" t="n">
-        <v>15.70182685170285</v>
+        <v>15.80758500449578</v>
       </c>
       <c r="P22" t="n">
-        <v>344.8099242804768</v>
+        <v>344.5038003601106</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35324,28 +35498,28 @@
         <v>0.0722</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.589400363275524</v>
+        <v>-0.5543003075693789</v>
       </c>
       <c r="J23" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K23" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06722603712212061</v>
+        <v>0.05959148886726129</v>
       </c>
       <c r="M23" t="n">
-        <v>13.12015253694246</v>
+        <v>13.20425231439864</v>
       </c>
       <c r="N23" t="n">
-        <v>251.7202631492936</v>
+        <v>255.2596889660098</v>
       </c>
       <c r="O23" t="n">
-        <v>15.86569453724903</v>
+        <v>15.97684853048341</v>
       </c>
       <c r="P23" t="n">
-        <v>341.4859259041555</v>
+        <v>341.1274656517248</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35402,28 +35576,28 @@
         <v>0.074</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.4440350683230233</v>
+        <v>-0.4201675542915582</v>
       </c>
       <c r="J24" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K24" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04120146072515141</v>
+        <v>0.03730855318575832</v>
       </c>
       <c r="M24" t="n">
-        <v>12.54014102194859</v>
+        <v>12.56956004697882</v>
       </c>
       <c r="N24" t="n">
-        <v>243.1677475029859</v>
+        <v>243.473679348115</v>
       </c>
       <c r="O24" t="n">
-        <v>15.59383684354129</v>
+        <v>15.60364314344939</v>
       </c>
       <c r="P24" t="n">
-        <v>327.2021245451877</v>
+        <v>326.9615916902507</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35483,7 +35657,7 @@
         <v>-0.4855511412639469</v>
       </c>
       <c r="J25" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K25" t="n">
         <v>248</v>
@@ -35558,28 +35732,28 @@
         <v>0.1565</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.284023902145126</v>
+        <v>-3.437332607580815</v>
       </c>
       <c r="J26" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K26" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1541361171855428</v>
+        <v>0.1652999810325421</v>
       </c>
       <c r="M26" t="n">
-        <v>41.90701292792189</v>
+        <v>42.81734507039101</v>
       </c>
       <c r="N26" t="n">
-        <v>3135.192551522534</v>
+        <v>3186.220148602243</v>
       </c>
       <c r="O26" t="n">
-        <v>55.99279017447277</v>
+        <v>56.44661326069301</v>
       </c>
       <c r="P26" t="n">
-        <v>331.9493017717505</v>
+        <v>333.5410412698544</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -35639,7 +35813,7 @@
         <v>-2.81564674851005</v>
       </c>
       <c r="J27" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K27" t="n">
         <v>244</v>
@@ -35708,28 +35882,28 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>-0.7798941244398618</v>
+        <v>-0.8047587831029162</v>
       </c>
       <c r="J28" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K28" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04361915133746763</v>
+        <v>0.04679699813203941</v>
       </c>
       <c r="M28" t="n">
-        <v>19.62256045124021</v>
+        <v>19.59801571044258</v>
       </c>
       <c r="N28" t="n">
-        <v>696.111149666631</v>
+        <v>693.6124443486315</v>
       </c>
       <c r="O28" t="n">
-        <v>26.38391839106979</v>
+        <v>26.33652301175369</v>
       </c>
       <c r="P28" t="n">
-        <v>270.425015226354</v>
+        <v>270.6851444063807</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -35780,28 +35954,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>-0.1687788579657305</v>
+        <v>-0.18447321470352</v>
       </c>
       <c r="J29" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K29" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L29" t="n">
-        <v>0.008988645336426848</v>
+        <v>0.01081187887239621</v>
       </c>
       <c r="M29" t="n">
-        <v>10.5944649140293</v>
+        <v>10.59873873331336</v>
       </c>
       <c r="N29" t="n">
-        <v>168.87291423825</v>
+        <v>168.6930463951704</v>
       </c>
       <c r="O29" t="n">
-        <v>12.99511116682924</v>
+        <v>12.98818872649957</v>
       </c>
       <c r="P29" t="n">
-        <v>283.0851568251959</v>
+        <v>283.2449720392476</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -35839,7 +36013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD341"/>
+  <dimension ref="A1:AD343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81211,6 +81385,234 @@
         </is>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-04 22:26:01+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>-44.029150987397955,168.3622416228252</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
+      <c r="M342" t="inlineStr"/>
+      <c r="N342" t="inlineStr"/>
+      <c r="O342" t="inlineStr"/>
+      <c r="P342" t="inlineStr"/>
+      <c r="Q342" t="inlineStr"/>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>-44.01986919536045,168.36851001460667</t>
+        </is>
+      </c>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>-44.01927709443786,168.36886957232528</t>
+        </is>
+      </c>
+      <c r="T342" t="inlineStr">
+        <is>
+          <t>-44.0186467102533,168.3690913388951</t>
+        </is>
+      </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>-44.01799981672937,168.3692536979943</t>
+        </is>
+      </c>
+      <c r="V342" t="inlineStr">
+        <is>
+          <t>-44.017414833340936,168.3696440392897</t>
+        </is>
+      </c>
+      <c r="W342" t="inlineStr">
+        <is>
+          <t>-44.01678201061896,168.36985148558335</t>
+        </is>
+      </c>
+      <c r="X342" t="inlineStr">
+        <is>
+          <t>-44.01616211710984,168.370126657224</t>
+        </is>
+      </c>
+      <c r="Y342" t="inlineStr"/>
+      <c r="Z342" t="inlineStr">
+        <is>
+          <t>-44.015236850065634,168.37272913761777</t>
+        </is>
+      </c>
+      <c r="AA342" t="inlineStr"/>
+      <c r="AB342" t="inlineStr">
+        <is>
+          <t>-44.01380688401426,168.3719993067244</t>
+        </is>
+      </c>
+      <c r="AC342" t="inlineStr">
+        <is>
+          <t>-44.01310268916096,168.37170571726162</t>
+        </is>
+      </c>
+      <c r="AD342" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:26:06+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-44.029059547392436,168.3619758784843</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-44.02857447764492,168.3626455165929</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-44.028057234447616,168.36322167051517</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-44.02756160789069,168.3638606668104</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-44.027016859194,168.36435691910978</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-44.02646585425879,168.3648350065414</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-44.025879217477915,168.36520955456027</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>-44.02526981444188,168.3655179544083</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>-44.02455495008467,168.36551987325748</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>-44.0240462276877,168.3661209124539</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>-44.023512080011535,168.36664807730054</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>-44.02293568676546,168.36705348869154</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>-44.02227443834934,168.3672071353487</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>-44.021663343568356,168.36749571803924</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>-44.021072599661146,168.36786009293735</t>
+        </is>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>-44.02048753676928,168.36824494132313</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>-44.01983407177525,168.36838357541976</t>
+        </is>
+      </c>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>-44.01923602042242,168.3687217124509</t>
+        </is>
+      </c>
+      <c r="T343" t="inlineStr">
+        <is>
+          <t>-44.018565675041955,168.36879962723825</t>
+        </is>
+      </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>-44.017967645100434,168.3691378865007</t>
+        </is>
+      </c>
+      <c r="V343" t="inlineStr">
+        <is>
+          <t>-44.01731284434007,168.36925409703437</t>
+        </is>
+      </c>
+      <c r="W343" t="inlineStr">
+        <is>
+          <t>-44.01672791260622,168.36957776789097</t>
+        </is>
+      </c>
+      <c r="X343" t="inlineStr">
+        <is>
+          <t>-44.01615370679483,168.37007112914262</t>
+        </is>
+      </c>
+      <c r="Y343" t="inlineStr"/>
+      <c r="Z343" t="inlineStr">
+        <is>
+          <t>-44.015208274425135,168.37254044482796</t>
+        </is>
+      </c>
+      <c r="AA343" t="inlineStr"/>
+      <c r="AB343" t="inlineStr">
+        <is>
+          <t>-44.013784637109644,168.37185241410015</t>
+        </is>
+      </c>
+      <c r="AC343" t="inlineStr">
+        <is>
+          <t>-44.01308566629887,168.37159332132103</t>
+        </is>
+      </c>
+      <c r="AD343" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0453/nzd0453.xlsx
+++ b/data/nzd0453/nzd0453.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD343"/>
+  <dimension ref="A1:AD345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30148,6 +30148,126 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:16+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr"/>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
+      <c r="M344" t="inlineStr"/>
+      <c r="N344" t="n">
+        <v>335.1547058823529</v>
+      </c>
+      <c r="O344" t="n">
+        <v>345.15</v>
+      </c>
+      <c r="P344" t="n">
+        <v>352.0784615384616</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>338.8347058823529</v>
+      </c>
+      <c r="R344" t="n">
+        <v>337.7657142857143</v>
+      </c>
+      <c r="S344" t="n">
+        <v>337.5466666666666</v>
+      </c>
+      <c r="T344" t="n">
+        <v>353.2254545454546</v>
+      </c>
+      <c r="U344" t="n">
+        <v>346.34</v>
+      </c>
+      <c r="V344" t="n">
+        <v>366.34</v>
+      </c>
+      <c r="W344" t="n">
+        <v>355.6069230769231</v>
+      </c>
+      <c r="X344" t="n">
+        <v>344.5869230769231</v>
+      </c>
+      <c r="Y344" t="inlineStr"/>
+      <c r="Z344" t="n">
+        <v>137.97</v>
+      </c>
+      <c r="AA344" t="inlineStr"/>
+      <c r="AB344" t="n">
+        <v>221.6725925925926</v>
+      </c>
+      <c r="AC344" t="n">
+        <v>257.0925925925926</v>
+      </c>
+      <c r="AD344" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-28 22:25:52+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr"/>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr"/>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
+      <c r="M345" t="inlineStr"/>
+      <c r="N345" t="inlineStr"/>
+      <c r="O345" t="inlineStr"/>
+      <c r="P345" t="inlineStr"/>
+      <c r="Q345" t="inlineStr"/>
+      <c r="R345" t="inlineStr"/>
+      <c r="S345" t="inlineStr"/>
+      <c r="T345" t="inlineStr"/>
+      <c r="U345" t="inlineStr"/>
+      <c r="V345" t="n">
+        <v>348.6</v>
+      </c>
+      <c r="W345" t="n">
+        <v>353.4653846153847</v>
+      </c>
+      <c r="X345" t="n">
+        <v>326.8053846153846</v>
+      </c>
+      <c r="Y345" t="inlineStr"/>
+      <c r="Z345" t="n">
+        <v>142.03</v>
+      </c>
+      <c r="AA345" t="inlineStr"/>
+      <c r="AB345" t="n">
+        <v>227.3603703703704</v>
+      </c>
+      <c r="AC345" t="n">
+        <v>269.0703703703704</v>
+      </c>
+      <c r="AD345" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30159,7 +30279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B352"/>
+  <dimension ref="A1:B354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33687,6 +33807,26 @@
       </c>
       <c r="B352" t="n">
         <v>0.47</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-06-28 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>-0.22</v>
       </c>
     </row>
   </sheetData>
@@ -33863,7 +34003,7 @@
         <v>0.01994207714617667</v>
       </c>
       <c r="J2" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K2" t="n">
         <v>267</v>
@@ -33941,7 +34081,7 @@
         <v>0.1059037614928764</v>
       </c>
       <c r="J3" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K3" t="n">
         <v>280</v>
@@ -34019,7 +34159,7 @@
         <v>0.1427391692178032</v>
       </c>
       <c r="J4" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K4" t="n">
         <v>280</v>
@@ -34097,7 +34237,7 @@
         <v>-0.02839502136734826</v>
       </c>
       <c r="J5" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K5" t="n">
         <v>283</v>
@@ -34175,7 +34315,7 @@
         <v>-0.1966436867505976</v>
       </c>
       <c r="J6" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K6" t="n">
         <v>285</v>
@@ -34253,7 +34393,7 @@
         <v>-0.3270918423430806</v>
       </c>
       <c r="J7" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K7" t="n">
         <v>283</v>
@@ -34331,7 +34471,7 @@
         <v>-0.2164834924662433</v>
       </c>
       <c r="J8" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K8" t="n">
         <v>288</v>
@@ -34409,7 +34549,7 @@
         <v>-0.1468003193315419</v>
       </c>
       <c r="J9" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K9" t="n">
         <v>284</v>
@@ -34487,7 +34627,7 @@
         <v>-0.06126647066171296</v>
       </c>
       <c r="J10" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K10" t="n">
         <v>280</v>
@@ -34565,7 +34705,7 @@
         <v>-0.05603626294059112</v>
       </c>
       <c r="J11" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K11" t="n">
         <v>284</v>
@@ -34643,7 +34783,7 @@
         <v>-0.0862911244697442</v>
       </c>
       <c r="J12" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K12" t="n">
         <v>287</v>
@@ -34721,7 +34861,7 @@
         <v>-0.120547961321587</v>
       </c>
       <c r="J13" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K13" t="n">
         <v>289</v>
@@ -34796,28 +34936,28 @@
         <v>0.1088</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.02831269348766358</v>
+        <v>-0.0257898785254038</v>
       </c>
       <c r="J14" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K14" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002374725419068691</v>
+        <v>0.0001984986194198957</v>
       </c>
       <c r="M14" t="n">
-        <v>10.65969103220654</v>
+        <v>10.63709033878061</v>
       </c>
       <c r="N14" t="n">
-        <v>176.8398345475838</v>
+        <v>176.2863229847923</v>
       </c>
       <c r="O14" t="n">
-        <v>13.29811394700707</v>
+        <v>13.27728597962672</v>
       </c>
       <c r="P14" t="n">
-        <v>332.2616175189801</v>
+        <v>332.2359515719931</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34874,28 +35014,28 @@
         <v>0.0558</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05582195139139743</v>
+        <v>0.06402570466463084</v>
       </c>
       <c r="J15" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K15" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0008188293548229142</v>
+        <v>0.001082554760207355</v>
       </c>
       <c r="M15" t="n">
-        <v>11.19186536948269</v>
+        <v>11.19340890573268</v>
       </c>
       <c r="N15" t="n">
-        <v>198.8968974456454</v>
+        <v>198.6806427843729</v>
       </c>
       <c r="O15" t="n">
-        <v>14.10308113305902</v>
+        <v>14.09541211828774</v>
       </c>
       <c r="P15" t="n">
-        <v>331.9905473105072</v>
+        <v>331.9065684546232</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34952,28 +35092,28 @@
         <v>0.1998</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2125205268410695</v>
+        <v>-0.1964280919327272</v>
       </c>
       <c r="J16" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K16" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01188172009285626</v>
+        <v>0.01015475575962665</v>
       </c>
       <c r="M16" t="n">
-        <v>11.10830538604681</v>
+        <v>11.14130032698718</v>
       </c>
       <c r="N16" t="n">
-        <v>196.7356913725604</v>
+        <v>197.8365698092848</v>
       </c>
       <c r="O16" t="n">
-        <v>14.02625008234776</v>
+        <v>14.06543884168869</v>
       </c>
       <c r="P16" t="n">
-        <v>334.6369740035474</v>
+        <v>334.4733216103893</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35030,28 +35170,28 @@
         <v>0.1117</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4904886333954016</v>
+        <v>-0.4827552591492819</v>
       </c>
       <c r="J17" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K17" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06475759701124839</v>
+        <v>0.06317207495586685</v>
       </c>
       <c r="M17" t="n">
-        <v>10.89727931573733</v>
+        <v>10.89425317770347</v>
       </c>
       <c r="N17" t="n">
-        <v>183.6311590653898</v>
+        <v>183.4237586078486</v>
       </c>
       <c r="O17" t="n">
-        <v>13.55105748882314</v>
+        <v>13.54340277064256</v>
       </c>
       <c r="P17" t="n">
-        <v>340.3862856387118</v>
+        <v>340.3079183147112</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35108,28 +35248,28 @@
         <v>0.09030000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.6436463834195887</v>
+        <v>-0.6366244661557461</v>
       </c>
       <c r="J18" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K18" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1118535303044477</v>
+        <v>0.1101816121765148</v>
       </c>
       <c r="M18" t="n">
-        <v>10.38868447357321</v>
+        <v>10.39083535361506</v>
       </c>
       <c r="N18" t="n">
-        <v>173.3653916580361</v>
+        <v>173.1606309845862</v>
       </c>
       <c r="O18" t="n">
-        <v>13.16682921807814</v>
+        <v>13.15905129500551</v>
       </c>
       <c r="P18" t="n">
-        <v>343.8188041043835</v>
+        <v>343.7468609080555</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35186,28 +35326,28 @@
         <v>0.0883</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.7376306164048103</v>
+        <v>-0.7309115871240905</v>
       </c>
       <c r="J19" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K19" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1257205338883114</v>
+        <v>0.1243398487197364</v>
       </c>
       <c r="M19" t="n">
-        <v>11.24833432482383</v>
+        <v>11.24238070332405</v>
       </c>
       <c r="N19" t="n">
-        <v>198.3040445138073</v>
+        <v>197.97525415311</v>
       </c>
       <c r="O19" t="n">
-        <v>14.08204688650792</v>
+        <v>14.07036794661426</v>
       </c>
       <c r="P19" t="n">
-        <v>346.6571145013903</v>
+        <v>346.588542810634</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35264,28 +35404,28 @@
         <v>0.0664</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.6175460541498563</v>
+        <v>-0.6025495744765422</v>
       </c>
       <c r="J20" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K20" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07783701547731503</v>
+        <v>0.07439761808387813</v>
       </c>
       <c r="M20" t="n">
-        <v>12.26940981890318</v>
+        <v>12.29878305257971</v>
       </c>
       <c r="N20" t="n">
-        <v>236.6250317233026</v>
+        <v>237.4844072193343</v>
       </c>
       <c r="O20" t="n">
-        <v>15.38262109405619</v>
+        <v>15.41052910251086</v>
       </c>
       <c r="P20" t="n">
-        <v>346.7885802394977</v>
+        <v>346.6344881075094</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35342,28 +35482,28 @@
         <v>0.1275</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5274437226754196</v>
+        <v>-0.5168311342107333</v>
       </c>
       <c r="J21" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K21" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06369791774556965</v>
+        <v>0.06150940659424997</v>
       </c>
       <c r="M21" t="n">
-        <v>11.61658406293026</v>
+        <v>11.62119842117914</v>
       </c>
       <c r="N21" t="n">
-        <v>212.8795093894153</v>
+        <v>212.9947641097494</v>
       </c>
       <c r="O21" t="n">
-        <v>14.59039099508356</v>
+        <v>14.59434013957977</v>
       </c>
       <c r="P21" t="n">
-        <v>344.1553468586338</v>
+        <v>344.0459446954865</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35420,28 +35560,28 @@
         <v>0.0581</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.4776401845789451</v>
+        <v>-0.4428851474589025</v>
       </c>
       <c r="J22" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K22" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04609663998435443</v>
+        <v>0.03971703170565599</v>
       </c>
       <c r="M22" t="n">
-        <v>12.9434354123709</v>
+        <v>13.02480434647421</v>
       </c>
       <c r="N22" t="n">
-        <v>249.8797436743599</v>
+        <v>253.0162289929869</v>
       </c>
       <c r="O22" t="n">
-        <v>15.80758500449578</v>
+        <v>15.90648386642965</v>
       </c>
       <c r="P22" t="n">
-        <v>344.5038003601106</v>
+        <v>344.1488271957002</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35498,28 +35638,28 @@
         <v>0.0722</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.5543003075693789</v>
+        <v>-0.5171845464043682</v>
       </c>
       <c r="J23" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K23" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05959148886726129</v>
+        <v>0.05202865057366002</v>
       </c>
       <c r="M23" t="n">
-        <v>13.20425231439864</v>
+        <v>13.3009055848449</v>
       </c>
       <c r="N23" t="n">
-        <v>255.2596889660098</v>
+        <v>258.5818332008855</v>
       </c>
       <c r="O23" t="n">
-        <v>15.97684853048341</v>
+        <v>16.08047988092661</v>
       </c>
       <c r="P23" t="n">
-        <v>341.1274656517248</v>
+        <v>340.7477661154097</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35576,28 +35716,28 @@
         <v>0.074</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.4201675542915582</v>
+        <v>-0.3931173784325863</v>
       </c>
       <c r="J24" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K24" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03730855318575832</v>
+        <v>0.03288198849016222</v>
       </c>
       <c r="M24" t="n">
-        <v>12.56956004697882</v>
+        <v>12.61503524754958</v>
       </c>
       <c r="N24" t="n">
-        <v>243.473679348115</v>
+        <v>244.9328830539393</v>
       </c>
       <c r="O24" t="n">
-        <v>15.60364314344939</v>
+        <v>15.65033172344725</v>
       </c>
       <c r="P24" t="n">
-        <v>326.9615916902507</v>
+        <v>326.6885256744506</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35657,7 +35797,7 @@
         <v>-0.4855511412639469</v>
       </c>
       <c r="J25" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K25" t="n">
         <v>248</v>
@@ -35732,28 +35872,28 @@
         <v>0.1565</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.437332607580815</v>
+        <v>-3.59835577073444</v>
       </c>
       <c r="J26" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K26" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1652999810325421</v>
+        <v>0.1766935747029986</v>
       </c>
       <c r="M26" t="n">
-        <v>42.81734507039101</v>
+        <v>43.7707244980302</v>
       </c>
       <c r="N26" t="n">
-        <v>3186.220148602243</v>
+        <v>3247.166243880256</v>
       </c>
       <c r="O26" t="n">
-        <v>56.44661326069301</v>
+        <v>56.98391214966077</v>
       </c>
       <c r="P26" t="n">
-        <v>333.5410412698544</v>
+        <v>335.2165130328723</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -35813,7 +35953,7 @@
         <v>-2.81564674851005</v>
       </c>
       <c r="J27" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K27" t="n">
         <v>244</v>
@@ -35882,28 +36022,28 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>-0.8047587831029162</v>
+        <v>-0.8395090818580675</v>
       </c>
       <c r="J28" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K28" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04679699813203941</v>
+        <v>0.05108503071573234</v>
       </c>
       <c r="M28" t="n">
-        <v>19.59801571044258</v>
+        <v>19.62486159072299</v>
       </c>
       <c r="N28" t="n">
-        <v>693.6124443486315</v>
+        <v>693.2084360672128</v>
       </c>
       <c r="O28" t="n">
-        <v>26.33652301175369</v>
+        <v>26.32885178026594</v>
       </c>
       <c r="P28" t="n">
-        <v>270.6851444063807</v>
+        <v>271.0494993909239</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -35954,28 +36094,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>-0.18447321470352</v>
+        <v>-0.2056543725978053</v>
       </c>
       <c r="J29" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K29" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01081187887239621</v>
+        <v>0.01344395593939729</v>
       </c>
       <c r="M29" t="n">
-        <v>10.59873873331336</v>
+        <v>10.6305702948127</v>
       </c>
       <c r="N29" t="n">
-        <v>168.6930463951704</v>
+        <v>169.404786744555</v>
       </c>
       <c r="O29" t="n">
-        <v>12.98818872649957</v>
+        <v>13.01555940958955</v>
       </c>
       <c r="P29" t="n">
-        <v>283.2449720392476</v>
+        <v>283.4611171327211</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -36013,7 +36153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD343"/>
+  <dimension ref="A1:AD345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81613,6 +81753,166 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:16+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr"/>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
+      <c r="M344" t="inlineStr"/>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>-44.022312612151175,168.3673308894029</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>-44.02166634672166,168.3675065289223</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>-44.02103283859726,168.36771695956404</t>
+        </is>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>-44.0204644636298,168.36816188148694</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>-44.019856767881876,168.3684652776342</t>
+        </is>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>-44.01924632123439,168.368758793641</t>
+        </is>
+      </c>
+      <c r="T344" t="inlineStr">
+        <is>
+          <t>-44.01858453292843,168.36886751180944</t>
+        </is>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>-44.01799560026397,168.3692385195231</t>
+        </is>
+      </c>
+      <c r="V344" t="inlineStr">
+        <is>
+          <t>-44.01732347208241,168.36929473058967</t>
+        </is>
+      </c>
+      <c r="W344" t="inlineStr">
+        <is>
+          <t>-44.01674651212309,168.3696718747456</t>
+        </is>
+      </c>
+      <c r="X344" t="inlineStr">
+        <is>
+          <t>-44.016135989943926,168.36995415641917</t>
+        </is>
+      </c>
+      <c r="Y344" t="inlineStr"/>
+      <c r="Z344" t="inlineStr">
+        <is>
+          <t>-44.01524380933243,168.37277509190082</t>
+        </is>
+      </c>
+      <c r="AA344" t="inlineStr"/>
+      <c r="AB344" t="inlineStr">
+        <is>
+          <t>-44.01381564857935,168.37205717806467</t>
+        </is>
+      </c>
+      <c r="AC344" t="inlineStr">
+        <is>
+          <t>-44.01311342915904,168.37177663007742</t>
+        </is>
+      </c>
+      <c r="AD344" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-28 22:25:52+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr"/>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr"/>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
+      <c r="M345" t="inlineStr"/>
+      <c r="N345" t="inlineStr"/>
+      <c r="O345" t="inlineStr"/>
+      <c r="P345" t="inlineStr"/>
+      <c r="Q345" t="inlineStr"/>
+      <c r="R345" t="inlineStr"/>
+      <c r="S345" t="inlineStr"/>
+      <c r="T345" t="inlineStr"/>
+      <c r="U345" t="inlineStr"/>
+      <c r="V345" t="inlineStr">
+        <is>
+          <t>-44.017377805049684,168.3695024654938</t>
+        </is>
+      </c>
+      <c r="W345" t="inlineStr">
+        <is>
+          <t>-44.016751596659766,168.36969760074703</t>
+        </is>
+      </c>
+      <c r="X345" t="inlineStr">
+        <is>
+          <t>-44.016168818927554,168.3701709052976</t>
+        </is>
+      </c>
+      <c r="Y345" t="inlineStr"/>
+      <c r="Z345" t="inlineStr">
+        <is>
+          <t>-44.01523631473666,168.3727256026734</t>
+        </is>
+      </c>
+      <c r="AA345" t="inlineStr"/>
+      <c r="AB345" t="inlineStr">
+        <is>
+          <t>-44.013805148737724,168.37198784893266</t>
+        </is>
+      </c>
+      <c r="AC345" t="inlineStr">
+        <is>
+          <t>-44.01309131735136,168.37163063313557</t>
+        </is>
+      </c>
+      <c r="AD345" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0453/nzd0453.xlsx
+++ b/data/nzd0453/nzd0453.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD345"/>
+  <dimension ref="A1:AD348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30086,9 +30086,7 @@
       <c r="I343" t="n">
         <v>338.3507692307692</v>
       </c>
-      <c r="J343" t="n">
-        <v>369.835</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
         <v>348.035</v>
       </c>
@@ -30268,6 +30266,284 @@
         </is>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-22 22:26:26+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>396.3588888888889</v>
+      </c>
+      <c r="C346" t="n">
+        <v>387.4945454545455</v>
+      </c>
+      <c r="D346" t="n">
+        <v>378.11</v>
+      </c>
+      <c r="E346" t="n">
+        <v>374.9645454545454</v>
+      </c>
+      <c r="F346" t="n">
+        <v>389.0645454545455</v>
+      </c>
+      <c r="G346" t="n">
+        <v>377.9769230769231</v>
+      </c>
+      <c r="H346" t="n">
+        <v>352.8628571428572</v>
+      </c>
+      <c r="I346" t="n">
+        <v>338.1069230769231</v>
+      </c>
+      <c r="J346" t="n">
+        <v>328.135</v>
+      </c>
+      <c r="K346" t="n">
+        <v>338.865</v>
+      </c>
+      <c r="L346" t="n">
+        <v>347.035</v>
+      </c>
+      <c r="M346" t="n">
+        <v>345.3233333333333</v>
+      </c>
+      <c r="N346" t="n">
+        <v>335.9</v>
+      </c>
+      <c r="O346" t="n">
+        <v>342.11</v>
+      </c>
+      <c r="P346" t="n">
+        <v>333.9484615384616</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>346.21</v>
+      </c>
+      <c r="R346" t="n">
+        <v>349.1128571428572</v>
+      </c>
+      <c r="S346" t="n">
+        <v>339.5633333333333</v>
+      </c>
+      <c r="T346" t="n">
+        <v>341.3445454545454</v>
+      </c>
+      <c r="U346" t="n">
+        <v>340.0273684210526</v>
+      </c>
+      <c r="V346" t="n">
+        <v>354.18</v>
+      </c>
+      <c r="W346" t="n">
+        <v>352.8369230769231</v>
+      </c>
+      <c r="X346" t="n">
+        <v>336.9669230769231</v>
+      </c>
+      <c r="Y346" t="inlineStr"/>
+      <c r="Z346" t="n">
+        <v>166.3</v>
+      </c>
+      <c r="AA346" t="n">
+        <v>220.1762962962963</v>
+      </c>
+      <c r="AB346" t="n">
+        <v>246.3962962962963</v>
+      </c>
+      <c r="AC346" t="n">
+        <v>272.1262962962963</v>
+      </c>
+      <c r="AD346" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:26:27+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>391.4866666666667</v>
+      </c>
+      <c r="C347" t="n">
+        <v>373.5009090909091</v>
+      </c>
+      <c r="D347" t="n">
+        <v>360.83</v>
+      </c>
+      <c r="E347" t="n">
+        <v>390.0909090909091</v>
+      </c>
+      <c r="F347" t="n">
+        <v>387.0409090909091</v>
+      </c>
+      <c r="G347" t="n">
+        <v>363.4292307692308</v>
+      </c>
+      <c r="H347" t="n">
+        <v>341.5885714285715</v>
+      </c>
+      <c r="I347" t="n">
+        <v>330.3792307692308</v>
+      </c>
+      <c r="J347" t="n">
+        <v>328.24</v>
+      </c>
+      <c r="K347" t="n">
+        <v>333.58</v>
+      </c>
+      <c r="L347" t="n">
+        <v>329.56</v>
+      </c>
+      <c r="M347" t="n">
+        <v>321.97</v>
+      </c>
+      <c r="N347" t="n">
+        <v>316.5411764705883</v>
+      </c>
+      <c r="O347" t="n">
+        <v>322.1</v>
+      </c>
+      <c r="P347" t="n">
+        <v>347.4046153846153</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>343.9811764705883</v>
+      </c>
+      <c r="R347" t="n">
+        <v>331.4185714285715</v>
+      </c>
+      <c r="S347" t="n">
+        <v>323.14</v>
+      </c>
+      <c r="T347" t="n">
+        <v>311.7009090909091</v>
+      </c>
+      <c r="U347" t="n">
+        <v>328.4942105263158</v>
+      </c>
+      <c r="V347" t="n">
+        <v>327.66</v>
+      </c>
+      <c r="W347" t="n">
+        <v>341.3692307692308</v>
+      </c>
+      <c r="X347" t="n">
+        <v>325.5892307692308</v>
+      </c>
+      <c r="Y347" t="inlineStr"/>
+      <c r="Z347" t="n">
+        <v>139.71</v>
+      </c>
+      <c r="AA347" t="n">
+        <v>211.9555555555555</v>
+      </c>
+      <c r="AB347" t="n">
+        <v>239.1855555555556</v>
+      </c>
+      <c r="AC347" t="n">
+        <v>267.2455555555555</v>
+      </c>
+      <c r="AD347" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:26:37+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>405.8844444444445</v>
+      </c>
+      <c r="C348" t="n">
+        <v>404.2509090909091</v>
+      </c>
+      <c r="D348" t="n">
+        <v>397.39</v>
+      </c>
+      <c r="E348" t="n">
+        <v>383.180909090909</v>
+      </c>
+      <c r="F348" t="n">
+        <v>363.9009090909091</v>
+      </c>
+      <c r="G348" t="n">
+        <v>354.4892307692308</v>
+      </c>
+      <c r="H348" t="n">
+        <v>343.4071428571428</v>
+      </c>
+      <c r="I348" t="n">
+        <v>341.9292307692308</v>
+      </c>
+      <c r="J348" t="n">
+        <v>360.265</v>
+      </c>
+      <c r="K348" t="n">
+        <v>351.655</v>
+      </c>
+      <c r="L348" t="n">
+        <v>350.585</v>
+      </c>
+      <c r="M348" t="n">
+        <v>355.1466666666666</v>
+      </c>
+      <c r="N348" t="inlineStr"/>
+      <c r="O348" t="n">
+        <v>359.51</v>
+      </c>
+      <c r="P348" t="n">
+        <v>338.2646153846153</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>332.8547058823529</v>
+      </c>
+      <c r="R348" t="n">
+        <v>336.3171428571428</v>
+      </c>
+      <c r="S348" t="n">
+        <v>340.5966666666666</v>
+      </c>
+      <c r="T348" t="inlineStr"/>
+      <c r="U348" t="n">
+        <v>341.7968421052632</v>
+      </c>
+      <c r="V348" t="n">
+        <v>337.91</v>
+      </c>
+      <c r="W348" t="n">
+        <v>313.8892307692308</v>
+      </c>
+      <c r="X348" t="n">
+        <v>308.0692307692308</v>
+      </c>
+      <c r="Y348" t="n">
+        <v>313.7809090909091</v>
+      </c>
+      <c r="Z348" t="inlineStr"/>
+      <c r="AA348" t="n">
+        <v>232.8481481481481</v>
+      </c>
+      <c r="AB348" t="n">
+        <v>260.3881481481482</v>
+      </c>
+      <c r="AC348" t="n">
+        <v>271.7181481481481</v>
+      </c>
+      <c r="AD348" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30279,7 +30555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B354"/>
+  <dimension ref="A1:B357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33827,6 +34103,36 @@
       </c>
       <c r="B354" t="n">
         <v>-0.22</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2025-07-22 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -34000,28 +34306,28 @@
         <v>0.055</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01994207714617667</v>
+        <v>0.05102544619642927</v>
       </c>
       <c r="J2" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K2" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L2" t="n">
-        <v>3.442182741242306e-05</v>
+        <v>0.0002298783668397419</v>
       </c>
       <c r="M2" t="n">
-        <v>19.25727615916761</v>
+        <v>19.20167361500785</v>
       </c>
       <c r="N2" t="n">
-        <v>630.3158997585316</v>
+        <v>625.8853752490739</v>
       </c>
       <c r="O2" t="n">
-        <v>25.10609288118188</v>
+        <v>25.01770123830473</v>
       </c>
       <c r="P2" t="n">
-        <v>383.1479275311806</v>
+        <v>382.8353250817454</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34078,28 +34384,28 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1059037614928764</v>
+        <v>0.1366629647197485</v>
       </c>
       <c r="J3" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K3" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001670834357500484</v>
+        <v>0.002813941605490089</v>
       </c>
       <c r="M3" t="n">
-        <v>15.26810525740638</v>
+        <v>15.2596675569893</v>
       </c>
       <c r="N3" t="n">
-        <v>358.1207137664543</v>
+        <v>358.1678528973576</v>
       </c>
       <c r="O3" t="n">
-        <v>18.92407761996484</v>
+        <v>18.92532305925998</v>
       </c>
       <c r="P3" t="n">
-        <v>371.113006978011</v>
+        <v>370.7989817898933</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34156,28 +34462,28 @@
         <v>0.0574</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1427391692178032</v>
+        <v>0.1730922321370409</v>
       </c>
       <c r="J4" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K4" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003658090545460069</v>
+        <v>0.005411985345638026</v>
       </c>
       <c r="M4" t="n">
-        <v>13.8852062571226</v>
+        <v>13.91654140343555</v>
       </c>
       <c r="N4" t="n">
-        <v>298.2620938774322</v>
+        <v>299.6075658992413</v>
       </c>
       <c r="O4" t="n">
-        <v>17.27026617853449</v>
+        <v>17.309175771805</v>
       </c>
       <c r="P4" t="n">
-        <v>360.601016124358</v>
+        <v>360.2915016364556</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34234,28 +34540,28 @@
         <v>0.0663</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02839502136734826</v>
+        <v>0.03354411663287816</v>
       </c>
       <c r="J5" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K5" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001555463429576687</v>
+        <v>0.0002146860263468886</v>
       </c>
       <c r="M5" t="n">
-        <v>13.22254407906039</v>
+        <v>13.40949721528677</v>
       </c>
       <c r="N5" t="n">
-        <v>278.6717568444386</v>
+        <v>285.2173478957533</v>
       </c>
       <c r="O5" t="n">
-        <v>16.69346449495846</v>
+        <v>16.88837907840043</v>
       </c>
       <c r="P5" t="n">
-        <v>353.5880949954794</v>
+        <v>352.9575681649172</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34312,28 +34618,28 @@
         <v>0.0597</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1966436867505976</v>
+        <v>-0.123476726471193</v>
       </c>
       <c r="J6" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K6" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009859527912940758</v>
+        <v>0.003746735418833524</v>
       </c>
       <c r="M6" t="n">
-        <v>11.60769472397796</v>
+        <v>11.84799858214634</v>
       </c>
       <c r="N6" t="n">
-        <v>209.4353715173647</v>
+        <v>221.3433095548889</v>
       </c>
       <c r="O6" t="n">
-        <v>14.47188210003677</v>
+        <v>14.87761101638596</v>
       </c>
       <c r="P6" t="n">
-        <v>349.564904452775</v>
+        <v>348.823690660526</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34390,28 +34696,28 @@
         <v>0.0772</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3270918423430806</v>
+        <v>-0.2681562964393816</v>
       </c>
       <c r="J7" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K7" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0292672680718814</v>
+        <v>0.01939550298740944</v>
       </c>
       <c r="M7" t="n">
-        <v>11.33144621572508</v>
+        <v>11.50093646534971</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7110593205116</v>
+        <v>196.7969492670858</v>
       </c>
       <c r="O7" t="n">
-        <v>13.77356378431202</v>
+        <v>14.02843359991007</v>
       </c>
       <c r="P7" t="n">
-        <v>345.5502117444571</v>
+        <v>344.9499139640281</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34468,28 +34774,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2164834924662433</v>
+        <v>-0.1927260998722326</v>
       </c>
       <c r="J8" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K8" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01224647359597053</v>
+        <v>0.009875783324721055</v>
       </c>
       <c r="M8" t="n">
-        <v>11.19071173301514</v>
+        <v>11.18838503064623</v>
       </c>
       <c r="N8" t="n">
-        <v>202.4374752629007</v>
+        <v>201.9313440914855</v>
       </c>
       <c r="O8" t="n">
-        <v>14.22805240582494</v>
+        <v>14.21025489185488</v>
       </c>
       <c r="P8" t="n">
-        <v>340.0337091469989</v>
+        <v>339.7925974490603</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34546,28 +34852,28 @@
         <v>0.0832</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1468003193315419</v>
+        <v>-0.1378206082605444</v>
       </c>
       <c r="J9" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K9" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005855942353525601</v>
+        <v>0.005274107300478836</v>
       </c>
       <c r="M9" t="n">
-        <v>11.17102825029973</v>
+        <v>11.10946051367379</v>
       </c>
       <c r="N9" t="n">
-        <v>197.6625847728552</v>
+        <v>196.0251682097565</v>
       </c>
       <c r="O9" t="n">
-        <v>14.05925263920011</v>
+        <v>14.00089883578038</v>
       </c>
       <c r="P9" t="n">
-        <v>336.317081427893</v>
+        <v>336.226538068991</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34624,28 +34930,28 @@
         <v>0.1046</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.06126647066171296</v>
+        <v>-0.07223218206725263</v>
       </c>
       <c r="J10" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K10" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0009668390891773848</v>
+        <v>0.00137996557348663</v>
       </c>
       <c r="M10" t="n">
-        <v>11.70101470061861</v>
+        <v>11.61127234436996</v>
       </c>
       <c r="N10" t="n">
-        <v>209.0483503162219</v>
+        <v>205.3486047369205</v>
       </c>
       <c r="O10" t="n">
-        <v>14.45850442875133</v>
+        <v>14.32998969772555</v>
       </c>
       <c r="P10" t="n">
-        <v>332.993828979356</v>
+        <v>333.1018249741121</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34702,28 +35008,28 @@
         <v>0.1055</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.05603626294059112</v>
+        <v>-0.03016921450087554</v>
       </c>
       <c r="J11" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K11" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0007566660572460027</v>
+        <v>0.0002223835853968348</v>
       </c>
       <c r="M11" t="n">
-        <v>11.93062559614281</v>
+        <v>11.9274211941304</v>
       </c>
       <c r="N11" t="n">
-        <v>221.9491545504435</v>
+        <v>221.7807781843088</v>
       </c>
       <c r="O11" t="n">
-        <v>14.89795806647486</v>
+        <v>14.89230600626743</v>
       </c>
       <c r="P11" t="n">
-        <v>330.441459948572</v>
+        <v>330.1782585123657</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34780,28 +35086,28 @@
         <v>0.097</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0862911244697442</v>
+        <v>-0.05711707973429071</v>
       </c>
       <c r="J12" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K12" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001633404054739329</v>
+        <v>0.0007249826064053</v>
       </c>
       <c r="M12" t="n">
-        <v>12.30439821270939</v>
+        <v>12.2944304669849</v>
       </c>
       <c r="N12" t="n">
-        <v>240.1500648207957</v>
+        <v>240.4369828331527</v>
       </c>
       <c r="O12" t="n">
-        <v>15.49677594923524</v>
+        <v>15.50603053115634</v>
       </c>
       <c r="P12" t="n">
-        <v>330.8602631249465</v>
+        <v>330.5635381627966</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34858,28 +35164,28 @@
         <v>0.0925</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.120547961321587</v>
+        <v>-0.09780480676279435</v>
       </c>
       <c r="J13" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K13" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003583679196436984</v>
+        <v>0.002381723131865021</v>
       </c>
       <c r="M13" t="n">
-        <v>11.79090569245431</v>
+        <v>11.85064949838515</v>
       </c>
       <c r="N13" t="n">
-        <v>213.2476050046034</v>
+        <v>214.2171111899842</v>
       </c>
       <c r="O13" t="n">
-        <v>14.60299986319946</v>
+        <v>14.63615766483759</v>
       </c>
       <c r="P13" t="n">
-        <v>333.0916391485467</v>
+        <v>332.8594174179953</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34936,28 +35242,28 @@
         <v>0.1088</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0257898785254038</v>
+        <v>-0.03314823104925393</v>
       </c>
       <c r="J14" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K14" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001984986194198957</v>
+        <v>0.0003313429773788013</v>
       </c>
       <c r="M14" t="n">
-        <v>10.63709033878061</v>
+        <v>10.62729719594392</v>
       </c>
       <c r="N14" t="n">
-        <v>176.2863229847923</v>
+        <v>175.9195841994654</v>
       </c>
       <c r="O14" t="n">
-        <v>13.27728597962672</v>
+        <v>13.26346803062704</v>
       </c>
       <c r="P14" t="n">
-        <v>332.2359515719931</v>
+        <v>332.3111994502476</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35014,28 +35320,28 @@
         <v>0.0558</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06402570466463084</v>
+        <v>0.07987232353739881</v>
       </c>
       <c r="J15" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K15" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001082554760207355</v>
+        <v>0.001696696828996092</v>
       </c>
       <c r="M15" t="n">
-        <v>11.19340890573268</v>
+        <v>11.23576785377727</v>
       </c>
       <c r="N15" t="n">
-        <v>198.6806427843729</v>
+        <v>199.6142618368461</v>
       </c>
       <c r="O15" t="n">
-        <v>14.09541211828774</v>
+        <v>14.12849113801067</v>
       </c>
       <c r="P15" t="n">
-        <v>331.9065684546232</v>
+        <v>331.7430946342528</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35092,28 +35398,28 @@
         <v>0.1998</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1964280919327272</v>
+        <v>-0.174791473419204</v>
       </c>
       <c r="J16" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K16" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01015475575962665</v>
+        <v>0.008184809833605589</v>
       </c>
       <c r="M16" t="n">
-        <v>11.14130032698718</v>
+        <v>11.1220638453242</v>
       </c>
       <c r="N16" t="n">
-        <v>197.8365698092848</v>
+        <v>197.2345676716778</v>
       </c>
       <c r="O16" t="n">
-        <v>14.06543884168869</v>
+        <v>14.04402248900499</v>
       </c>
       <c r="P16" t="n">
-        <v>334.4733216103893</v>
+        <v>334.2520932883163</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35170,28 +35476,28 @@
         <v>0.1117</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4827552591492819</v>
+        <v>-0.4557652586212215</v>
       </c>
       <c r="J17" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K17" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06317207495586685</v>
+        <v>0.05730366954803223</v>
       </c>
       <c r="M17" t="n">
-        <v>10.89425317770347</v>
+        <v>10.90313744632385</v>
       </c>
       <c r="N17" t="n">
-        <v>183.4237586078486</v>
+        <v>183.6311658143057</v>
       </c>
       <c r="O17" t="n">
-        <v>13.54340277064256</v>
+        <v>13.55105773784119</v>
       </c>
       <c r="P17" t="n">
-        <v>340.3079183147112</v>
+        <v>340.033115107547</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35248,28 +35554,28 @@
         <v>0.09030000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.6366244661557461</v>
+        <v>-0.6137409469925498</v>
       </c>
       <c r="J18" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K18" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1101816121765148</v>
+        <v>0.104183031580562</v>
       </c>
       <c r="M18" t="n">
-        <v>10.39083535361506</v>
+        <v>10.40537788653045</v>
       </c>
       <c r="N18" t="n">
-        <v>173.1606309845862</v>
+        <v>173.3184426071246</v>
       </c>
       <c r="O18" t="n">
-        <v>13.15905129500551</v>
+        <v>13.1650462440177</v>
       </c>
       <c r="P18" t="n">
-        <v>343.7468609080555</v>
+        <v>343.511219647364</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35326,28 +35632,28 @@
         <v>0.0883</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.7309115871240905</v>
+        <v>-0.7173370533153435</v>
       </c>
       <c r="J19" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K19" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1243398487197364</v>
+        <v>0.1220615689898019</v>
       </c>
       <c r="M19" t="n">
-        <v>11.24238070332405</v>
+        <v>11.22497811594419</v>
       </c>
       <c r="N19" t="n">
-        <v>197.97525415311</v>
+        <v>197.1101311223792</v>
       </c>
       <c r="O19" t="n">
-        <v>14.07036794661426</v>
+        <v>14.03959155824625</v>
       </c>
       <c r="P19" t="n">
-        <v>346.588542810634</v>
+        <v>346.449163301396</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35404,28 +35710,28 @@
         <v>0.0664</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.6025495744765422</v>
+        <v>-0.6084770992259425</v>
       </c>
       <c r="J20" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K20" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07439761808387813</v>
+        <v>0.07629884693621358</v>
       </c>
       <c r="M20" t="n">
-        <v>12.29878305257971</v>
+        <v>12.31679517014061</v>
       </c>
       <c r="N20" t="n">
-        <v>237.4844072193343</v>
+        <v>237.4944899145937</v>
       </c>
       <c r="O20" t="n">
-        <v>15.41052910251086</v>
+        <v>15.41085623560851</v>
       </c>
       <c r="P20" t="n">
-        <v>346.6344881075094</v>
+        <v>346.6957621075017</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35482,28 +35788,28 @@
         <v>0.1275</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5168311342107333</v>
+        <v>-0.5046663871860761</v>
       </c>
       <c r="J21" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K21" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06150940659424997</v>
+        <v>0.05983011175525932</v>
       </c>
       <c r="M21" t="n">
-        <v>11.62119842117914</v>
+        <v>11.5710285500255</v>
       </c>
       <c r="N21" t="n">
-        <v>212.9947641097494</v>
+        <v>211.6135738002712</v>
       </c>
       <c r="O21" t="n">
-        <v>14.59434013957977</v>
+        <v>14.54694379587242</v>
       </c>
       <c r="P21" t="n">
-        <v>344.0459446954865</v>
+        <v>343.9197747566041</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35560,28 +35866,28 @@
         <v>0.0581</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.4428851474589025</v>
+        <v>-0.4282452317710707</v>
       </c>
       <c r="J22" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K22" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03971703170565599</v>
+        <v>0.03777299560329228</v>
       </c>
       <c r="M22" t="n">
-        <v>13.02480434647421</v>
+        <v>13.00047067515554</v>
       </c>
       <c r="N22" t="n">
-        <v>253.0162289929869</v>
+        <v>252.1733131951709</v>
       </c>
       <c r="O22" t="n">
-        <v>15.90648386642965</v>
+        <v>15.8799657806675</v>
       </c>
       <c r="P22" t="n">
-        <v>344.1488271957002</v>
+        <v>343.9986459502612</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35638,28 +35944,28 @@
         <v>0.0722</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.5171845464043682</v>
+        <v>-0.5001505889115464</v>
       </c>
       <c r="J23" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K23" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05202865057366002</v>
+        <v>0.0492142146882788</v>
       </c>
       <c r="M23" t="n">
-        <v>13.3009055848449</v>
+        <v>13.34429538006141</v>
       </c>
       <c r="N23" t="n">
-        <v>258.5818332008855</v>
+        <v>259.3878267808108</v>
       </c>
       <c r="O23" t="n">
-        <v>16.08047988092661</v>
+        <v>16.10552162399004</v>
       </c>
       <c r="P23" t="n">
-        <v>340.7477661154097</v>
+        <v>340.5731761601023</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35716,28 +36022,28 @@
         <v>0.074</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.3931173784325863</v>
+        <v>-0.3788812927278548</v>
       </c>
       <c r="J24" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K24" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03288198849016222</v>
+        <v>0.03104389261156471</v>
       </c>
       <c r="M24" t="n">
-        <v>12.61503524754958</v>
+        <v>12.61312423097325</v>
       </c>
       <c r="N24" t="n">
-        <v>244.9328830539393</v>
+        <v>244.3636573036843</v>
       </c>
       <c r="O24" t="n">
-        <v>15.65033172344725</v>
+        <v>15.63213540447</v>
       </c>
       <c r="P24" t="n">
-        <v>326.6885256744506</v>
+        <v>326.5444580956672</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35794,28 +36100,28 @@
         <v>0.0643</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.4855511412639469</v>
+        <v>-0.4798144174591055</v>
       </c>
       <c r="J25" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K25" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04944982676594245</v>
+        <v>0.04873871911688066</v>
       </c>
       <c r="M25" t="n">
-        <v>12.63413083807234</v>
+        <v>12.60834943807891</v>
       </c>
       <c r="N25" t="n">
-        <v>245.8314457673787</v>
+        <v>245.0358300185846</v>
       </c>
       <c r="O25" t="n">
-        <v>15.67901290794094</v>
+        <v>15.65362034861535</v>
       </c>
       <c r="P25" t="n">
-        <v>319.4714042412052</v>
+        <v>319.4141927378102</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -35872,28 +36178,28 @@
         <v>0.1565</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.59835577073444</v>
+        <v>-3.732991594797642</v>
       </c>
       <c r="J26" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K26" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1766935747029986</v>
+        <v>0.1870562952469439</v>
       </c>
       <c r="M26" t="n">
-        <v>43.7707244980302</v>
+        <v>44.48918223348226</v>
       </c>
       <c r="N26" t="n">
-        <v>3247.166243880256</v>
+        <v>3284.460701936613</v>
       </c>
       <c r="O26" t="n">
-        <v>56.98391214966077</v>
+        <v>57.31021463872398</v>
       </c>
       <c r="P26" t="n">
-        <v>335.2165130328723</v>
+        <v>336.6236094177422</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -35950,28 +36256,28 @@
         <v>0.2</v>
       </c>
       <c r="I27" t="n">
-        <v>-2.81564674851005</v>
+        <v>-2.848795560142294</v>
       </c>
       <c r="J27" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K27" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1872997678229594</v>
+        <v>0.1944644342897685</v>
       </c>
       <c r="M27" t="n">
-        <v>36.65213705136013</v>
+        <v>36.31684777832465</v>
       </c>
       <c r="N27" t="n">
-        <v>1768.412320524925</v>
+        <v>1750.13358347635</v>
       </c>
       <c r="O27" t="n">
-        <v>42.05249481927231</v>
+        <v>41.83459792416261</v>
       </c>
       <c r="P27" t="n">
-        <v>308.815290911221</v>
+        <v>309.1694677748346</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -36022,28 +36328,28 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>-0.8395090818580675</v>
+        <v>-0.8406092734991158</v>
       </c>
       <c r="J28" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K28" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05108503071573234</v>
+        <v>0.05218292721832329</v>
       </c>
       <c r="M28" t="n">
-        <v>19.62486159072299</v>
+        <v>19.50203070545084</v>
       </c>
       <c r="N28" t="n">
-        <v>693.2084360672128</v>
+        <v>686.7124842107319</v>
       </c>
       <c r="O28" t="n">
-        <v>26.32885178026594</v>
+        <v>26.20519956441339</v>
       </c>
       <c r="P28" t="n">
-        <v>271.0494993909239</v>
+        <v>271.0608139543349</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -36094,28 +36400,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>-0.2056543725978053</v>
+        <v>-0.221321516751092</v>
       </c>
       <c r="J29" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K29" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01344395593939729</v>
+        <v>0.01580828719451743</v>
       </c>
       <c r="M29" t="n">
-        <v>10.6305702948127</v>
+        <v>10.59526299296139</v>
       </c>
       <c r="N29" t="n">
-        <v>169.404786744555</v>
+        <v>168.2697194021076</v>
       </c>
       <c r="O29" t="n">
-        <v>13.01555940958955</v>
+        <v>12.97188187589247</v>
       </c>
       <c r="P29" t="n">
-        <v>283.4611171327211</v>
+        <v>283.6218871805765</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -36153,7 +36459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD345"/>
+  <dimension ref="A1:AD348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81655,11 +81961,7 @@
           <t>-44.02526981444188,168.3655179544083</t>
         </is>
       </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>-44.02455495008467,168.36551987325748</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>-44.0240462276877,168.3661209124539</t>
@@ -81913,6 +82215,442 @@
         </is>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-22 22:26:26+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>-44.02919661260343,168.36237422045238</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>-44.028637895045414,168.36282982282276</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>-44.02808118366508,168.36329127303614</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>-44.027500326833014,168.36368256763853</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>-44.0268527418644,168.36387995088995</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>-44.02630260107898,168.36436054819399</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>-44.025806720371286,168.36499885725323</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>-44.02527075784319,168.36552069620478</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>-44.024716279988404,168.36598874191958</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>-44.02408170449207,168.366224017828</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>-44.02345702756409,168.3664880796658</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>-44.0228705870953,168.36686319419312</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>-44.02230997897763,168.36732235300883</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>-44.021676163474034,168.367541867731</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>-44.02109138345629,168.3679277118359</t>
+        </is>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>-44.02044064772795,168.36807614810849</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>-44.0198201265584,168.36833337508813</t>
+        </is>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>-44.01923980922817,168.36873535150772</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>-44.018622897335675,168.3690056164754</t>
+        </is>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>-44.018015984077635,168.36931189745</t>
+        </is>
+      </c>
+      <c r="V346" t="inlineStr">
+        <is>
+          <t>-44.01736071501228,168.3694371238058</t>
+        </is>
+      </c>
+      <c r="W346" t="inlineStr">
+        <is>
+          <t>-44.016753088780284,168.36970515036833</t>
+        </is>
+      </c>
+      <c r="X346" t="inlineStr">
+        <is>
+          <t>-44.01615005834029,168.37004704072518</t>
+        </is>
+      </c>
+      <c r="Y346" t="inlineStr"/>
+      <c r="Z346" t="inlineStr">
+        <is>
+          <t>-44.015191512861044,168.37242976465728</t>
+        </is>
+      </c>
+      <c r="AA346" t="inlineStr">
+        <is>
+          <t>-44.014455236687944,168.3719242302738</t>
+        </is>
+      </c>
+      <c r="AB346" t="inlineStr">
+        <is>
+          <t>-44.013770007436804,168.37175581752814</t>
+        </is>
+      </c>
+      <c r="AC346" t="inlineStr">
+        <is>
+          <t>-44.013085675871146,168.37159338452312</t>
+        </is>
+      </c>
+      <c r="AD346" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:26:27+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>-44.02921546364219,168.3624290062112</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>-44.028692037032506,168.36298717344377</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>-44.02814804007249,168.3634855757009</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>-44.027441803054295,168.36351248293212</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>-44.026860571254595,168.36390270497412</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>-44.026358885022155,168.36452412378938</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>-44.02585033916706,168.36512562574433</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>-44.02530065500192,168.36560758611802</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>-44.024715873764315,168.3659875613117</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>-44.024102151007185,168.36628344121306</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>-44.023524634106316,168.36668456310136</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>-44.022960509786145,168.36712604984007</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>-44.022378374787685,168.36754408391485</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>-44.021740779401846,168.36777447645102</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>-44.02104793127847,168.36777129066857</t>
+        </is>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>-44.02044784493114,168.36810205683983</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>-44.019877263525196,168.3685390587766</t>
+        </is>
+      </c>
+      <c r="S347" t="inlineStr">
+        <is>
+          <t>-44.01929284158122,168.36892625975122</t>
+        </is>
+      </c>
+      <c r="T347" t="inlineStr">
+        <is>
+          <t>-44.01871861831499,168.3693501973773</t>
+        </is>
+      </c>
+      <c r="U347" t="inlineStr">
+        <is>
+          <t>-44.018053225124014,168.36944595882892</t>
+        </is>
+      </c>
+      <c r="V347" t="inlineStr">
+        <is>
+          <t>-44.01744193831082,168.36974767283365</t>
+        </is>
+      </c>
+      <c r="W347" t="inlineStr">
+        <is>
+          <t>-44.01678031578524,168.3698429102393</t>
+        </is>
+      </c>
+      <c r="X347" t="inlineStr">
+        <is>
+          <t>-44.01617106422446,168.37018572967065</t>
+        </is>
+      </c>
+      <c r="Y347" t="inlineStr"/>
+      <c r="Z347" t="inlineStr">
+        <is>
+          <t>-44.015240597365384,168.37275388223017</t>
+        </is>
+      </c>
+      <c r="AA347" t="inlineStr">
+        <is>
+          <t>-44.01447041251001,168.37202443513814</t>
+        </is>
+      </c>
+      <c r="AB347" t="inlineStr">
+        <is>
+          <t>-44.013783318890304,168.37184371015854</t>
+        </is>
+      </c>
+      <c r="AC347" t="inlineStr">
+        <is>
+          <t>-44.01309468609774,168.37165287576616</t>
+        </is>
+      </c>
+      <c r="AD347" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:26:37+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>-44.029159757353604,168.3622671103389</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>-44.028573063676376,168.362641407274</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>-44.02800658887804,168.36307448217957</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>-44.027468537818244,168.363590180698</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>-44.0269500989357,168.36416289520602</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>-44.02639347310939,168.36462464613638</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>-44.02584330335156,168.3651051776458</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>-44.02525596994609,168.36547771833918</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>-44.024591974878426,168.36562747669225</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>-44.024032222643605,168.36608021004085</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>-44.02344329343486,168.3664481646333</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>-44.02283276189266,168.36675262698776</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr"/>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>-44.021619975341935,168.36733959971832</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>-44.0210774458939,168.3678775386446</t>
+        </is>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>-44.020483773877906,168.36823139546055</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>-44.019861445487145,168.3684821162696</t>
+        </is>
+      </c>
+      <c r="S348" t="inlineStr">
+        <is>
+          <t>-44.01923647249592,168.36872333983828</t>
+        </is>
+      </c>
+      <c r="T348" t="inlineStr"/>
+      <c r="U348" t="inlineStr">
+        <is>
+          <t>-44.01801027036021,168.36929132911123</t>
+        </is>
+      </c>
+      <c r="V348" t="inlineStr">
+        <is>
+          <t>-44.01741054554082,168.36962764529207</t>
+        </is>
+      </c>
+      <c r="W348" t="inlineStr">
+        <is>
+          <t>-44.01684555912726,168.37017302441177</t>
+        </is>
+      </c>
+      <c r="X348" t="inlineStr">
+        <is>
+          <t>-44.0162034099248,168.3703992907992</t>
+        </is>
+      </c>
+      <c r="Y348" t="inlineStr">
+        <is>
+          <t>-44.01555606105641,168.370480865968</t>
+        </is>
+      </c>
+      <c r="Z348" t="inlineStr"/>
+      <c r="AA348" t="inlineStr">
+        <is>
+          <t>-44.01443184376515,168.3717697697091</t>
+        </is>
+      </c>
+      <c r="AB348" t="inlineStr">
+        <is>
+          <t>-44.01374417746277,168.37158526920516</t>
+        </is>
+      </c>
+      <c r="AC348" t="inlineStr">
+        <is>
+          <t>-44.013086429345506,168.37159835943123</t>
+        </is>
+      </c>
+      <c r="AD348" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0453/nzd0453.xlsx
+++ b/data/nzd0453/nzd0453.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD348"/>
+  <dimension ref="A1:AD350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30496,7 +30496,9 @@
       <c r="M348" t="n">
         <v>355.1466666666666</v>
       </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="N348" t="n">
+        <v>358.8347058823529</v>
+      </c>
       <c r="O348" t="n">
         <v>359.51</v>
       </c>
@@ -30512,7 +30514,9 @@
       <c r="S348" t="n">
         <v>340.5966666666666</v>
       </c>
-      <c r="T348" t="inlineStr"/>
+      <c r="T348" t="n">
+        <v>356.7209090909091</v>
+      </c>
       <c r="U348" t="n">
         <v>341.7968421052632</v>
       </c>
@@ -30528,7 +30532,9 @@
       <c r="Y348" t="n">
         <v>313.7809090909091</v>
       </c>
-      <c r="Z348" t="inlineStr"/>
+      <c r="Z348" t="n">
+        <v>301.5700000000001</v>
+      </c>
       <c r="AA348" t="n">
         <v>232.8481481481481</v>
       </c>
@@ -30541,6 +30547,178 @@
       <c r="AD348" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-24 22:26:48+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>403.1355555555555</v>
+      </c>
+      <c r="C349" t="n">
+        <v>401.1854545454545</v>
+      </c>
+      <c r="D349" t="n">
+        <v>385.79</v>
+      </c>
+      <c r="E349" t="n">
+        <v>361.1854545454545</v>
+      </c>
+      <c r="F349" t="n">
+        <v>357.4254545454546</v>
+      </c>
+      <c r="G349" t="n">
+        <v>354.8861538461539</v>
+      </c>
+      <c r="H349" t="n">
+        <v>352.7114285714285</v>
+      </c>
+      <c r="I349" t="n">
+        <v>351.2461538461538</v>
+      </c>
+      <c r="J349" t="n">
+        <v>340.615</v>
+      </c>
+      <c r="K349" t="n">
+        <v>336.535</v>
+      </c>
+      <c r="L349" t="n">
+        <v>334.135</v>
+      </c>
+      <c r="M349" t="n">
+        <v>322.3333333333333</v>
+      </c>
+      <c r="N349" t="n">
+        <v>322.3811764705882</v>
+      </c>
+      <c r="O349" t="n">
+        <v>324.85</v>
+      </c>
+      <c r="P349" t="n">
+        <v>319.7530769230769</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>325.1811764705882</v>
+      </c>
+      <c r="R349" t="n">
+        <v>328.0414285714286</v>
+      </c>
+      <c r="S349" t="n">
+        <v>340.8133333333333</v>
+      </c>
+      <c r="T349" t="n">
+        <v>335.8654545454545</v>
+      </c>
+      <c r="U349" t="n">
+        <v>323.4215789473685</v>
+      </c>
+      <c r="V349" t="n">
+        <v>315.26</v>
+      </c>
+      <c r="W349" t="n">
+        <v>304.2061538461539</v>
+      </c>
+      <c r="X349" t="n">
+        <v>301.0761538461539</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>299.0154545454546</v>
+      </c>
+      <c r="Z349" t="n">
+        <v>297.34</v>
+      </c>
+      <c r="AA349" t="inlineStr"/>
+      <c r="AB349" t="n">
+        <v>253.9218518518518</v>
+      </c>
+      <c r="AC349" t="n">
+        <v>287.3518518518518</v>
+      </c>
+      <c r="AD349" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:26:49+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>415.6244444444445</v>
+      </c>
+      <c r="C350" t="n">
+        <v>401.53</v>
+      </c>
+      <c r="D350" t="n">
+        <v>387.8</v>
+      </c>
+      <c r="E350" t="n">
+        <v>382.97</v>
+      </c>
+      <c r="F350" t="n">
+        <v>367.97</v>
+      </c>
+      <c r="G350" t="n">
+        <v>364.9623076923077</v>
+      </c>
+      <c r="H350" t="n">
+        <v>362.7214285714285</v>
+      </c>
+      <c r="I350" t="n">
+        <v>360.0123076923077</v>
+      </c>
+      <c r="J350" t="n">
+        <v>358.215</v>
+      </c>
+      <c r="K350" t="n">
+        <v>348.975</v>
+      </c>
+      <c r="L350" t="n">
+        <v>345.765</v>
+      </c>
+      <c r="M350" t="n">
+        <v>343.5266666666666</v>
+      </c>
+      <c r="N350" t="n">
+        <v>337.8641176470588</v>
+      </c>
+      <c r="O350" t="n">
+        <v>330.07</v>
+      </c>
+      <c r="P350" t="n">
+        <v>328.2461538461538</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>339.6741176470588</v>
+      </c>
+      <c r="R350" t="n">
+        <v>349.3214285714286</v>
+      </c>
+      <c r="S350" t="n">
+        <v>345.0966666666666</v>
+      </c>
+      <c r="T350" t="n">
+        <v>322.47</v>
+      </c>
+      <c r="U350" t="inlineStr"/>
+      <c r="V350" t="inlineStr"/>
+      <c r="W350" t="inlineStr"/>
+      <c r="X350" t="inlineStr"/>
+      <c r="Y350" t="inlineStr"/>
+      <c r="Z350" t="inlineStr"/>
+      <c r="AA350" t="inlineStr"/>
+      <c r="AB350" t="inlineStr"/>
+      <c r="AC350" t="inlineStr"/>
+      <c r="AD350" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -30555,7 +30733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B357"/>
+  <dimension ref="A1:B359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34133,6 +34311,26 @@
       </c>
       <c r="B357" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2025-09-24 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -36459,7 +36657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD348"/>
+  <dimension ref="A1:AD350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82577,7 +82775,11 @@
           <t>-44.02283276189266,168.36675262698776</t>
         </is>
       </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>-44.02222894884377,168.36705966558088</t>
+        </is>
+      </c>
       <c r="O348" t="inlineStr">
         <is>
           <t>-44.021619975341935,168.36733959971832</t>
@@ -82603,7 +82805,11 @@
           <t>-44.01923647249592,168.36872333983828</t>
         </is>
       </c>
-      <c r="T348" t="inlineStr"/>
+      <c r="T348" t="inlineStr">
+        <is>
+          <t>-44.01857324579523,168.36882688039418</t>
+        </is>
+      </c>
       <c r="U348" t="inlineStr">
         <is>
           <t>-44.01801027036021,168.36929132911123</t>
@@ -82629,7 +82835,11 @@
           <t>-44.01555606105641,168.370480865968</t>
         </is>
       </c>
-      <c r="Z348" t="inlineStr"/>
+      <c r="Z348" t="inlineStr">
+        <is>
+          <t>-44.01494179374624,168.37078090670443</t>
+        </is>
+      </c>
       <c r="AA348" t="inlineStr">
         <is>
           <t>-44.01443184376515,168.3717697697091</t>
@@ -82648,6 +82858,270 @@
       <c r="AD348" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-24 22:26:48+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>-44.029170393067105,168.36229802020685</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>-44.028584924124615,168.3626758764925</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>-44.02805146960574,168.36320491644378</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>-44.02755363781564,168.36383750357194</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>-44.02697515209489,168.364235706504</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>-44.026391937450086,168.36462018308686</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>-44.02580730623029,168.36500055992045</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>-44.025219924196726,168.36537295934545</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>-44.0246679972731,168.36584841835594</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>-44.024090718758714,168.36625021583353</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>-44.02350693457041,168.36663312318655</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>-44.02295911076494,168.36712196030106</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>-44.02235774178311,168.36747719402393</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>-44.02173189917879,168.3677425087038</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>-44.021137222511875,168.3680927264622</t>
+        </is>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>-44.020508552707675,168.36832059578566</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>-44.019888168683465,168.36857831574696</t>
+        </is>
+      </c>
+      <c r="S349" t="inlineStr">
+        <is>
+          <t>-44.01923577285835,168.3687208212626</t>
+        </is>
+      </c>
+      <c r="T349" t="inlineStr">
+        <is>
+          <t>-44.018640589705264,168.36906930594367</t>
+        </is>
+      </c>
+      <c r="U349" t="inlineStr">
+        <is>
+          <t>-44.018069604814585,168.36950492313395</t>
+        </is>
+      </c>
+      <c r="V349" t="inlineStr">
+        <is>
+          <t>-44.01747991574387,168.36989287706606</t>
+        </is>
+      </c>
+      <c r="W349" t="inlineStr">
+        <is>
+          <t>-44.01686854858272,168.37028934632454</t>
+        </is>
+      </c>
+      <c r="X349" t="inlineStr">
+        <is>
+          <t>-44.01621632054466,168.37048453341882</t>
+        </is>
+      </c>
+      <c r="Y349" t="inlineStr">
+        <is>
+          <t>-44.01558332084486,168.37066084868223</t>
+        </is>
+      </c>
+      <c r="Z349" t="inlineStr">
+        <is>
+          <t>-44.014949603013285,168.37083246755898</t>
+        </is>
+      </c>
+      <c r="AA349" t="inlineStr"/>
+      <c r="AB349" t="inlineStr">
+        <is>
+          <t>-44.013756114746016,168.371664087628</t>
+        </is>
+      </c>
+      <c r="AC349" t="inlineStr">
+        <is>
+          <t>-44.01305756811801,168.37140780068864</t>
+        </is>
+      </c>
+      <c r="AD349" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:26:49+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>-44.02912207230013,168.36215758904925</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>-44.02858359105575,168.36267200228244</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>-44.02804369286907,168.36318231531936</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>-44.027469353823925,168.36359255221367</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>-44.02693435583579,168.36411714157208</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>-44.02635295367164,168.36450688571557</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>-44.02576857868711,168.36488800726693</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>-44.025186009206124,168.36527439329402</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>-44.024599905986875,168.36565052655814</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>-44.0240425910201,168.36611034331708</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>-44.023461940897256,168.36650235913282</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>-44.022877505233026,168.36688341671461</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>-44.02230303961684,168.36729985654878</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>-44.02171504287727,168.36768182813543</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>-44.0211097971024,168.36799399843076</t>
+        </is>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>-44.02046175304973,168.36815212382402</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>-44.019819453054176,168.3683309505938</t>
+        </is>
+      </c>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>-44.019221941551045,168.3686710309719</t>
+        </is>
+      </c>
+      <c r="T350" t="inlineStr">
+        <is>
+          <t>-44.01868384442617,168.3692250161384</t>
+        </is>
+      </c>
+      <c r="U350" t="inlineStr"/>
+      <c r="V350" t="inlineStr"/>
+      <c r="W350" t="inlineStr"/>
+      <c r="X350" t="inlineStr"/>
+      <c r="Y350" t="inlineStr"/>
+      <c r="Z350" t="inlineStr"/>
+      <c r="AA350" t="inlineStr"/>
+      <c r="AB350" t="inlineStr"/>
+      <c r="AC350" t="inlineStr"/>
+      <c r="AD350" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0453/nzd0453.xlsx
+++ b/data/nzd0453/nzd0453.xlsx
@@ -34504,28 +34504,28 @@
         <v>0.055</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05102544619642927</v>
+        <v>0.08731719167117825</v>
       </c>
       <c r="J2" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K2" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002298783668397419</v>
+        <v>0.0006783845277733569</v>
       </c>
       <c r="M2" t="n">
-        <v>19.20167361500785</v>
+        <v>19.24785375360636</v>
       </c>
       <c r="N2" t="n">
-        <v>625.8853752490739</v>
+        <v>626.1355710903148</v>
       </c>
       <c r="O2" t="n">
-        <v>25.01770123830473</v>
+        <v>25.02270111499386</v>
       </c>
       <c r="P2" t="n">
-        <v>382.8353250817454</v>
+        <v>382.4679999552073</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34582,28 +34582,28 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1366629647197485</v>
+        <v>0.174287113157045</v>
       </c>
       <c r="J3" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K3" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002813941605490089</v>
+        <v>0.004574855103084863</v>
       </c>
       <c r="M3" t="n">
-        <v>15.2596675569893</v>
+        <v>15.33424093351825</v>
       </c>
       <c r="N3" t="n">
-        <v>358.1678528973576</v>
+        <v>360.652068216472</v>
       </c>
       <c r="O3" t="n">
-        <v>18.92532305925998</v>
+        <v>18.9908416932076</v>
       </c>
       <c r="P3" t="n">
-        <v>370.7989817898933</v>
+        <v>370.4127035161848</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34660,28 +34660,28 @@
         <v>0.0574</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1730922321370409</v>
+        <v>0.2035011154875205</v>
       </c>
       <c r="J4" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K4" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005411985345638026</v>
+        <v>0.007495407103713325</v>
       </c>
       <c r="M4" t="n">
-        <v>13.91654140343555</v>
+        <v>13.97412877519134</v>
       </c>
       <c r="N4" t="n">
-        <v>299.6075658992413</v>
+        <v>300.8275168332476</v>
       </c>
       <c r="O4" t="n">
-        <v>17.309175771805</v>
+        <v>17.34437997834594</v>
       </c>
       <c r="P4" t="n">
-        <v>360.2915016364556</v>
+        <v>359.9797018039908</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34738,28 +34738,28 @@
         <v>0.0663</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03354411663287816</v>
+        <v>0.05854714394364999</v>
       </c>
       <c r="J5" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K5" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002146860263468886</v>
+        <v>0.0006564748044262103</v>
       </c>
       <c r="M5" t="n">
-        <v>13.40949721528677</v>
+        <v>13.45175607841462</v>
       </c>
       <c r="N5" t="n">
-        <v>285.2173478957533</v>
+        <v>286.3213948236109</v>
       </c>
       <c r="O5" t="n">
-        <v>16.88837907840043</v>
+        <v>16.92103409439302</v>
       </c>
       <c r="P5" t="n">
-        <v>352.9575681649172</v>
+        <v>352.7012536607768</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34816,28 +34816,28 @@
         <v>0.0597</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.123476726471193</v>
+        <v>-0.1001689419133893</v>
       </c>
       <c r="J6" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K6" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003746735418833524</v>
+        <v>0.002481825626154177</v>
       </c>
       <c r="M6" t="n">
-        <v>11.84799858214634</v>
+        <v>11.88675554471747</v>
       </c>
       <c r="N6" t="n">
-        <v>221.3433095548889</v>
+        <v>221.9818469214621</v>
       </c>
       <c r="O6" t="n">
-        <v>14.87761101638596</v>
+        <v>14.89905523586855</v>
       </c>
       <c r="P6" t="n">
-        <v>348.823690660526</v>
+        <v>348.5857966071891</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34894,28 +34894,28 @@
         <v>0.0772</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2681562964393816</v>
+        <v>-0.2377956019833602</v>
       </c>
       <c r="J7" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K7" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01939550298740944</v>
+        <v>0.01528037162897355</v>
       </c>
       <c r="M7" t="n">
-        <v>11.50093646534971</v>
+        <v>11.57009530610095</v>
       </c>
       <c r="N7" t="n">
-        <v>196.7969492670858</v>
+        <v>198.8894399944312</v>
       </c>
       <c r="O7" t="n">
-        <v>14.02843359991007</v>
+        <v>14.1028167397308</v>
       </c>
       <c r="P7" t="n">
-        <v>344.9499139640281</v>
+        <v>344.6383812731808</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34972,28 +34972,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1927260998722326</v>
+        <v>-0.1614513588065176</v>
       </c>
       <c r="J8" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K8" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009875783324721055</v>
+        <v>0.006929241158999733</v>
       </c>
       <c r="M8" t="n">
-        <v>11.18838503064623</v>
+        <v>11.26064787351648</v>
       </c>
       <c r="N8" t="n">
-        <v>201.9313440914855</v>
+        <v>204.2450280022654</v>
       </c>
       <c r="O8" t="n">
-        <v>14.21025489185488</v>
+        <v>14.29143197871597</v>
       </c>
       <c r="P8" t="n">
-        <v>339.7925974490603</v>
+        <v>339.472892121089</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35050,28 +35050,28 @@
         <v>0.0832</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1378206082605444</v>
+        <v>-0.1061572704236585</v>
       </c>
       <c r="J9" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K9" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005274107300478836</v>
+        <v>0.003124647773063205</v>
       </c>
       <c r="M9" t="n">
-        <v>11.10946051367379</v>
+        <v>11.17426409153956</v>
       </c>
       <c r="N9" t="n">
-        <v>196.0251682097565</v>
+        <v>198.3836065044996</v>
       </c>
       <c r="O9" t="n">
-        <v>14.00089883578038</v>
+        <v>14.08487154731983</v>
       </c>
       <c r="P9" t="n">
-        <v>336.226538068991</v>
+        <v>335.9054376191564</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35128,28 +35128,28 @@
         <v>0.1046</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.07223218206725263</v>
+        <v>-0.04642103599794904</v>
       </c>
       <c r="J10" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K10" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00137996557348663</v>
+        <v>0.0005716260436454679</v>
       </c>
       <c r="M10" t="n">
-        <v>11.61127234436996</v>
+        <v>11.64522908580501</v>
       </c>
       <c r="N10" t="n">
-        <v>205.3486047369205</v>
+        <v>206.727987369902</v>
       </c>
       <c r="O10" t="n">
-        <v>14.32998969772555</v>
+        <v>14.37803837002468</v>
       </c>
       <c r="P10" t="n">
-        <v>333.1018249741121</v>
+        <v>332.84032396919</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35206,28 +35206,28 @@
         <v>0.1055</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.03016921450087554</v>
+        <v>-0.011735497368364</v>
       </c>
       <c r="J11" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K11" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002223835853968348</v>
+        <v>3.394457999972289e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>11.9274211941304</v>
+        <v>11.93246994567228</v>
       </c>
       <c r="N11" t="n">
-        <v>221.7807781843088</v>
+        <v>221.7228258503235</v>
       </c>
       <c r="O11" t="n">
-        <v>14.89230600626743</v>
+        <v>14.89036016523185</v>
       </c>
       <c r="P11" t="n">
-        <v>330.1782585123657</v>
+        <v>329.9895554689894</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35284,28 +35284,28 @@
         <v>0.097</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05711707973429071</v>
+        <v>-0.04189955988458965</v>
       </c>
       <c r="J12" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K12" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0007249826064053</v>
+        <v>0.0003947135736200869</v>
       </c>
       <c r="M12" t="n">
-        <v>12.2944304669849</v>
+        <v>12.27196157476482</v>
       </c>
       <c r="N12" t="n">
-        <v>240.4369828331527</v>
+        <v>239.8144823082681</v>
       </c>
       <c r="O12" t="n">
-        <v>15.50603053115634</v>
+        <v>15.4859446695469</v>
       </c>
       <c r="P12" t="n">
-        <v>330.5635381627966</v>
+        <v>330.4077906311067</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35362,28 +35362,28 @@
         <v>0.0925</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.09780480676279435</v>
+        <v>-0.09416010995696444</v>
       </c>
       <c r="J13" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K13" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002381723131865021</v>
+        <v>0.002233503899083389</v>
       </c>
       <c r="M13" t="n">
-        <v>11.85064949838515</v>
+        <v>11.84458184571938</v>
       </c>
       <c r="N13" t="n">
-        <v>214.2171111899842</v>
+        <v>213.5698008364302</v>
       </c>
       <c r="O13" t="n">
-        <v>14.63615766483759</v>
+        <v>14.61402753646065</v>
       </c>
       <c r="P13" t="n">
-        <v>332.8594174179953</v>
+        <v>332.821930112239</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35440,28 +35440,28 @@
         <v>0.1088</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.03314823104925393</v>
+        <v>-0.01658443082522836</v>
       </c>
       <c r="J14" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K14" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003313429773788013</v>
+        <v>8.346669161285458e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>10.62729719594392</v>
+        <v>10.67049999565138</v>
       </c>
       <c r="N14" t="n">
-        <v>175.9195841994654</v>
+        <v>177.0464031664319</v>
       </c>
       <c r="O14" t="n">
-        <v>13.26346803062704</v>
+        <v>13.30587851915205</v>
       </c>
       <c r="P14" t="n">
-        <v>332.3111994502476</v>
+        <v>332.141439284221</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35518,28 +35518,28 @@
         <v>0.0558</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07987232353739881</v>
+        <v>0.07121009108151277</v>
       </c>
       <c r="J15" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K15" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001696696828996092</v>
+        <v>0.001367229113611645</v>
       </c>
       <c r="M15" t="n">
-        <v>11.23576785377727</v>
+        <v>11.20185926071063</v>
       </c>
       <c r="N15" t="n">
-        <v>199.6142618368461</v>
+        <v>198.5833704488891</v>
       </c>
       <c r="O15" t="n">
-        <v>14.12849113801067</v>
+        <v>14.09196119952397</v>
       </c>
       <c r="P15" t="n">
-        <v>331.7430946342528</v>
+        <v>331.8328210028058</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35596,28 +35596,28 @@
         <v>0.1998</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.174791473419204</v>
+        <v>-0.1825257841186541</v>
       </c>
       <c r="J16" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K16" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L16" t="n">
-        <v>0.008184809833605589</v>
+        <v>0.009037950546711082</v>
       </c>
       <c r="M16" t="n">
-        <v>11.1220638453242</v>
+        <v>11.08939286465572</v>
       </c>
       <c r="N16" t="n">
-        <v>197.2345676716778</v>
+        <v>196.2473947977512</v>
       </c>
       <c r="O16" t="n">
-        <v>14.04402248900499</v>
+        <v>14.00883274215775</v>
       </c>
       <c r="P16" t="n">
-        <v>334.2520932883163</v>
+        <v>334.3316587698479</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35674,28 +35674,28 @@
         <v>0.1117</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4557652586212215</v>
+        <v>-0.4499440574676196</v>
       </c>
       <c r="J17" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K17" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05730366954803223</v>
+        <v>0.05658650431121537</v>
       </c>
       <c r="M17" t="n">
-        <v>10.90313744632385</v>
+        <v>10.87568326166473</v>
       </c>
       <c r="N17" t="n">
-        <v>183.6311658143057</v>
+        <v>182.8761068860038</v>
       </c>
       <c r="O17" t="n">
-        <v>13.55105773784119</v>
+        <v>13.52316926190025</v>
       </c>
       <c r="P17" t="n">
-        <v>340.033115107547</v>
+        <v>339.9733612173319</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35752,28 +35752,28 @@
         <v>0.09030000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.6137409469925498</v>
+        <v>-0.5992477883663077</v>
       </c>
       <c r="J18" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K18" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L18" t="n">
-        <v>0.104183031580562</v>
+        <v>0.1002764140226987</v>
       </c>
       <c r="M18" t="n">
-        <v>10.40537788653045</v>
+        <v>10.41004236253974</v>
       </c>
       <c r="N18" t="n">
-        <v>173.3184426071246</v>
+        <v>173.7276625163092</v>
       </c>
       <c r="O18" t="n">
-        <v>13.1650462440177</v>
+        <v>13.18057899017752</v>
       </c>
       <c r="P18" t="n">
-        <v>343.511219647364</v>
+        <v>343.3608271413854</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35830,28 +35830,28 @@
         <v>0.0883</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.7173370533153435</v>
+        <v>-0.6973250046770684</v>
       </c>
       <c r="J19" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K19" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1220615689898019</v>
+        <v>0.116826046992163</v>
       </c>
       <c r="M19" t="n">
-        <v>11.22497811594419</v>
+        <v>11.24671372289877</v>
       </c>
       <c r="N19" t="n">
-        <v>197.1101311223792</v>
+        <v>197.3397794676189</v>
       </c>
       <c r="O19" t="n">
-        <v>14.03959155824625</v>
+        <v>14.04776777525949</v>
       </c>
       <c r="P19" t="n">
-        <v>346.449163301396</v>
+        <v>346.242453311292</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35908,28 +35908,28 @@
         <v>0.0664</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.6084770992259425</v>
+        <v>-0.5938955443930282</v>
       </c>
       <c r="J20" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K20" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07629884693621358</v>
+        <v>0.0736906846601747</v>
       </c>
       <c r="M20" t="n">
-        <v>12.31679517014061</v>
+        <v>12.32017705719426</v>
       </c>
       <c r="N20" t="n">
-        <v>237.4944899145937</v>
+        <v>237.6453773630455</v>
       </c>
       <c r="O20" t="n">
-        <v>15.41085623560851</v>
+        <v>15.41575095034444</v>
       </c>
       <c r="P20" t="n">
-        <v>346.6957621075017</v>
+        <v>346.5449156065354</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35986,28 +35986,28 @@
         <v>0.1275</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5046663871860761</v>
+        <v>-0.5094848666473801</v>
       </c>
       <c r="J21" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K21" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05983011175525932</v>
+        <v>0.06127155323156885</v>
       </c>
       <c r="M21" t="n">
-        <v>11.5710285500255</v>
+        <v>11.56096212764469</v>
       </c>
       <c r="N21" t="n">
-        <v>211.6135738002712</v>
+        <v>211.0982734785424</v>
       </c>
       <c r="O21" t="n">
-        <v>14.54694379587242</v>
+        <v>14.5292213651848</v>
       </c>
       <c r="P21" t="n">
-        <v>343.9197747566041</v>
+        <v>343.9700257293289</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -36064,28 +36064,28 @@
         <v>0.0581</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.4282452317710707</v>
+        <v>-0.4400589049446416</v>
       </c>
       <c r="J22" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K22" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03777299560329228</v>
+        <v>0.0399239535522139</v>
       </c>
       <c r="M22" t="n">
-        <v>13.00047067515554</v>
+        <v>13.01462652792205</v>
       </c>
       <c r="N22" t="n">
-        <v>252.1733131951709</v>
+        <v>252.3512939801177</v>
       </c>
       <c r="O22" t="n">
-        <v>15.8799657806675</v>
+        <v>15.88556873329116</v>
       </c>
       <c r="P22" t="n">
-        <v>343.9986459502612</v>
+        <v>344.1207170619045</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -36142,28 +36142,28 @@
         <v>0.0722</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.5001505889115464</v>
+        <v>-0.5154471970676723</v>
       </c>
       <c r="J23" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K23" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0492142146882788</v>
+        <v>0.05212828221559274</v>
       </c>
       <c r="M23" t="n">
-        <v>13.34429538006141</v>
+        <v>13.37562506307707</v>
       </c>
       <c r="N23" t="n">
-        <v>259.3878267808108</v>
+        <v>260.2986040796142</v>
       </c>
       <c r="O23" t="n">
-        <v>16.10552162399004</v>
+        <v>16.1337721590338</v>
       </c>
       <c r="P23" t="n">
-        <v>340.5731761601023</v>
+        <v>340.7314469759023</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -36220,28 +36220,28 @@
         <v>0.074</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.3788812927278548</v>
+        <v>-0.3894099148874455</v>
       </c>
       <c r="J24" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K24" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03104389261156471</v>
+        <v>0.03286514182760614</v>
       </c>
       <c r="M24" t="n">
-        <v>12.61312423097325</v>
+        <v>12.62432596052826</v>
       </c>
       <c r="N24" t="n">
-        <v>244.3636573036843</v>
+        <v>244.3479895921056</v>
       </c>
       <c r="O24" t="n">
-        <v>15.63213540447</v>
+        <v>15.63163425851902</v>
       </c>
       <c r="P24" t="n">
-        <v>326.5444580956672</v>
+        <v>326.6519889155414</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -36298,28 +36298,28 @@
         <v>0.0643</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.4798144174591055</v>
+        <v>-0.4862633983454942</v>
       </c>
       <c r="J25" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K25" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04873871911688066</v>
+        <v>0.05038763987405093</v>
       </c>
       <c r="M25" t="n">
-        <v>12.60834943807891</v>
+        <v>12.59232038072507</v>
       </c>
       <c r="N25" t="n">
-        <v>245.0358300185846</v>
+        <v>244.2996095354599</v>
       </c>
       <c r="O25" t="n">
-        <v>15.65362034861535</v>
+        <v>15.63008667715761</v>
       </c>
       <c r="P25" t="n">
-        <v>319.4141927378102</v>
+        <v>319.4787511494823</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -36376,28 +36376,28 @@
         <v>0.1565</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.732991594797642</v>
+        <v>-3.642782463665807</v>
       </c>
       <c r="J26" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K26" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1870562952469439</v>
+        <v>0.1807519597401441</v>
       </c>
       <c r="M26" t="n">
-        <v>44.48918223348226</v>
+        <v>44.36900168956159</v>
       </c>
       <c r="N26" t="n">
-        <v>3284.460701936613</v>
+        <v>3286.541810405124</v>
       </c>
       <c r="O26" t="n">
-        <v>57.31021463872398</v>
+        <v>57.32836828660942</v>
       </c>
       <c r="P26" t="n">
-        <v>336.6236094177422</v>
+        <v>335.675364185506</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -36457,7 +36457,7 @@
         <v>-2.848795560142294</v>
       </c>
       <c r="J27" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K27" t="n">
         <v>247</v>
@@ -36526,28 +36526,28 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>-0.8406092734991158</v>
+        <v>-0.8373577831274331</v>
       </c>
       <c r="J28" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K28" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05218292721832329</v>
+        <v>0.05213967226959904</v>
       </c>
       <c r="M28" t="n">
-        <v>19.50203070545084</v>
+        <v>19.45150836055136</v>
       </c>
       <c r="N28" t="n">
-        <v>686.7124842107319</v>
+        <v>684.3838393183565</v>
       </c>
       <c r="O28" t="n">
-        <v>26.20519956441339</v>
+        <v>26.16073086361229</v>
       </c>
       <c r="P28" t="n">
-        <v>271.0608139543349</v>
+        <v>271.0263065538682</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -36598,28 +36598,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>-0.221321516751092</v>
+        <v>-0.2148960078699767</v>
       </c>
       <c r="J29" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K29" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01580828719451743</v>
+        <v>0.01499504207330182</v>
       </c>
       <c r="M29" t="n">
-        <v>10.59526299296139</v>
+        <v>10.59293709597135</v>
       </c>
       <c r="N29" t="n">
-        <v>168.2697194021076</v>
+        <v>167.9905129901707</v>
       </c>
       <c r="O29" t="n">
-        <v>12.97188187589247</v>
+        <v>12.96111542229953</v>
       </c>
       <c r="P29" t="n">
-        <v>283.6218871805765</v>
+        <v>283.5554992460108</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">

--- a/data/nzd0453/nzd0453.xlsx
+++ b/data/nzd0453/nzd0453.xlsx
@@ -34495,13 +34495,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0391</v>
+        <v>0.0501</v>
       </c>
       <c r="H2" t="n">
-        <v>0.055</v>
+        <v>0.131</v>
       </c>
       <c r="I2" t="n">
         <v>0.08728214027815803</v>
@@ -34576,10 +34576,10 @@
         <v>0.055</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0452</v>
+        <v>0.0415</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0629</v>
+        <v>0.0887</v>
       </c>
       <c r="I3" t="n">
         <v>0.1743071679605215</v>
@@ -34651,13 +34651,13 @@
         <v>0.9259188957016783</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0448</v>
+        <v>0.0513</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0574</v>
+        <v>0.1263</v>
       </c>
       <c r="I4" t="n">
         <v>0.2035011154875205</v>
@@ -34729,13 +34729,13 @@
         <v>0.8888783435538127</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0494</v>
+        <v>0.0565</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0663</v>
+        <v>0.1316</v>
       </c>
       <c r="I5" t="n">
         <v>0.05856952382759948</v>
@@ -34807,13 +34807,13 @@
         <v>0.8518377914047668</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.09</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0482</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0597</v>
+        <v>0.1404</v>
       </c>
       <c r="I6" t="n">
         <v>-0.1001456150240679</v>
@@ -34885,13 +34885,13 @@
         <v>0.8147972392560378</v>
       </c>
       <c r="F7" t="n">
-        <v>0.065</v>
+        <v>0.115</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0556</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0772</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>-0.2377924837384329</v>
@@ -34963,13 +34963,13 @@
         <v>0.7777566871073086</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0574</v>
+        <v>0.0922</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>-0.1614353379103296</v>
@@ -35041,13 +35041,13 @@
         <v>0.7407161349585795</v>
       </c>
       <c r="F9" t="n">
-        <v>0.065</v>
+        <v>0.13</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0554</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0832</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
         <v>-0.106149393873257</v>
@@ -35119,13 +35119,13 @@
         <v>0.7036755828093036</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0663</v>
+        <v>0.0604</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1046</v>
+        <v>0.1604</v>
       </c>
       <c r="I10" t="n">
         <v>-0.04644163683343393</v>
@@ -35197,13 +35197,13 @@
         <v>0.6666350306605746</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08</v>
+        <v>0.175</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0677</v>
+        <v>0.0788</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1055</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
         <v>-0.01168011266813312</v>
@@ -35275,13 +35275,13 @@
         <v>0.6295944785115287</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0654</v>
+        <v>0.0906</v>
       </c>
       <c r="H12" t="n">
-        <v>0.097</v>
+        <v>0.2</v>
       </c>
       <c r="I12" t="n">
         <v>-0.04191471642130534</v>
@@ -35353,13 +35353,13 @@
         <v>0.5925539263624828</v>
       </c>
       <c r="F13" t="n">
-        <v>0.075</v>
+        <v>0.2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0639</v>
+        <v>0.0988</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0925</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
         <v>-0.0941344931227619</v>
@@ -35431,13 +35431,13 @@
         <v>0.5555194467553091</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G14" t="n">
-        <v>0.073</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1088</v>
+        <v>0.1727</v>
       </c>
       <c r="I14" t="n">
         <v>-0.01660025027006063</v>
@@ -35509,13 +35509,13 @@
         <v>0.5184788946066013</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0438</v>
+        <v>0.0818</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0558</v>
+        <v>0.1606</v>
       </c>
       <c r="I15" t="n">
         <v>0.07121009108151312</v>
@@ -35587,13 +35587,13 @@
         <v>0.4814383424578937</v>
       </c>
       <c r="F16" t="n">
-        <v>0.13</v>
+        <v>0.075</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09420000000000001</v>
+        <v>0.0635</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1998</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="I16" t="n">
         <v>-0.1825291442340787</v>
@@ -35665,13 +35665,13 @@
         <v>0.4443977903084129</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07190000000000001</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1117</v>
+        <v>0.1046</v>
       </c>
       <c r="I17" t="n">
         <v>-0.449966204090771</v>
@@ -35743,13 +35743,13 @@
         <v>0.4073572381600316</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0572</v>
+        <v>0.0896</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09030000000000001</v>
+        <v>0.1864</v>
       </c>
       <c r="I18" t="n">
         <v>-0.5992241681891485</v>
@@ -35821,13 +35821,13 @@
         <v>0.3703166860105507</v>
       </c>
       <c r="F19" t="n">
-        <v>0.075</v>
+        <v>0.175</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06270000000000001</v>
+        <v>0.1045</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0883</v>
+        <v>0.2</v>
       </c>
       <c r="I19" t="n">
         <v>-0.6972859193115623</v>
@@ -35899,13 +35899,13 @@
         <v>0.3332761338613962</v>
       </c>
       <c r="F20" t="n">
-        <v>0.055</v>
+        <v>0.09</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0493</v>
+        <v>0.0746</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0664</v>
+        <v>0.1147</v>
       </c>
       <c r="I20" t="n">
         <v>-0.5938764941740392</v>
@@ -35977,13 +35977,13 @@
         <v>0.2962355817122416</v>
       </c>
       <c r="F21" t="n">
-        <v>0.095</v>
+        <v>0.09</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0745</v>
+        <v>0.0712</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1275</v>
+        <v>0.1176</v>
       </c>
       <c r="I21" t="n">
         <v>-0.5094924113992435</v>
@@ -36055,13 +36055,13 @@
         <v>0.2591950295632077</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0447</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0581</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="I22" t="n">
         <v>-0.4400589049446416</v>
@@ -36133,13 +36133,13 @@
         <v>0.2222433128945499</v>
       </c>
       <c r="F23" t="n">
-        <v>0.065</v>
+        <v>0.2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0574</v>
+        <v>0.1293</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0722</v>
+        <v>0.2</v>
       </c>
       <c r="I23" t="n">
         <v>-0.5154474015711825</v>
@@ -36211,13 +36211,13 @@
         <v>0.1852027607455509</v>
       </c>
       <c r="F24" t="n">
-        <v>0.065</v>
+        <v>0.2</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0557</v>
+        <v>0.1422</v>
       </c>
       <c r="H24" t="n">
-        <v>0.074</v>
+        <v>0.2</v>
       </c>
       <c r="I24" t="n">
         <v>-0.3894012904194329</v>
@@ -36289,13 +36289,13 @@
         <v>0.1481622085965518</v>
       </c>
       <c r="F25" t="n">
-        <v>0.055</v>
+        <v>0.2</v>
       </c>
       <c r="G25" t="n">
-        <v>0.046</v>
+        <v>0.1285</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0643</v>
+        <v>0.2</v>
       </c>
       <c r="I25" t="n">
         <v>-0.4862475624105734</v>
@@ -36367,13 +36367,13 @@
         <v>0.1111216564475528</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0304</v>
+        <v>0.0539</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1565</v>
+        <v>0.2</v>
       </c>
       <c r="I26" t="n">
         <v>-3.642782463665805</v>
@@ -36445,10 +36445,10 @@
         <v>0.0740811042982137</v>
       </c>
       <c r="F27" t="n">
-        <v>0.135</v>
+        <v>0.145</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06320000000000001</v>
+        <v>0.0606</v>
       </c>
       <c r="H27" t="n">
         <v>0.2</v>
@@ -36522,9 +36522,15 @@
       <c r="E28" t="n">
         <v>0.0370405521494469</v>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1182</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I28" t="n">
         <v>-0.8373539437108728</v>
       </c>
@@ -36594,9 +36600,15 @@
       <c r="E29" t="n">
         <v>0</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1771</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I29" t="n">
         <v>-0.2148855871188126</v>
       </c>
